--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -168,7 +168,7 @@
     <t xml:space="preserve">2. Дата проведения обследования</t>
   </si>
   <si>
-    <t xml:space="preserve">{Дата проведения обследования]</t>
+    <t xml:space="preserve">{Дата проведения обследования}</t>
   </si>
   <si>
     <t xml:space="preserve">3. Организация, проводившая обследование</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договор/Муниципальный контракт.родительный} {№ Договора / Муниципального контракта}.
-Работы выполнены в соответствии с ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния», СП 454.1325800.2019 «Здания жилые многоквартирные. Правила оценки аварийного и ограниченно-работоспособного технического состояния», действующими строительными нормами и правилами, с использованием приборов и оборудования, отвечающих требованиям действующих государственных стандартов. Сведения о приборах и оборудовании, применяемом в процессе обследования строительных конструкций дома, см. Таблица 1.
+Работы выполнены в соответствии с ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния», СП 454.1325800.2019 «Здания жилые многоквартирные. Правила оценки аварийного и ограниченно-работоспособного технического состояния», действующими строительными нормами и правилами, с использованием приборов и оборудования, отвечающих требованиям действующих государственных стандартов. Сведения о приборах и оборудовании, применяемом в процессе обследования строительных конструкций дома, см. Таблица 1.
 Цель проведения обследования - определение фактического технического состояния элементов ограждающих и несущих конструкции {Тип помещения.Родительный}, расположенного по адресу: {Адрес}, с выявлением возможности дальнейшей безопасной эксплуатации</t>
   </si>
   <si>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">{Назначение объекта}</t>
   </si>
   <si>
-    <t xml:space="preserve">Уровень ответственности сооружения в соответствии с п. 7 статьи 4 ФЗ РФ от 30.12.2009 г. №384-ФЗ «Технический регламент о безопасности зданий и сооружений»</t>
+    <t xml:space="preserve">Уровень ответственности сооружения в соответствии с п. 7 статьи 4 ФЗ РФ от 30.12.2009 г. №384-ФЗ «Технический регламент о безопасности зданий и сооружений»</t>
   </si>
   <si>
     <t xml:space="preserve">{Уровень ответственности}</t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент надежности по ответственности в соответствии с п. 7 статьи 16ФЗ РФ от 30.12.2009 г. №384-ФЗ «Технический регламент о безопасности зданий и сооружений»</t>
+    <t xml:space="preserve">Коэффициент надежности по ответственности в соответствии с п. 7 статьи 16ФЗ РФ от 30.12.2009 г. №384‑ФЗ «Технический регламент о безопасности зданий и сооружений»</t>
   </si>
   <si>
     <t xml:space="preserve">1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Группа капитальности объекта в соответствии с Таблицей 1 Сборника №28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»</t>
+    <t xml:space="preserve">Группа капитальности объекта в соответствии с Таблицей 1 Сборника №28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»</t>
   </si>
   <si>
     <t xml:space="preserve">{Группа капитальности}</t>
   </si>
   <si>
-    <t xml:space="preserve">Климатический район площадки в соответствии с СП 131.13330.2020 «Строительная климатология. Актуализированная редакция СНиП 23-01-99*»</t>
+    <t xml:space="preserve">Климатический район площадки в соответствии с СП 131.13330.2020 «Строительная климатология. Актуализированная редакция СНиП 23-01-99*»</t>
   </si>
   <si>
     <t xml:space="preserve">{Климатический район}</t>
@@ -386,25 +386,25 @@
     <t xml:space="preserve">{Снеговой район}</t>
   </si>
   <si>
-    <t xml:space="preserve">Нормативное значение ветрового давления (для 1 ветрового района) в соответствии с Картой 2 СП 20.13330.2016</t>
+    <t xml:space="preserve">Нормативное значение ветрового давления (для 1 ветрового района) в соответствии с Картой 2 СП 20.13330.2016</t>
   </si>
   <si>
     <t xml:space="preserve">{Ветровой район}</t>
   </si>
   <si>
-    <t xml:space="preserve">Степень агрессивного действия биологически активных сред на деревянные конструкции в соответствии с Таблицей Р.1 СП.28.13330.2017</t>
+    <t xml:space="preserve">Степень агрессивного действия биологически активных сред на деревянные конструкции в соответствии с Таблицей Р.1 СП.28.13330.2017</t>
   </si>
   <si>
     <t xml:space="preserve">Неагрессивная</t>
   </si>
   <si>
-    <t xml:space="preserve">Степень агрессивного воздействия газообразных сред на деревянные конструкции в соответствии с Таблицей Р.2 СП.28.13330.2017</t>
+    <t xml:space="preserve">Степень агрессивного воздействия газообразных сред на деревянные конструкции в соответствии с Таблицей Р.2 СП.28.13330.2017</t>
   </si>
   <si>
     <t xml:space="preserve">2.2. Описание и характеристики здания</t>
   </si>
   <si>
-    <t xml:space="preserve">{Обследуемый.род.Тип помещения} {Тип помещения} представляет собой {Число этажей.этажное} здание {Форма здания.прилаг.} формы в плане, выполненное по бескаркасной конструктивной схеме с несущими продольными и поперечеными стенами. 
+    <t xml:space="preserve">{Обследуемый.род.Тип помещения} {Тип помещения} представляет собой {Число этажей} здание {Форма здания} формы в плане, выполненное по бескаркасной конструктивной схеме с несущими продольными и поперечными стенами. 
 Подробное описание конструкций дома представлено в Таблице 3.
 За относительную отметку 0,000 м принят уровень чистого пола первого этажа дома.</t>
   </si>
@@ -1179,7 +1179,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1269,9 +1269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>62280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1285,7 +1285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1218960" cy="556200"/>
+          <a:ext cx="1218600" cy="555840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1311,9 +1311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1327,7 +1327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1218960" cy="556200"/>
+          <a:ext cx="1218600" cy="555840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,9 +1353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1369,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="631080" cy="287280"/>
+          <a:ext cx="630720" cy="286920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,7 +1497,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="DA10" activeCellId="0" sqref="DA10"/>
     </sheetView>
   </sheetViews>
@@ -8092,7 +8092,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE20" activeCellId="0" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -9762,8 +9762,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12211,8 +12211,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14680,8 +14680,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17098,8 +17098,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW27" activeCellId="0" sqref="AW27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19586,8 +19586,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR8" activeCellId="0" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -17,7 +17,8 @@
     <sheet name="Классификация тех. состояния" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="Конструктивная хар-ка" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="Описание конструкц. здания" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Шаблон" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Документация" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Шаблон" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="159">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -335,7 +336,7 @@
   </si>
   <si>
     <t xml:space="preserve">Таблица 2. Технические характеристики объекта
-И природно-климатические условия площадки</t>
+и природно-климатические условия площадки</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование параметра</t>
@@ -417,6 +418,111 @@
   <si>
     <t xml:space="preserve">Описание конструктивного элемента</t>
   </si>
+  <si>
+    <t xml:space="preserve">Фундаменты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип фундамента}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перегородки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип перегородок}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип стен}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кровля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип кровли}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крыша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип крыши}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перекрытия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип перекрытий}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип полов}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип окон}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип дверей}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделочные покрытия стен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип отделочных покрытий стен}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделочные покрытия потолков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип отделочных покрытий потолков}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженерные системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система водоснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Водоснабжение}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система канализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Канализация}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система отопления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Отопление}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система электроснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Электричество}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система газоснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Газоснабжение}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Перечень предоставленной технической документации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техническая документация отсутствует</t>
+  </si>
 </sst>
 </file>
 
@@ -437,19 +543,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -669,7 +772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="140">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1178,12 +1281,56 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1269,9 +1416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1285,7 +1432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1218600" cy="555840"/>
+          <a:ext cx="1218240" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1311,9 +1458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>24840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1327,7 +1474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1218600" cy="555840"/>
+          <a:ext cx="1218240" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,9 +1500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1369,7 +1516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="630720" cy="286920"/>
+          <a:ext cx="630360" cy="286560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,7 +1644,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="DA10" activeCellId="0" sqref="DA10"/>
     </sheetView>
   </sheetViews>
@@ -3147,7 +3294,2465 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="4" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="2.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="40" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="9" width="2.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="51"/>
+      <c r="D2" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="52"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="51"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="52"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="51"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="8"/>
+      <c r="AM4" s="52"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="40"/>
+      <c r="D5" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="41"/>
+      <c r="AQ5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="42"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
+      <c r="AM6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="44"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="134"/>
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="134"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="134"/>
+      <c r="AK7" s="134"/>
+      <c r="AL7" s="134"/>
+      <c r="AM7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="40"/>
+      <c r="AK8" s="8"/>
+      <c r="AM8" s="41"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="127" t="str">
+        <f aca="false">IF(E13&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="135" t="str">
+        <f aca="false">IF(E13&lt;&gt;"", "№ п/п", "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="135"/>
+      <c r="E11" s="136" t="str">
+        <f aca="false">IF(E13&lt;&gt;"", "Наименование документации", "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136" t="str">
+        <f aca="false">IF(E13&lt;&gt;"", "Год выпуска", "")</f>
+        <v/>
+      </c>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="137" t="str">
+        <f aca="false">IF(E13&lt;&gt;"", "Разработчик", "")</f>
+        <v/>
+      </c>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="137"/>
+      <c r="AJ11" s="137"/>
+      <c r="AK11" s="137"/>
+      <c r="AL11" s="137"/>
+      <c r="AM11" s="137"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="137"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="139"/>
+      <c r="AK14" s="139"/>
+      <c r="AL14" s="139"/>
+      <c r="AM14" s="139"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="139"/>
+      <c r="AM15" s="139"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="139"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="139"/>
+      <c r="AH17" s="139"/>
+      <c r="AI17" s="139"/>
+      <c r="AJ17" s="139"/>
+      <c r="AK17" s="139"/>
+      <c r="AL17" s="139"/>
+      <c r="AM17" s="139"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="139"/>
+      <c r="AK18" s="139"/>
+      <c r="AL18" s="139"/>
+      <c r="AM18" s="139"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="139"/>
+      <c r="AL19" s="139"/>
+      <c r="AM19" s="139"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="139"/>
+      <c r="AM20" s="139"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="139"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="139"/>
+      <c r="AJ22" s="139"/>
+      <c r="AK22" s="139"/>
+      <c r="AL22" s="139"/>
+      <c r="AM22" s="139"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="139"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="139"/>
+      <c r="AJ24" s="139"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="139"/>
+      <c r="AM24" s="139"/>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="139"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="139"/>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="139"/>
+      <c r="AJ26" s="139"/>
+      <c r="AK26" s="139"/>
+      <c r="AL26" s="139"/>
+      <c r="AM26" s="139"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
+      <c r="AI27" s="139"/>
+      <c r="AJ27" s="139"/>
+      <c r="AK27" s="139"/>
+      <c r="AL27" s="139"/>
+      <c r="AM27" s="139"/>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="139"/>
+      <c r="AH29" s="139"/>
+      <c r="AI29" s="139"/>
+      <c r="AJ29" s="139"/>
+      <c r="AK29" s="139"/>
+      <c r="AL29" s="139"/>
+      <c r="AM29" s="139"/>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="139"/>
+      <c r="AJ30" s="139"/>
+      <c r="AK30" s="139"/>
+      <c r="AL30" s="139"/>
+      <c r="AM30" s="139"/>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="139"/>
+      <c r="AJ31" s="139"/>
+      <c r="AK31" s="139"/>
+      <c r="AL31" s="139"/>
+      <c r="AM31" s="139"/>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="139"/>
+      <c r="AJ32" s="139"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="139"/>
+      <c r="AJ33" s="139"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="139"/>
+      <c r="AM33" s="139"/>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="138"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="139"/>
+      <c r="AC34" s="139"/>
+      <c r="AD34" s="139"/>
+      <c r="AE34" s="139"/>
+      <c r="AF34" s="139"/>
+      <c r="AG34" s="139"/>
+      <c r="AH34" s="139"/>
+      <c r="AI34" s="139"/>
+      <c r="AJ34" s="139"/>
+      <c r="AK34" s="139"/>
+      <c r="AL34" s="139"/>
+      <c r="AM34" s="139"/>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="138"/>
+      <c r="V35" s="138"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="139"/>
+      <c r="AC35" s="139"/>
+      <c r="AD35" s="139"/>
+      <c r="AE35" s="139"/>
+      <c r="AF35" s="139"/>
+      <c r="AG35" s="139"/>
+      <c r="AH35" s="139"/>
+      <c r="AI35" s="139"/>
+      <c r="AJ35" s="139"/>
+      <c r="AK35" s="139"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="139"/>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="138"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="139"/>
+      <c r="AC36" s="139"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="139"/>
+      <c r="AF36" s="139"/>
+      <c r="AG36" s="139"/>
+      <c r="AH36" s="139"/>
+      <c r="AI36" s="139"/>
+      <c r="AJ36" s="139"/>
+      <c r="AK36" s="139"/>
+      <c r="AL36" s="139"/>
+      <c r="AM36" s="139"/>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="138"/>
+      <c r="V37" s="138"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="139"/>
+      <c r="AC37" s="139"/>
+      <c r="AD37" s="139"/>
+      <c r="AE37" s="139"/>
+      <c r="AF37" s="139"/>
+      <c r="AG37" s="139"/>
+      <c r="AH37" s="139"/>
+      <c r="AI37" s="139"/>
+      <c r="AJ37" s="139"/>
+      <c r="AK37" s="139"/>
+      <c r="AL37" s="139"/>
+      <c r="AM37" s="139"/>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="138"/>
+      <c r="V38" s="138"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="139"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="139"/>
+      <c r="AE38" s="139"/>
+      <c r="AF38" s="139"/>
+      <c r="AG38" s="139"/>
+      <c r="AH38" s="139"/>
+      <c r="AI38" s="139"/>
+      <c r="AJ38" s="139"/>
+      <c r="AK38" s="139"/>
+      <c r="AL38" s="139"/>
+      <c r="AM38" s="139"/>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="138"/>
+      <c r="V39" s="138"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="139"/>
+      <c r="AG39" s="139"/>
+      <c r="AH39" s="139"/>
+      <c r="AI39" s="139"/>
+      <c r="AJ39" s="139"/>
+      <c r="AK39" s="139"/>
+      <c r="AL39" s="139"/>
+      <c r="AM39" s="139"/>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="139"/>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="139"/>
+      <c r="AE40" s="139"/>
+      <c r="AF40" s="139"/>
+      <c r="AG40" s="139"/>
+      <c r="AH40" s="139"/>
+      <c r="AI40" s="139"/>
+      <c r="AJ40" s="139"/>
+      <c r="AK40" s="139"/>
+      <c r="AL40" s="139"/>
+      <c r="AM40" s="139"/>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="138"/>
+      <c r="V41" s="138"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="139"/>
+      <c r="AC41" s="139"/>
+      <c r="AD41" s="139"/>
+      <c r="AE41" s="139"/>
+      <c r="AF41" s="139"/>
+      <c r="AG41" s="139"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="139"/>
+      <c r="AJ41" s="139"/>
+      <c r="AK41" s="139"/>
+      <c r="AL41" s="139"/>
+      <c r="AM41" s="139"/>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="138"/>
+      <c r="V42" s="138"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="139"/>
+      <c r="AE42" s="139"/>
+      <c r="AF42" s="139"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="139"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="139"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="139"/>
+      <c r="AM42" s="139"/>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
+      <c r="Q43" s="138"/>
+      <c r="R43" s="138"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="138"/>
+      <c r="V43" s="138"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="139"/>
+      <c r="AC43" s="139"/>
+      <c r="AD43" s="139"/>
+      <c r="AE43" s="139"/>
+      <c r="AF43" s="139"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="139"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="139"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="139"/>
+      <c r="AM43" s="139"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="138"/>
+      <c r="S44" s="138"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="138"/>
+      <c r="V44" s="138"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="139"/>
+      <c r="AC44" s="139"/>
+      <c r="AD44" s="139"/>
+      <c r="AE44" s="139"/>
+      <c r="AF44" s="139"/>
+      <c r="AG44" s="139"/>
+      <c r="AH44" s="139"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="139"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="139"/>
+      <c r="AM44" s="139"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
+      <c r="Q45" s="138"/>
+      <c r="R45" s="138"/>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="138"/>
+      <c r="V45" s="138"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="139"/>
+      <c r="AC45" s="139"/>
+      <c r="AD45" s="139"/>
+      <c r="AE45" s="139"/>
+      <c r="AF45" s="139"/>
+      <c r="AG45" s="139"/>
+      <c r="AH45" s="139"/>
+      <c r="AI45" s="139"/>
+      <c r="AJ45" s="139"/>
+      <c r="AK45" s="139"/>
+      <c r="AL45" s="139"/>
+      <c r="AM45" s="139"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="138"/>
+      <c r="R46" s="138"/>
+      <c r="S46" s="138"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="138"/>
+      <c r="V46" s="138"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="139"/>
+      <c r="AC46" s="139"/>
+      <c r="AD46" s="139"/>
+      <c r="AE46" s="139"/>
+      <c r="AF46" s="139"/>
+      <c r="AG46" s="139"/>
+      <c r="AH46" s="139"/>
+      <c r="AI46" s="139"/>
+      <c r="AJ46" s="139"/>
+      <c r="AK46" s="139"/>
+      <c r="AL46" s="139"/>
+      <c r="AM46" s="139"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="138"/>
+      <c r="R47" s="138"/>
+      <c r="S47" s="138"/>
+      <c r="T47" s="138"/>
+      <c r="U47" s="138"/>
+      <c r="V47" s="138"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="139"/>
+      <c r="AC47" s="139"/>
+      <c r="AD47" s="139"/>
+      <c r="AE47" s="139"/>
+      <c r="AF47" s="139"/>
+      <c r="AG47" s="139"/>
+      <c r="AH47" s="139"/>
+      <c r="AI47" s="139"/>
+      <c r="AJ47" s="139"/>
+      <c r="AK47" s="139"/>
+      <c r="AL47" s="139"/>
+      <c r="AM47" s="139"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
+      <c r="Q48" s="138"/>
+      <c r="R48" s="138"/>
+      <c r="S48" s="138"/>
+      <c r="T48" s="138"/>
+      <c r="U48" s="138"/>
+      <c r="V48" s="138"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="139"/>
+      <c r="AC48" s="139"/>
+      <c r="AD48" s="139"/>
+      <c r="AE48" s="139"/>
+      <c r="AF48" s="139"/>
+      <c r="AG48" s="139"/>
+      <c r="AH48" s="139"/>
+      <c r="AI48" s="139"/>
+      <c r="AJ48" s="139"/>
+      <c r="AK48" s="139"/>
+      <c r="AL48" s="139"/>
+      <c r="AM48" s="139"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
+      <c r="Q49" s="138"/>
+      <c r="R49" s="138"/>
+      <c r="S49" s="138"/>
+      <c r="T49" s="138"/>
+      <c r="U49" s="138"/>
+      <c r="V49" s="138"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="139"/>
+      <c r="AC49" s="139"/>
+      <c r="AD49" s="139"/>
+      <c r="AE49" s="139"/>
+      <c r="AF49" s="139"/>
+      <c r="AG49" s="139"/>
+      <c r="AH49" s="139"/>
+      <c r="AI49" s="139"/>
+      <c r="AJ49" s="139"/>
+      <c r="AK49" s="139"/>
+      <c r="AL49" s="139"/>
+      <c r="AM49" s="139"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
+      <c r="R50" s="138"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="138"/>
+      <c r="V50" s="138"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="139"/>
+      <c r="AC50" s="139"/>
+      <c r="AD50" s="139"/>
+      <c r="AE50" s="139"/>
+      <c r="AF50" s="139"/>
+      <c r="AG50" s="139"/>
+      <c r="AH50" s="139"/>
+      <c r="AI50" s="139"/>
+      <c r="AJ50" s="139"/>
+      <c r="AK50" s="139"/>
+      <c r="AL50" s="139"/>
+      <c r="AM50" s="139"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="138"/>
+      <c r="R51" s="138"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="138"/>
+      <c r="V51" s="138"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="139"/>
+      <c r="AC51" s="139"/>
+      <c r="AD51" s="139"/>
+      <c r="AE51" s="139"/>
+      <c r="AF51" s="139"/>
+      <c r="AG51" s="139"/>
+      <c r="AH51" s="139"/>
+      <c r="AI51" s="139"/>
+      <c r="AJ51" s="139"/>
+      <c r="AK51" s="139"/>
+      <c r="AL51" s="139"/>
+      <c r="AM51" s="139"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
+      <c r="R52" s="138"/>
+      <c r="S52" s="138"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="138"/>
+      <c r="V52" s="138"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="139"/>
+      <c r="AC52" s="139"/>
+      <c r="AD52" s="139"/>
+      <c r="AE52" s="139"/>
+      <c r="AF52" s="139"/>
+      <c r="AG52" s="139"/>
+      <c r="AH52" s="139"/>
+      <c r="AI52" s="139"/>
+      <c r="AJ52" s="139"/>
+      <c r="AK52" s="139"/>
+      <c r="AL52" s="139"/>
+      <c r="AM52" s="139"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="8"/>
+      <c r="AM53" s="43"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="49"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88"/>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="89"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="49"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="90"/>
+      <c r="AE55" s="90"/>
+      <c r="AF55" s="90"/>
+      <c r="AG55" s="90"/>
+      <c r="AH55" s="90"/>
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="90"/>
+      <c r="AK55" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL55" s="77"/>
+      <c r="AM55" s="77"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="49"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="91"/>
+      <c r="P56" s="91"/>
+      <c r="Q56" s="91"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="90"/>
+      <c r="W56" s="90"/>
+      <c r="X56" s="90"/>
+      <c r="Y56" s="90"/>
+      <c r="Z56" s="90"/>
+      <c r="AA56" s="90"/>
+      <c r="AB56" s="90"/>
+      <c r="AC56" s="90"/>
+      <c r="AD56" s="90"/>
+      <c r="AE56" s="90"/>
+      <c r="AF56" s="90"/>
+      <c r="AG56" s="90"/>
+      <c r="AH56" s="90"/>
+      <c r="AI56" s="90"/>
+      <c r="AJ56" s="90"/>
+      <c r="AK56" s="69"/>
+      <c r="AL56" s="69"/>
+      <c r="AM56" s="69"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="49"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="73"/>
+      <c r="J57" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
+      <c r="X57" s="90"/>
+      <c r="Y57" s="90"/>
+      <c r="Z57" s="90"/>
+      <c r="AA57" s="90"/>
+      <c r="AB57" s="90"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="90"/>
+      <c r="AE57" s="90"/>
+      <c r="AF57" s="90"/>
+      <c r="AG57" s="90"/>
+      <c r="AH57" s="90"/>
+      <c r="AI57" s="90"/>
+      <c r="AJ57" s="90"/>
+      <c r="AK57" s="69"/>
+      <c r="AL57" s="69"/>
+      <c r="AM57" s="69"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="D2:AL3"/>
+    <mergeCell ref="D5:AL7"/>
+    <mergeCell ref="C9:AM10"/>
+    <mergeCell ref="C11:D13"/>
+    <mergeCell ref="E11:V13"/>
+    <mergeCell ref="W11:AA13"/>
+    <mergeCell ref="AB11:AM13"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="E14:V16"/>
+    <mergeCell ref="W14:AA16"/>
+    <mergeCell ref="AB14:AM16"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="E17:V19"/>
+    <mergeCell ref="W17:AA19"/>
+    <mergeCell ref="AB17:AM19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="E20:V22"/>
+    <mergeCell ref="W20:AA22"/>
+    <mergeCell ref="AB20:AM22"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="E23:V25"/>
+    <mergeCell ref="W23:AA25"/>
+    <mergeCell ref="AB23:AM25"/>
+    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="E26:V28"/>
+    <mergeCell ref="W26:AA28"/>
+    <mergeCell ref="AB26:AM28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:V31"/>
+    <mergeCell ref="W29:AA31"/>
+    <mergeCell ref="AB29:AM31"/>
+    <mergeCell ref="C32:D34"/>
+    <mergeCell ref="E32:V34"/>
+    <mergeCell ref="W32:AA34"/>
+    <mergeCell ref="AB32:AM34"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="E35:V37"/>
+    <mergeCell ref="W35:AA37"/>
+    <mergeCell ref="AB35:AM37"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C38:D40"/>
+    <mergeCell ref="E38:V40"/>
+    <mergeCell ref="W38:AA40"/>
+    <mergeCell ref="AB38:AM40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="E41:V43"/>
+    <mergeCell ref="W41:AA43"/>
+    <mergeCell ref="AB41:AM43"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:V46"/>
+    <mergeCell ref="W44:AA46"/>
+    <mergeCell ref="AB44:AM46"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="C47:D49"/>
+    <mergeCell ref="E47:V49"/>
+    <mergeCell ref="W47:AA49"/>
+    <mergeCell ref="AB47:AM49"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="E50:V52"/>
+    <mergeCell ref="W50:AA52"/>
+    <mergeCell ref="AB50:AM52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:AJ57"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AK56:AM57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.315277777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BW1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -4729,7 +7334,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6377,7 +8982,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8092,7 +10697,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE20" activeCellId="0" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -9762,7 +12367,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -12211,7 +14816,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -14680,7 +17285,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
@@ -17098,8 +19703,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19586,8 +22191,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR8" activeCellId="0" sqref="AR8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19798,356 +22403,356 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="127"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="106"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="127"/>
-      <c r="AJ11" s="127"/>
-      <c r="AK11" s="127"/>
-      <c r="AL11" s="127"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="127"/>
-      <c r="AJ12" s="127"/>
-      <c r="AK12" s="127"/>
-      <c r="AL12" s="127"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="127"/>
-      <c r="AL13" s="127"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20189,84 +22794,84 @@
       <c r="AM14" s="47"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="127"/>
+      <c r="AJ15" s="127"/>
+      <c r="AK15" s="127"/>
+      <c r="AL15" s="127"/>
+      <c r="AM15" s="127"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
-      <c r="AJ16" s="128"/>
-      <c r="AK16" s="128"/>
-      <c r="AL16" s="128"/>
-      <c r="AM16" s="128"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="127"/>
+      <c r="AK16" s="127"/>
+      <c r="AL16" s="127"/>
+      <c r="AM16" s="127"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="108" t="s">
@@ -20392,676 +22997,1502 @@
       <c r="AM19" s="108"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="40"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="8"/>
-      <c r="AM20" s="41"/>
+      <c r="C20" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="130"/>
+      <c r="AC20" s="130"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="130"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="130"/>
+      <c r="AL20" s="130"/>
+      <c r="AM20" s="130"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="40"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="8"/>
-      <c r="AM21" s="41"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="130"/>
+      <c r="AL21" s="130"/>
+      <c r="AM21" s="130"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="40"/>
-      <c r="AK22" s="8"/>
-      <c r="AM22" s="41"/>
+      <c r="C22" s="128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="130"/>
+      <c r="AA22" s="130"/>
+      <c r="AB22" s="130"/>
+      <c r="AC22" s="130"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="130"/>
+      <c r="AI22" s="130"/>
+      <c r="AJ22" s="130"/>
+      <c r="AK22" s="130"/>
+      <c r="AL22" s="130"/>
+      <c r="AM22" s="130"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="40"/>
-      <c r="AK23" s="8"/>
-      <c r="AM23" s="41"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="130"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="130"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="130"/>
+      <c r="AJ23" s="130"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="130"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="40"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-      <c r="AK24" s="8"/>
-      <c r="AM24" s="41"/>
+      <c r="C24" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="130"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="40"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="8"/>
-      <c r="AM25" s="41"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="130"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="130"/>
+      <c r="AJ25" s="130"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="40"/>
-      <c r="AK26" s="8"/>
-      <c r="AM26" s="41"/>
+      <c r="C26" s="128" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
+      <c r="Z26" s="130"/>
+      <c r="AA26" s="130"/>
+      <c r="AB26" s="130"/>
+      <c r="AC26" s="130"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
+      <c r="AJ26" s="130"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="40"/>
-      <c r="AK27" s="8"/>
-      <c r="AM27" s="41"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="40"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="8"/>
-      <c r="AM28" s="41"/>
+      <c r="C28" s="128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="130"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="130"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="130"/>
+      <c r="AJ28" s="130"/>
+      <c r="AK28" s="130"/>
+      <c r="AL28" s="130"/>
+      <c r="AM28" s="130"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="8"/>
-      <c r="AM29" s="41"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="40"/>
-      <c r="AK30" s="8"/>
-      <c r="AM30" s="41"/>
+      <c r="C30" s="128" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="8"/>
-      <c r="AM31" s="41"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="8"/>
-      <c r="AM32" s="41"/>
+      <c r="C32" s="128" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+      <c r="AI32" s="130"/>
+      <c r="AJ32" s="130"/>
+      <c r="AK32" s="130"/>
+      <c r="AL32" s="130"/>
+      <c r="AM32" s="130"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="40"/>
-      <c r="AK33" s="8"/>
-      <c r="AM33" s="41"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="130"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="130"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="130"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="40"/>
-      <c r="AK34" s="8"/>
-      <c r="AM34" s="41"/>
+      <c r="C34" s="128" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" s="128"/>
+      <c r="E34" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="130"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="130"/>
+      <c r="AF34" s="130"/>
+      <c r="AG34" s="130"/>
+      <c r="AH34" s="130"/>
+      <c r="AI34" s="130"/>
+      <c r="AJ34" s="130"/>
+      <c r="AK34" s="130"/>
+      <c r="AL34" s="130"/>
+      <c r="AM34" s="130"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="40"/>
-      <c r="AK35" s="8"/>
-      <c r="AM35" s="41"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
+      <c r="AC35" s="130"/>
+      <c r="AD35" s="130"/>
+      <c r="AE35" s="130"/>
+      <c r="AF35" s="130"/>
+      <c r="AG35" s="130"/>
+      <c r="AH35" s="130"/>
+      <c r="AI35" s="130"/>
+      <c r="AJ35" s="130"/>
+      <c r="AK35" s="130"/>
+      <c r="AL35" s="130"/>
+      <c r="AM35" s="130"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="40"/>
-      <c r="AK36" s="8"/>
-      <c r="AM36" s="41"/>
+      <c r="C36" s="128" t="n">
+        <v>9</v>
+      </c>
+      <c r="D36" s="128"/>
+      <c r="E36" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="130"/>
+      <c r="AC36" s="130"/>
+      <c r="AD36" s="130"/>
+      <c r="AE36" s="130"/>
+      <c r="AF36" s="130"/>
+      <c r="AG36" s="130"/>
+      <c r="AH36" s="130"/>
+      <c r="AI36" s="130"/>
+      <c r="AJ36" s="130"/>
+      <c r="AK36" s="130"/>
+      <c r="AL36" s="130"/>
+      <c r="AM36" s="130"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="40"/>
-      <c r="AK37" s="8"/>
-      <c r="AM37" s="41"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="130"/>
+      <c r="AC37" s="130"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="130"/>
+      <c r="AG37" s="130"/>
+      <c r="AH37" s="130"/>
+      <c r="AI37" s="130"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="130"/>
+      <c r="AL37" s="130"/>
+      <c r="AM37" s="130"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="40"/>
-      <c r="AK38" s="8"/>
-      <c r="AM38" s="41"/>
+      <c r="C38" s="128" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" s="128"/>
+      <c r="E38" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="130"/>
+      <c r="AG38" s="130"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="130"/>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="130"/>
+      <c r="AL38" s="130"/>
+      <c r="AM38" s="130"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="40"/>
-      <c r="AK39" s="8"/>
-      <c r="AM39" s="41"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="130"/>
+      <c r="AB39" s="130"/>
+      <c r="AC39" s="130"/>
+      <c r="AD39" s="130"/>
+      <c r="AE39" s="130"/>
+      <c r="AF39" s="130"/>
+      <c r="AG39" s="130"/>
+      <c r="AH39" s="130"/>
+      <c r="AI39" s="130"/>
+      <c r="AJ39" s="130"/>
+      <c r="AK39" s="130"/>
+      <c r="AL39" s="130"/>
+      <c r="AM39" s="130"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="40"/>
-      <c r="AK40" s="8"/>
-      <c r="AM40" s="41"/>
+      <c r="C40" s="128" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" s="128"/>
+      <c r="E40" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="129"/>
+      <c r="O40" s="129"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="130"/>
+      <c r="AC40" s="130"/>
+      <c r="AD40" s="130"/>
+      <c r="AE40" s="130"/>
+      <c r="AF40" s="130"/>
+      <c r="AG40" s="130"/>
+      <c r="AH40" s="130"/>
+      <c r="AI40" s="130"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="130"/>
+      <c r="AL40" s="130"/>
+      <c r="AM40" s="130"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="40"/>
-      <c r="AK41" s="8"/>
-      <c r="AM41" s="41"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
+      <c r="Z41" s="130"/>
+      <c r="AA41" s="130"/>
+      <c r="AB41" s="130"/>
+      <c r="AC41" s="130"/>
+      <c r="AD41" s="130"/>
+      <c r="AE41" s="130"/>
+      <c r="AF41" s="130"/>
+      <c r="AG41" s="130"/>
+      <c r="AH41" s="130"/>
+      <c r="AI41" s="130"/>
+      <c r="AJ41" s="130"/>
+      <c r="AK41" s="130"/>
+      <c r="AL41" s="130"/>
+      <c r="AM41" s="130"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="40"/>
-      <c r="AK42" s="8"/>
-      <c r="AM42" s="41"/>
+      <c r="C42" s="128" t="n">
+        <v>12</v>
+      </c>
+      <c r="D42" s="128"/>
+      <c r="E42" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="129"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="129"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="V42" s="130"/>
+      <c r="W42" s="130"/>
+      <c r="X42" s="130"/>
+      <c r="Y42" s="130"/>
+      <c r="Z42" s="130"/>
+      <c r="AA42" s="130"/>
+      <c r="AB42" s="130"/>
+      <c r="AC42" s="130"/>
+      <c r="AD42" s="130"/>
+      <c r="AE42" s="130"/>
+      <c r="AF42" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG42" s="128"/>
+      <c r="AH42" s="128"/>
+      <c r="AI42" s="128"/>
+      <c r="AJ42" s="128"/>
+      <c r="AK42" s="128"/>
+      <c r="AL42" s="128"/>
+      <c r="AM42" s="128"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="40"/>
-      <c r="AK43" s="8"/>
-      <c r="AM43" s="41"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="130"/>
+      <c r="AB43" s="130"/>
+      <c r="AC43" s="130"/>
+      <c r="AD43" s="130"/>
+      <c r="AE43" s="130"/>
+      <c r="AF43" s="128"/>
+      <c r="AG43" s="128"/>
+      <c r="AH43" s="128"/>
+      <c r="AI43" s="128"/>
+      <c r="AJ43" s="128"/>
+      <c r="AK43" s="128"/>
+      <c r="AL43" s="128"/>
+      <c r="AM43" s="128"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="40"/>
-      <c r="AK44" s="8"/>
-      <c r="AM44" s="41"/>
+      <c r="C44" s="128" t="n">
+        <v>13</v>
+      </c>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="130" t="s">
+        <v>149</v>
+      </c>
+      <c r="V44" s="130"/>
+      <c r="W44" s="130"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="130"/>
+      <c r="Z44" s="130"/>
+      <c r="AA44" s="130"/>
+      <c r="AB44" s="130"/>
+      <c r="AC44" s="130"/>
+      <c r="AD44" s="130"/>
+      <c r="AE44" s="130"/>
+      <c r="AF44" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG44" s="128"/>
+      <c r="AH44" s="128"/>
+      <c r="AI44" s="128"/>
+      <c r="AJ44" s="128"/>
+      <c r="AK44" s="128"/>
+      <c r="AL44" s="128"/>
+      <c r="AM44" s="128"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="AK45" s="8"/>
-      <c r="AM45" s="52"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="129"/>
+      <c r="P45" s="129"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="129"/>
+      <c r="T45" s="129"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="130"/>
+      <c r="AB45" s="130"/>
+      <c r="AC45" s="130"/>
+      <c r="AD45" s="130"/>
+      <c r="AE45" s="130"/>
+      <c r="AF45" s="128"/>
+      <c r="AG45" s="128"/>
+      <c r="AH45" s="128"/>
+      <c r="AI45" s="128"/>
+      <c r="AJ45" s="128"/>
+      <c r="AK45" s="128"/>
+      <c r="AL45" s="128"/>
+      <c r="AM45" s="128"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="AK46" s="8"/>
-      <c r="AM46" s="52"/>
+      <c r="C46" s="128" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="129"/>
+      <c r="P46" s="129"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="129"/>
+      <c r="T46" s="129"/>
+      <c r="U46" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="V46" s="130"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="130"/>
+      <c r="Z46" s="130"/>
+      <c r="AA46" s="130"/>
+      <c r="AB46" s="130"/>
+      <c r="AC46" s="130"/>
+      <c r="AD46" s="130"/>
+      <c r="AE46" s="130"/>
+      <c r="AF46" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG46" s="128"/>
+      <c r="AH46" s="128"/>
+      <c r="AI46" s="128"/>
+      <c r="AJ46" s="128"/>
+      <c r="AK46" s="128"/>
+      <c r="AL46" s="128"/>
+      <c r="AM46" s="128"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="8"/>
-      <c r="AM47" s="52"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="129"/>
+      <c r="P47" s="129"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="129"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="130"/>
+      <c r="AB47" s="130"/>
+      <c r="AC47" s="130"/>
+      <c r="AD47" s="130"/>
+      <c r="AE47" s="130"/>
+      <c r="AF47" s="128"/>
+      <c r="AG47" s="128"/>
+      <c r="AH47" s="128"/>
+      <c r="AI47" s="128"/>
+      <c r="AJ47" s="128"/>
+      <c r="AK47" s="128"/>
+      <c r="AL47" s="128"/>
+      <c r="AM47" s="128"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="8"/>
-      <c r="AM48" s="41"/>
+      <c r="C48" s="128" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="V48" s="131"/>
+      <c r="W48" s="131"/>
+      <c r="X48" s="131"/>
+      <c r="Y48" s="131"/>
+      <c r="Z48" s="131"/>
+      <c r="AA48" s="131"/>
+      <c r="AB48" s="131"/>
+      <c r="AC48" s="131"/>
+      <c r="AD48" s="131"/>
+      <c r="AE48" s="131"/>
+      <c r="AF48" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG48" s="128"/>
+      <c r="AH48" s="128"/>
+      <c r="AI48" s="128"/>
+      <c r="AJ48" s="128"/>
+      <c r="AK48" s="128"/>
+      <c r="AL48" s="128"/>
+      <c r="AM48" s="128"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="40"/>
-      <c r="AK49" s="8"/>
-      <c r="AM49" s="41"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="129"/>
+      <c r="U49" s="131"/>
+      <c r="V49" s="131"/>
+      <c r="W49" s="131"/>
+      <c r="X49" s="131"/>
+      <c r="Y49" s="131"/>
+      <c r="Z49" s="131"/>
+      <c r="AA49" s="131"/>
+      <c r="AB49" s="131"/>
+      <c r="AC49" s="131"/>
+      <c r="AD49" s="131"/>
+      <c r="AE49" s="131"/>
+      <c r="AF49" s="128"/>
+      <c r="AG49" s="128"/>
+      <c r="AH49" s="128"/>
+      <c r="AI49" s="128"/>
+      <c r="AJ49" s="128"/>
+      <c r="AK49" s="128"/>
+      <c r="AL49" s="128"/>
+      <c r="AM49" s="128"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="40"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="8"/>
-      <c r="AM50" s="53"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="129"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="129"/>
+      <c r="T50" s="129"/>
+      <c r="U50" s="131"/>
+      <c r="V50" s="131"/>
+      <c r="W50" s="131"/>
+      <c r="X50" s="131"/>
+      <c r="Y50" s="131"/>
+      <c r="Z50" s="131"/>
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="131"/>
+      <c r="AC50" s="131"/>
+      <c r="AD50" s="131"/>
+      <c r="AE50" s="131"/>
+      <c r="AF50" s="128"/>
+      <c r="AG50" s="128"/>
+      <c r="AH50" s="128"/>
+      <c r="AI50" s="128"/>
+      <c r="AJ50" s="128"/>
+      <c r="AK50" s="128"/>
+      <c r="AL50" s="128"/>
+      <c r="AM50" s="128"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="8"/>
-      <c r="AM51" s="53"/>
+      <c r="C51" s="128" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" s="128"/>
+      <c r="E51" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="129"/>
+      <c r="U51" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="V51" s="130"/>
+      <c r="W51" s="130"/>
+      <c r="X51" s="130"/>
+      <c r="Y51" s="130"/>
+      <c r="Z51" s="130"/>
+      <c r="AA51" s="130"/>
+      <c r="AB51" s="130"/>
+      <c r="AC51" s="130"/>
+      <c r="AD51" s="130"/>
+      <c r="AE51" s="130"/>
+      <c r="AF51" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG51" s="128"/>
+      <c r="AH51" s="128"/>
+      <c r="AI51" s="128"/>
+      <c r="AJ51" s="128"/>
+      <c r="AK51" s="128"/>
+      <c r="AL51" s="128"/>
+      <c r="AM51" s="128"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="40"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="8"/>
-      <c r="AM52" s="53"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="129"/>
+      <c r="U52" s="130"/>
+      <c r="V52" s="130"/>
+      <c r="W52" s="130"/>
+      <c r="X52" s="130"/>
+      <c r="Y52" s="130"/>
+      <c r="Z52" s="130"/>
+      <c r="AA52" s="130"/>
+      <c r="AB52" s="130"/>
+      <c r="AC52" s="130"/>
+      <c r="AD52" s="130"/>
+      <c r="AE52" s="130"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
+      <c r="AH52" s="128"/>
+      <c r="AI52" s="128"/>
+      <c r="AJ52" s="128"/>
+      <c r="AK52" s="128"/>
+      <c r="AL52" s="128"/>
+      <c r="AM52" s="128"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="8"/>
-      <c r="AM53" s="43"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="133"/>
+      <c r="P53" s="133"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="133"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
+      <c r="U53" s="133"/>
+      <c r="V53" s="133"/>
+      <c r="W53" s="133"/>
+      <c r="X53" s="133"/>
+      <c r="Y53" s="133"/>
+      <c r="Z53" s="133"/>
+      <c r="AA53" s="133"/>
+      <c r="AB53" s="133"/>
+      <c r="AC53" s="133"/>
+      <c r="AD53" s="133"/>
+      <c r="AE53" s="133"/>
+      <c r="AF53" s="133"/>
+      <c r="AG53" s="133"/>
+      <c r="AH53" s="133"/>
+      <c r="AI53" s="133"/>
+      <c r="AJ53" s="133"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="87"/>
       <c r="F54" s="87"/>
       <c r="G54" s="87"/>
@@ -21242,21 +24673,74 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="90">
     <mergeCell ref="D2:AL3"/>
     <mergeCell ref="D5:AL13"/>
     <mergeCell ref="C15:AM16"/>
     <mergeCell ref="C17:D19"/>
     <mergeCell ref="E17:T19"/>
     <mergeCell ref="U17:AM19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:T21"/>
+    <mergeCell ref="U20:AM21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:T23"/>
+    <mergeCell ref="U22:AM23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:T25"/>
+    <mergeCell ref="U24:AM25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:T27"/>
+    <mergeCell ref="U26:AM27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:T29"/>
+    <mergeCell ref="U28:AM29"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:T31"/>
+    <mergeCell ref="U30:AM31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:T33"/>
+    <mergeCell ref="U32:AM33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:T35"/>
+    <mergeCell ref="U34:AM35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:T37"/>
+    <mergeCell ref="U36:AM37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:T39"/>
+    <mergeCell ref="U38:AM39"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:T41"/>
+    <mergeCell ref="U40:AM41"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:T43"/>
+    <mergeCell ref="U42:AE43"/>
+    <mergeCell ref="AF42:AM43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:T45"/>
+    <mergeCell ref="U44:AE45"/>
+    <mergeCell ref="AF44:AM45"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="B46:B52"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:T47"/>
+    <mergeCell ref="U46:AE47"/>
+    <mergeCell ref="AF46:AM47"/>
+    <mergeCell ref="C48:D50"/>
+    <mergeCell ref="E48:T50"/>
+    <mergeCell ref="U48:AE50"/>
+    <mergeCell ref="AF48:AM50"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:T52"/>
+    <mergeCell ref="U51:AE52"/>
+    <mergeCell ref="AF51:AM52"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C55:D55"/>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">{Дата}</t>
   </si>
   <si>
-    <t xml:space="preserve">{Тип помещения}, располож. по адресу</t>
+    <t xml:space="preserve">{Тип помещения}, располож. по адресу</t>
   </si>
   <si>
     <t xml:space="preserve">Стадия</t>
@@ -772,7 +772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1309,7 +1309,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,16 +1317,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1416,9 +1412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>61920</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1432,7 +1428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1218240" cy="555480"/>
+          <a:ext cx="1217880" cy="555120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,9 +1454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>24840</xdr:colOff>
+      <xdr:colOff>24480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1474,7 +1470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1218240" cy="555480"/>
+          <a:ext cx="1217880" cy="555120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,9 +1496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>106560</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,7 +1512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="630360" cy="286560"/>
+          <a:ext cx="630000" cy="286200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1644,7 +1640,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="DA10" activeCellId="0" sqref="DA10"/>
     </sheetView>
   </sheetViews>
@@ -3842,587 +3838,587 @@
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="132"/>
       <c r="D14" s="132"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="139"/>
-      <c r="AH14" s="139"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="139"/>
-      <c r="AK14" s="139"/>
-      <c r="AL14" s="139"/>
-      <c r="AM14" s="139"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="138"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="138"/>
+      <c r="AJ14" s="138"/>
+      <c r="AK14" s="138"/>
+      <c r="AL14" s="138"/>
+      <c r="AM14" s="138"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="132"/>
       <c r="D15" s="132"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="139"/>
-      <c r="AM15" s="139"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="138"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="138"/>
+      <c r="AI15" s="138"/>
+      <c r="AJ15" s="138"/>
+      <c r="AK15" s="138"/>
+      <c r="AL15" s="138"/>
+      <c r="AM15" s="138"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="132"/>
       <c r="D16" s="132"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="139"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="139"/>
-      <c r="AK16" s="139"/>
-      <c r="AL16" s="139"/>
-      <c r="AM16" s="139"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="138"/>
+      <c r="AJ16" s="138"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="138"/>
+      <c r="AM16" s="138"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="139"/>
-      <c r="AJ17" s="139"/>
-      <c r="AK17" s="139"/>
-      <c r="AL17" s="139"/>
-      <c r="AM17" s="139"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="138"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="138"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="138"/>
+      <c r="AL17" s="138"/>
+      <c r="AM17" s="138"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="132"/>
       <c r="D18" s="132"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="139"/>
-      <c r="AH18" s="139"/>
-      <c r="AI18" s="139"/>
-      <c r="AJ18" s="139"/>
-      <c r="AK18" s="139"/>
-      <c r="AL18" s="139"/>
-      <c r="AM18" s="139"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="138"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138"/>
+      <c r="AL18" s="138"/>
+      <c r="AM18" s="138"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="132"/>
       <c r="D19" s="132"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="139"/>
-      <c r="AH19" s="139"/>
-      <c r="AI19" s="139"/>
-      <c r="AJ19" s="139"/>
-      <c r="AK19" s="139"/>
-      <c r="AL19" s="139"/>
-      <c r="AM19" s="139"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="138"/>
+      <c r="AJ19" s="138"/>
+      <c r="AK19" s="138"/>
+      <c r="AL19" s="138"/>
+      <c r="AM19" s="138"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="139"/>
-      <c r="AH20" s="139"/>
-      <c r="AI20" s="139"/>
-      <c r="AJ20" s="139"/>
-      <c r="AK20" s="139"/>
-      <c r="AL20" s="139"/>
-      <c r="AM20" s="139"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="138"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="138"/>
+      <c r="AJ20" s="138"/>
+      <c r="AK20" s="138"/>
+      <c r="AL20" s="138"/>
+      <c r="AM20" s="138"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="132"/>
       <c r="D21" s="132"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="139"/>
-      <c r="AJ21" s="139"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="139"/>
-      <c r="AM21" s="139"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="138"/>
+      <c r="AK21" s="138"/>
+      <c r="AL21" s="138"/>
+      <c r="AM21" s="138"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="132"/>
       <c r="D22" s="132"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="139"/>
-      <c r="AH22" s="139"/>
-      <c r="AI22" s="139"/>
-      <c r="AJ22" s="139"/>
-      <c r="AK22" s="139"/>
-      <c r="AL22" s="139"/>
-      <c r="AM22" s="139"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="138"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="138"/>
+      <c r="AJ22" s="138"/>
+      <c r="AK22" s="138"/>
+      <c r="AL22" s="138"/>
+      <c r="AM22" s="138"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="132"/>
       <c r="D23" s="132"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="139"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="139"/>
-      <c r="AG23" s="139"/>
-      <c r="AH23" s="139"/>
-      <c r="AI23" s="139"/>
-      <c r="AJ23" s="139"/>
-      <c r="AK23" s="139"/>
-      <c r="AL23" s="139"/>
-      <c r="AM23" s="139"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="138"/>
+      <c r="AK23" s="138"/>
+      <c r="AL23" s="138"/>
+      <c r="AM23" s="138"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="132"/>
       <c r="D24" s="132"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="139"/>
-      <c r="AH24" s="139"/>
-      <c r="AI24" s="139"/>
-      <c r="AJ24" s="139"/>
-      <c r="AK24" s="139"/>
-      <c r="AL24" s="139"/>
-      <c r="AM24" s="139"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="138"/>
+      <c r="AJ24" s="138"/>
+      <c r="AK24" s="138"/>
+      <c r="AL24" s="138"/>
+      <c r="AM24" s="138"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="132"/>
       <c r="D25" s="132"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="139"/>
-      <c r="AD25" s="139"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="139"/>
-      <c r="AH25" s="139"/>
-      <c r="AI25" s="139"/>
-      <c r="AJ25" s="139"/>
-      <c r="AK25" s="139"/>
-      <c r="AL25" s="139"/>
-      <c r="AM25" s="139"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="138"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="138"/>
+      <c r="AJ25" s="138"/>
+      <c r="AK25" s="138"/>
+      <c r="AL25" s="138"/>
+      <c r="AM25" s="138"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="132"/>
       <c r="D26" s="132"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="139"/>
-      <c r="AG26" s="139"/>
-      <c r="AH26" s="139"/>
-      <c r="AI26" s="139"/>
-      <c r="AJ26" s="139"/>
-      <c r="AK26" s="139"/>
-      <c r="AL26" s="139"/>
-      <c r="AM26" s="139"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="138"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="138"/>
+      <c r="AJ26" s="138"/>
+      <c r="AK26" s="138"/>
+      <c r="AL26" s="138"/>
+      <c r="AM26" s="138"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="132"/>
       <c r="D27" s="132"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="139"/>
-      <c r="AG27" s="139"/>
-      <c r="AH27" s="139"/>
-      <c r="AI27" s="139"/>
-      <c r="AJ27" s="139"/>
-      <c r="AK27" s="139"/>
-      <c r="AL27" s="139"/>
-      <c r="AM27" s="139"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="138"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="138"/>
+      <c r="AJ27" s="138"/>
+      <c r="AK27" s="138"/>
+      <c r="AL27" s="138"/>
+      <c r="AM27" s="138"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="132"/>
       <c r="D28" s="132"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="139"/>
-      <c r="AM28" s="139"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
@@ -4431,287 +4427,287 @@
       <c r="B29" s="50"/>
       <c r="C29" s="132"/>
       <c r="D29" s="132"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="139"/>
-      <c r="AG29" s="139"/>
-      <c r="AH29" s="139"/>
-      <c r="AI29" s="139"/>
-      <c r="AJ29" s="139"/>
-      <c r="AK29" s="139"/>
-      <c r="AL29" s="139"/>
-      <c r="AM29" s="139"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="138"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="138"/>
+      <c r="AJ29" s="138"/>
+      <c r="AK29" s="138"/>
+      <c r="AL29" s="138"/>
+      <c r="AM29" s="138"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="132"/>
       <c r="D30" s="132"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="138"/>
-      <c r="P30" s="138"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="139"/>
-      <c r="AG30" s="139"/>
-      <c r="AH30" s="139"/>
-      <c r="AI30" s="139"/>
-      <c r="AJ30" s="139"/>
-      <c r="AK30" s="139"/>
-      <c r="AL30" s="139"/>
-      <c r="AM30" s="139"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="138"/>
+      <c r="AG30" s="138"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="138"/>
+      <c r="AJ30" s="138"/>
+      <c r="AK30" s="138"/>
+      <c r="AL30" s="138"/>
+      <c r="AM30" s="138"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="132"/>
       <c r="D31" s="132"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="139"/>
-      <c r="AF31" s="139"/>
-      <c r="AG31" s="139"/>
-      <c r="AH31" s="139"/>
-      <c r="AI31" s="139"/>
-      <c r="AJ31" s="139"/>
-      <c r="AK31" s="139"/>
-      <c r="AL31" s="139"/>
-      <c r="AM31" s="139"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="138"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="138"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="138"/>
+      <c r="AG31" s="138"/>
+      <c r="AH31" s="138"/>
+      <c r="AI31" s="138"/>
+      <c r="AJ31" s="138"/>
+      <c r="AK31" s="138"/>
+      <c r="AL31" s="138"/>
+      <c r="AM31" s="138"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="132"/>
       <c r="D32" s="132"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="139"/>
-      <c r="AH32" s="139"/>
-      <c r="AI32" s="139"/>
-      <c r="AJ32" s="139"/>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="139"/>
-      <c r="AM32" s="139"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="138"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="138"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
+      <c r="AI32" s="138"/>
+      <c r="AJ32" s="138"/>
+      <c r="AK32" s="138"/>
+      <c r="AL32" s="138"/>
+      <c r="AM32" s="138"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="132"/>
       <c r="D33" s="132"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="138"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="139"/>
-      <c r="AG33" s="139"/>
-      <c r="AH33" s="139"/>
-      <c r="AI33" s="139"/>
-      <c r="AJ33" s="139"/>
-      <c r="AK33" s="139"/>
-      <c r="AL33" s="139"/>
-      <c r="AM33" s="139"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="138"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="138"/>
+      <c r="AJ33" s="138"/>
+      <c r="AK33" s="138"/>
+      <c r="AL33" s="138"/>
+      <c r="AM33" s="138"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="138"/>
-      <c r="T34" s="138"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="138"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="139"/>
-      <c r="AC34" s="139"/>
-      <c r="AD34" s="139"/>
-      <c r="AE34" s="139"/>
-      <c r="AF34" s="139"/>
-      <c r="AG34" s="139"/>
-      <c r="AH34" s="139"/>
-      <c r="AI34" s="139"/>
-      <c r="AJ34" s="139"/>
-      <c r="AK34" s="139"/>
-      <c r="AL34" s="139"/>
-      <c r="AM34" s="139"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="138"/>
+      <c r="AC34" s="138"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="138"/>
+      <c r="AF34" s="138"/>
+      <c r="AG34" s="138"/>
+      <c r="AH34" s="138"/>
+      <c r="AI34" s="138"/>
+      <c r="AJ34" s="138"/>
+      <c r="AK34" s="138"/>
+      <c r="AL34" s="138"/>
+      <c r="AM34" s="138"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="132"/>
       <c r="D35" s="132"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="138"/>
-      <c r="R35" s="138"/>
-      <c r="S35" s="138"/>
-      <c r="T35" s="138"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="139"/>
-      <c r="AD35" s="139"/>
-      <c r="AE35" s="139"/>
-      <c r="AF35" s="139"/>
-      <c r="AG35" s="139"/>
-      <c r="AH35" s="139"/>
-      <c r="AI35" s="139"/>
-      <c r="AJ35" s="139"/>
-      <c r="AK35" s="139"/>
-      <c r="AL35" s="139"/>
-      <c r="AM35" s="139"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="138"/>
+      <c r="AC35" s="138"/>
+      <c r="AD35" s="138"/>
+      <c r="AE35" s="138"/>
+      <c r="AF35" s="138"/>
+      <c r="AG35" s="138"/>
+      <c r="AH35" s="138"/>
+      <c r="AI35" s="138"/>
+      <c r="AJ35" s="138"/>
+      <c r="AK35" s="138"/>
+      <c r="AL35" s="138"/>
+      <c r="AM35" s="138"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
@@ -4720,205 +4716,205 @@
       <c r="B36" s="50"/>
       <c r="C36" s="132"/>
       <c r="D36" s="132"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="138"/>
-      <c r="P36" s="138"/>
-      <c r="Q36" s="138"/>
-      <c r="R36" s="138"/>
-      <c r="S36" s="138"/>
-      <c r="T36" s="138"/>
-      <c r="U36" s="138"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="139"/>
-      <c r="AC36" s="139"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="139"/>
-      <c r="AF36" s="139"/>
-      <c r="AG36" s="139"/>
-      <c r="AH36" s="139"/>
-      <c r="AI36" s="139"/>
-      <c r="AJ36" s="139"/>
-      <c r="AK36" s="139"/>
-      <c r="AL36" s="139"/>
-      <c r="AM36" s="139"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="138"/>
+      <c r="AC36" s="138"/>
+      <c r="AD36" s="138"/>
+      <c r="AE36" s="138"/>
+      <c r="AF36" s="138"/>
+      <c r="AG36" s="138"/>
+      <c r="AH36" s="138"/>
+      <c r="AI36" s="138"/>
+      <c r="AJ36" s="138"/>
+      <c r="AK36" s="138"/>
+      <c r="AL36" s="138"/>
+      <c r="AM36" s="138"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="132"/>
       <c r="D37" s="132"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
-      <c r="Q37" s="138"/>
-      <c r="R37" s="138"/>
-      <c r="S37" s="138"/>
-      <c r="T37" s="138"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="139"/>
-      <c r="AC37" s="139"/>
-      <c r="AD37" s="139"/>
-      <c r="AE37" s="139"/>
-      <c r="AF37" s="139"/>
-      <c r="AG37" s="139"/>
-      <c r="AH37" s="139"/>
-      <c r="AI37" s="139"/>
-      <c r="AJ37" s="139"/>
-      <c r="AK37" s="139"/>
-      <c r="AL37" s="139"/>
-      <c r="AM37" s="139"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="138"/>
+      <c r="AC37" s="138"/>
+      <c r="AD37" s="138"/>
+      <c r="AE37" s="138"/>
+      <c r="AF37" s="138"/>
+      <c r="AG37" s="138"/>
+      <c r="AH37" s="138"/>
+      <c r="AI37" s="138"/>
+      <c r="AJ37" s="138"/>
+      <c r="AK37" s="138"/>
+      <c r="AL37" s="138"/>
+      <c r="AM37" s="138"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="132"/>
       <c r="D38" s="132"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="138"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="139"/>
-      <c r="AC38" s="139"/>
-      <c r="AD38" s="139"/>
-      <c r="AE38" s="139"/>
-      <c r="AF38" s="139"/>
-      <c r="AG38" s="139"/>
-      <c r="AH38" s="139"/>
-      <c r="AI38" s="139"/>
-      <c r="AJ38" s="139"/>
-      <c r="AK38" s="139"/>
-      <c r="AL38" s="139"/>
-      <c r="AM38" s="139"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="138"/>
+      <c r="AC38" s="138"/>
+      <c r="AD38" s="138"/>
+      <c r="AE38" s="138"/>
+      <c r="AF38" s="138"/>
+      <c r="AG38" s="138"/>
+      <c r="AH38" s="138"/>
+      <c r="AI38" s="138"/>
+      <c r="AJ38" s="138"/>
+      <c r="AK38" s="138"/>
+      <c r="AL38" s="138"/>
+      <c r="AM38" s="138"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="132"/>
       <c r="D39" s="132"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="138"/>
-      <c r="R39" s="138"/>
-      <c r="S39" s="138"/>
-      <c r="T39" s="138"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="139"/>
-      <c r="AC39" s="139"/>
-      <c r="AD39" s="139"/>
-      <c r="AE39" s="139"/>
-      <c r="AF39" s="139"/>
-      <c r="AG39" s="139"/>
-      <c r="AH39" s="139"/>
-      <c r="AI39" s="139"/>
-      <c r="AJ39" s="139"/>
-      <c r="AK39" s="139"/>
-      <c r="AL39" s="139"/>
-      <c r="AM39" s="139"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="138"/>
+      <c r="AC39" s="138"/>
+      <c r="AD39" s="138"/>
+      <c r="AE39" s="138"/>
+      <c r="AF39" s="138"/>
+      <c r="AG39" s="138"/>
+      <c r="AH39" s="138"/>
+      <c r="AI39" s="138"/>
+      <c r="AJ39" s="138"/>
+      <c r="AK39" s="138"/>
+      <c r="AL39" s="138"/>
+      <c r="AM39" s="138"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="132"/>
       <c r="D40" s="132"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138"/>
-      <c r="P40" s="138"/>
-      <c r="Q40" s="138"/>
-      <c r="R40" s="138"/>
-      <c r="S40" s="138"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="139"/>
-      <c r="AC40" s="139"/>
-      <c r="AD40" s="139"/>
-      <c r="AE40" s="139"/>
-      <c r="AF40" s="139"/>
-      <c r="AG40" s="139"/>
-      <c r="AH40" s="139"/>
-      <c r="AI40" s="139"/>
-      <c r="AJ40" s="139"/>
-      <c r="AK40" s="139"/>
-      <c r="AL40" s="139"/>
-      <c r="AM40" s="139"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
+      <c r="AI40" s="138"/>
+      <c r="AJ40" s="138"/>
+      <c r="AK40" s="138"/>
+      <c r="AL40" s="138"/>
+      <c r="AM40" s="138"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
@@ -4927,205 +4923,205 @@
       <c r="B41" s="50"/>
       <c r="C41" s="132"/>
       <c r="D41" s="132"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="138"/>
-      <c r="P41" s="138"/>
-      <c r="Q41" s="138"/>
-      <c r="R41" s="138"/>
-      <c r="S41" s="138"/>
-      <c r="T41" s="138"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="138"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="139"/>
-      <c r="AC41" s="139"/>
-      <c r="AD41" s="139"/>
-      <c r="AE41" s="139"/>
-      <c r="AF41" s="139"/>
-      <c r="AG41" s="139"/>
-      <c r="AH41" s="139"/>
-      <c r="AI41" s="139"/>
-      <c r="AJ41" s="139"/>
-      <c r="AK41" s="139"/>
-      <c r="AL41" s="139"/>
-      <c r="AM41" s="139"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="138"/>
+      <c r="AD41" s="138"/>
+      <c r="AE41" s="138"/>
+      <c r="AF41" s="138"/>
+      <c r="AG41" s="138"/>
+      <c r="AH41" s="138"/>
+      <c r="AI41" s="138"/>
+      <c r="AJ41" s="138"/>
+      <c r="AK41" s="138"/>
+      <c r="AL41" s="138"/>
+      <c r="AM41" s="138"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="132"/>
       <c r="D42" s="132"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="138"/>
-      <c r="Q42" s="138"/>
-      <c r="R42" s="138"/>
-      <c r="S42" s="138"/>
-      <c r="T42" s="138"/>
-      <c r="U42" s="138"/>
-      <c r="V42" s="138"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="139"/>
-      <c r="AC42" s="139"/>
-      <c r="AD42" s="139"/>
-      <c r="AE42" s="139"/>
-      <c r="AF42" s="139"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="139"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="139"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="139"/>
-      <c r="AM42" s="139"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="83"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="138"/>
+      <c r="AC42" s="138"/>
+      <c r="AD42" s="138"/>
+      <c r="AE42" s="138"/>
+      <c r="AF42" s="138"/>
+      <c r="AG42" s="138"/>
+      <c r="AH42" s="138"/>
+      <c r="AI42" s="138"/>
+      <c r="AJ42" s="138"/>
+      <c r="AK42" s="138"/>
+      <c r="AL42" s="138"/>
+      <c r="AM42" s="138"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="132"/>
       <c r="D43" s="132"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="138"/>
-      <c r="S43" s="138"/>
-      <c r="T43" s="138"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="139"/>
-      <c r="AC43" s="139"/>
-      <c r="AD43" s="139"/>
-      <c r="AE43" s="139"/>
-      <c r="AF43" s="139"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="139"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="139"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="139"/>
-      <c r="AM43" s="139"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="138"/>
+      <c r="AC43" s="138"/>
+      <c r="AD43" s="138"/>
+      <c r="AE43" s="138"/>
+      <c r="AF43" s="138"/>
+      <c r="AG43" s="138"/>
+      <c r="AH43" s="138"/>
+      <c r="AI43" s="138"/>
+      <c r="AJ43" s="138"/>
+      <c r="AK43" s="138"/>
+      <c r="AL43" s="138"/>
+      <c r="AM43" s="138"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
       <c r="C44" s="132"/>
       <c r="D44" s="132"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="138"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="138"/>
-      <c r="V44" s="138"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="139"/>
-      <c r="AC44" s="139"/>
-      <c r="AD44" s="139"/>
-      <c r="AE44" s="139"/>
-      <c r="AF44" s="139"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="139"/>
-      <c r="AI44" s="139"/>
-      <c r="AJ44" s="139"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="139"/>
-      <c r="AM44" s="139"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="138"/>
+      <c r="AC44" s="138"/>
+      <c r="AD44" s="138"/>
+      <c r="AE44" s="138"/>
+      <c r="AF44" s="138"/>
+      <c r="AG44" s="138"/>
+      <c r="AH44" s="138"/>
+      <c r="AI44" s="138"/>
+      <c r="AJ44" s="138"/>
+      <c r="AK44" s="138"/>
+      <c r="AL44" s="138"/>
+      <c r="AM44" s="138"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="132"/>
       <c r="D45" s="132"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="138"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="139"/>
-      <c r="AC45" s="139"/>
-      <c r="AD45" s="139"/>
-      <c r="AE45" s="139"/>
-      <c r="AF45" s="139"/>
-      <c r="AG45" s="139"/>
-      <c r="AH45" s="139"/>
-      <c r="AI45" s="139"/>
-      <c r="AJ45" s="139"/>
-      <c r="AK45" s="139"/>
-      <c r="AL45" s="139"/>
-      <c r="AM45" s="139"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="138"/>
+      <c r="AC45" s="138"/>
+      <c r="AD45" s="138"/>
+      <c r="AE45" s="138"/>
+      <c r="AF45" s="138"/>
+      <c r="AG45" s="138"/>
+      <c r="AH45" s="138"/>
+      <c r="AI45" s="138"/>
+      <c r="AJ45" s="138"/>
+      <c r="AK45" s="138"/>
+      <c r="AL45" s="138"/>
+      <c r="AM45" s="138"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
@@ -5134,287 +5130,287 @@
       <c r="B46" s="50"/>
       <c r="C46" s="132"/>
       <c r="D46" s="132"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="138"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="139"/>
-      <c r="AC46" s="139"/>
-      <c r="AD46" s="139"/>
-      <c r="AE46" s="139"/>
-      <c r="AF46" s="139"/>
-      <c r="AG46" s="139"/>
-      <c r="AH46" s="139"/>
-      <c r="AI46" s="139"/>
-      <c r="AJ46" s="139"/>
-      <c r="AK46" s="139"/>
-      <c r="AL46" s="139"/>
-      <c r="AM46" s="139"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
+      <c r="V46" s="83"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="138"/>
+      <c r="AC46" s="138"/>
+      <c r="AD46" s="138"/>
+      <c r="AE46" s="138"/>
+      <c r="AF46" s="138"/>
+      <c r="AG46" s="138"/>
+      <c r="AH46" s="138"/>
+      <c r="AI46" s="138"/>
+      <c r="AJ46" s="138"/>
+      <c r="AK46" s="138"/>
+      <c r="AL46" s="138"/>
+      <c r="AM46" s="138"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
       <c r="C47" s="132"/>
       <c r="D47" s="132"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="138"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="139"/>
-      <c r="AC47" s="139"/>
-      <c r="AD47" s="139"/>
-      <c r="AE47" s="139"/>
-      <c r="AF47" s="139"/>
-      <c r="AG47" s="139"/>
-      <c r="AH47" s="139"/>
-      <c r="AI47" s="139"/>
-      <c r="AJ47" s="139"/>
-      <c r="AK47" s="139"/>
-      <c r="AL47" s="139"/>
-      <c r="AM47" s="139"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="138"/>
+      <c r="AC47" s="138"/>
+      <c r="AD47" s="138"/>
+      <c r="AE47" s="138"/>
+      <c r="AF47" s="138"/>
+      <c r="AG47" s="138"/>
+      <c r="AH47" s="138"/>
+      <c r="AI47" s="138"/>
+      <c r="AJ47" s="138"/>
+      <c r="AK47" s="138"/>
+      <c r="AL47" s="138"/>
+      <c r="AM47" s="138"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
       <c r="C48" s="132"/>
       <c r="D48" s="132"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="138"/>
-      <c r="U48" s="138"/>
-      <c r="V48" s="138"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="139"/>
-      <c r="AC48" s="139"/>
-      <c r="AD48" s="139"/>
-      <c r="AE48" s="139"/>
-      <c r="AF48" s="139"/>
-      <c r="AG48" s="139"/>
-      <c r="AH48" s="139"/>
-      <c r="AI48" s="139"/>
-      <c r="AJ48" s="139"/>
-      <c r="AK48" s="139"/>
-      <c r="AL48" s="139"/>
-      <c r="AM48" s="139"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="83"/>
+      <c r="V48" s="83"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="138"/>
+      <c r="AC48" s="138"/>
+      <c r="AD48" s="138"/>
+      <c r="AE48" s="138"/>
+      <c r="AF48" s="138"/>
+      <c r="AG48" s="138"/>
+      <c r="AH48" s="138"/>
+      <c r="AI48" s="138"/>
+      <c r="AJ48" s="138"/>
+      <c r="AK48" s="138"/>
+      <c r="AL48" s="138"/>
+      <c r="AM48" s="138"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
       <c r="C49" s="132"/>
       <c r="D49" s="132"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="138"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="138"/>
-      <c r="P49" s="138"/>
-      <c r="Q49" s="138"/>
-      <c r="R49" s="138"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="138"/>
-      <c r="U49" s="138"/>
-      <c r="V49" s="138"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="139"/>
-      <c r="AC49" s="139"/>
-      <c r="AD49" s="139"/>
-      <c r="AE49" s="139"/>
-      <c r="AF49" s="139"/>
-      <c r="AG49" s="139"/>
-      <c r="AH49" s="139"/>
-      <c r="AI49" s="139"/>
-      <c r="AJ49" s="139"/>
-      <c r="AK49" s="139"/>
-      <c r="AL49" s="139"/>
-      <c r="AM49" s="139"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="83"/>
+      <c r="V49" s="83"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="138"/>
+      <c r="AC49" s="138"/>
+      <c r="AD49" s="138"/>
+      <c r="AE49" s="138"/>
+      <c r="AF49" s="138"/>
+      <c r="AG49" s="138"/>
+      <c r="AH49" s="138"/>
+      <c r="AI49" s="138"/>
+      <c r="AJ49" s="138"/>
+      <c r="AK49" s="138"/>
+      <c r="AL49" s="138"/>
+      <c r="AM49" s="138"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
       <c r="C50" s="132"/>
       <c r="D50" s="132"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="138"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="138"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="139"/>
-      <c r="AC50" s="139"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="139"/>
-      <c r="AF50" s="139"/>
-      <c r="AG50" s="139"/>
-      <c r="AH50" s="139"/>
-      <c r="AI50" s="139"/>
-      <c r="AJ50" s="139"/>
-      <c r="AK50" s="139"/>
-      <c r="AL50" s="139"/>
-      <c r="AM50" s="139"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="83"/>
+      <c r="V50" s="83"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="138"/>
+      <c r="AC50" s="138"/>
+      <c r="AD50" s="138"/>
+      <c r="AE50" s="138"/>
+      <c r="AF50" s="138"/>
+      <c r="AG50" s="138"/>
+      <c r="AH50" s="138"/>
+      <c r="AI50" s="138"/>
+      <c r="AJ50" s="138"/>
+      <c r="AK50" s="138"/>
+      <c r="AL50" s="138"/>
+      <c r="AM50" s="138"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
       <c r="C51" s="132"/>
       <c r="D51" s="132"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="138"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="138"/>
-      <c r="U51" s="138"/>
-      <c r="V51" s="138"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="139"/>
-      <c r="AC51" s="139"/>
-      <c r="AD51" s="139"/>
-      <c r="AE51" s="139"/>
-      <c r="AF51" s="139"/>
-      <c r="AG51" s="139"/>
-      <c r="AH51" s="139"/>
-      <c r="AI51" s="139"/>
-      <c r="AJ51" s="139"/>
-      <c r="AK51" s="139"/>
-      <c r="AL51" s="139"/>
-      <c r="AM51" s="139"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="83"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="138"/>
+      <c r="AC51" s="138"/>
+      <c r="AD51" s="138"/>
+      <c r="AE51" s="138"/>
+      <c r="AF51" s="138"/>
+      <c r="AG51" s="138"/>
+      <c r="AH51" s="138"/>
+      <c r="AI51" s="138"/>
+      <c r="AJ51" s="138"/>
+      <c r="AK51" s="138"/>
+      <c r="AL51" s="138"/>
+      <c r="AM51" s="138"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
       <c r="C52" s="132"/>
       <c r="D52" s="132"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="138"/>
-      <c r="P52" s="138"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="138"/>
-      <c r="S52" s="138"/>
-      <c r="T52" s="138"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="138"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="139"/>
-      <c r="AC52" s="139"/>
-      <c r="AD52" s="139"/>
-      <c r="AE52" s="139"/>
-      <c r="AF52" s="139"/>
-      <c r="AG52" s="139"/>
-      <c r="AH52" s="139"/>
-      <c r="AI52" s="139"/>
-      <c r="AJ52" s="139"/>
-      <c r="AK52" s="139"/>
-      <c r="AL52" s="139"/>
-      <c r="AM52" s="139"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="138"/>
+      <c r="AC52" s="138"/>
+      <c r="AD52" s="138"/>
+      <c r="AE52" s="138"/>
+      <c r="AF52" s="138"/>
+      <c r="AG52" s="138"/>
+      <c r="AH52" s="138"/>
+      <c r="AI52" s="138"/>
+      <c r="AJ52" s="138"/>
+      <c r="AK52" s="138"/>
+      <c r="AL52" s="138"/>
+      <c r="AM52" s="138"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
@@ -7334,7 +7330,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8982,8 +8978,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V11" activeCellId="0" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22191,7 +22187,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -1412,9 +1412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1428,7 +1428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1217880" cy="555120"/>
+          <a:ext cx="1217520" cy="554760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,9 +1454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,7 +1470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1217880" cy="555120"/>
+          <a:ext cx="1217520" cy="554760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,9 +1496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>106560</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,7 +1512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="630000" cy="286200"/>
+          <a:ext cx="629640" cy="285840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DA10" activeCellId="0" sqref="DA10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3290,7 +3290,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7330,8 +7330,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8978,8 +8978,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V11" activeCellId="0" sqref="V11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V41" activeCellId="0" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12363,7 +12363,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -14812,8 +14812,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17281,7 +17281,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
@@ -19699,8 +19699,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY22" activeCellId="0" sqref="AY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22188,7 +22188,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="AT35" activeCellId="0" sqref="AT35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">{Уровень ответственности}</t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент надежности по ответственности в соответствии с п. 7 статьи 16ФЗ РФ от 30.12.2009 г. №384‑ФЗ «Технический регламент о безопасности зданий и сооружений»</t>
+    <t xml:space="preserve">Коэффициент надежности по ответственности в соответствии с п. 7 статьи 16 ФЗ РФ от 30.12.2009 г. №384‑ФЗ «Технический регламент о безопасности зданий и сооружений»</t>
   </si>
   <si>
     <t xml:space="preserve">1,0</t>
@@ -1412,9 +1412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1428,7 +1428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1217520" cy="554760"/>
+          <a:ext cx="1217160" cy="554400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,9 +1454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,7 +1470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1217520" cy="554760"/>
+          <a:ext cx="1217160" cy="554400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,9 +1496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,7 +1512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="629640" cy="285840"/>
+          <a:ext cx="629280" cy="285480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,7 +1640,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -3290,7 +3290,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5748,7 +5748,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -7330,7 +7330,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -8978,7 +8978,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V41" activeCellId="0" sqref="V41"/>
     </sheetView>
   </sheetViews>
@@ -10693,7 +10693,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE20" activeCellId="0" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -12363,7 +12363,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -14812,8 +14812,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W33" activeCellId="0" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17281,7 +17281,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
@@ -19699,8 +19699,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY22" activeCellId="0" sqref="AY22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22187,8 +22187,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AT35" activeCellId="0" sqref="AT35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BD31" activeCellId="0" sqref="BD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -772,7 +772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="137">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1218,11 +1218,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1291,14 +1291,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1412,9 +1404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1428,7 +1420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1217160" cy="554400"/>
+          <a:ext cx="1214640" cy="551880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,7 +1462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1217160" cy="554400"/>
+          <a:ext cx="1214640" cy="551880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,7 +1504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="629280" cy="285480"/>
+          <a:ext cx="626760" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,7 +1632,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -3290,7 +3282,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3502,122 +3494,122 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="134"/>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="134"/>
-      <c r="AB7" s="134"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="134"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="134"/>
-      <c r="AI7" s="134"/>
-      <c r="AJ7" s="134"/>
-      <c r="AK7" s="134"/>
-      <c r="AL7" s="134"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="132"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3707,137 +3699,137 @@
       <c r="AM10" s="127"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="135" t="str">
+      <c r="C11" s="133" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="136" t="str">
+      <c r="D11" s="133"/>
+      <c r="E11" s="134" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="136" t="str">
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="137" t="str">
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="135" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="137"/>
-      <c r="AJ11" s="137"/>
-      <c r="AK11" s="137"/>
-      <c r="AL11" s="137"/>
-      <c r="AM11" s="137"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="135"/>
+      <c r="AJ11" s="135"/>
+      <c r="AK11" s="135"/>
+      <c r="AL11" s="135"/>
+      <c r="AM11" s="135"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="137"/>
-      <c r="AI12" s="137"/>
-      <c r="AJ12" s="137"/>
-      <c r="AK12" s="137"/>
-      <c r="AL12" s="137"/>
-      <c r="AM12" s="137"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="135"/>
+      <c r="AK12" s="135"/>
+      <c r="AL12" s="135"/>
+      <c r="AM12" s="135"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="137"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="135"/>
+      <c r="AK13" s="135"/>
+      <c r="AL13" s="135"/>
+      <c r="AM13" s="135"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
       <c r="G14" s="83"/>
@@ -3861,22 +3853,22 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="138"/>
-      <c r="AI14" s="138"/>
-      <c r="AJ14" s="138"/>
-      <c r="AK14" s="138"/>
-      <c r="AL14" s="138"/>
-      <c r="AM14" s="138"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="136"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
@@ -3900,22 +3892,22 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="138"/>
-      <c r="AI15" s="138"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="136"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="136"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
@@ -3939,22 +3931,22 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="138"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="138"/>
-      <c r="AK16" s="138"/>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="138"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="136"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="136"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="136"/>
+      <c r="AM16" s="136"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
@@ -3978,22 +3970,22 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="32"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="138"/>
-      <c r="AG17" s="138"/>
-      <c r="AH17" s="138"/>
-      <c r="AI17" s="138"/>
-      <c r="AJ17" s="138"/>
-      <c r="AK17" s="138"/>
-      <c r="AL17" s="138"/>
-      <c r="AM17" s="138"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="136"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="136"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="136"/>
+      <c r="AJ17" s="136"/>
+      <c r="AK17" s="136"/>
+      <c r="AL17" s="136"/>
+      <c r="AM17" s="136"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="83"/>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
@@ -4017,22 +4009,22 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="138"/>
-      <c r="AG18" s="138"/>
-      <c r="AH18" s="138"/>
-      <c r="AI18" s="138"/>
-      <c r="AJ18" s="138"/>
-      <c r="AK18" s="138"/>
-      <c r="AL18" s="138"/>
-      <c r="AM18" s="138"/>
+      <c r="AB18" s="136"/>
+      <c r="AC18" s="136"/>
+      <c r="AD18" s="136"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="136"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="136"/>
+      <c r="AJ18" s="136"/>
+      <c r="AK18" s="136"/>
+      <c r="AL18" s="136"/>
+      <c r="AM18" s="136"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
@@ -4056,22 +4048,22 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="138"/>
-      <c r="AG19" s="138"/>
-      <c r="AH19" s="138"/>
-      <c r="AI19" s="138"/>
-      <c r="AJ19" s="138"/>
-      <c r="AK19" s="138"/>
-      <c r="AL19" s="138"/>
-      <c r="AM19" s="138"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="136"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="136"/>
+      <c r="AJ19" s="136"/>
+      <c r="AK19" s="136"/>
+      <c r="AL19" s="136"/>
+      <c r="AM19" s="136"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="83"/>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
@@ -4095,22 +4087,22 @@
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="138"/>
-      <c r="AG20" s="138"/>
-      <c r="AH20" s="138"/>
-      <c r="AI20" s="138"/>
-      <c r="AJ20" s="138"/>
-      <c r="AK20" s="138"/>
-      <c r="AL20" s="138"/>
-      <c r="AM20" s="138"/>
+      <c r="AB20" s="136"/>
+      <c r="AC20" s="136"/>
+      <c r="AD20" s="136"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="136"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="136"/>
+      <c r="AJ20" s="136"/>
+      <c r="AK20" s="136"/>
+      <c r="AL20" s="136"/>
+      <c r="AM20" s="136"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="83"/>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
@@ -4134,22 +4126,22 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="138"/>
-      <c r="AG21" s="138"/>
-      <c r="AH21" s="138"/>
-      <c r="AI21" s="138"/>
-      <c r="AJ21" s="138"/>
-      <c r="AK21" s="138"/>
-      <c r="AL21" s="138"/>
-      <c r="AM21" s="138"/>
+      <c r="AB21" s="136"/>
+      <c r="AC21" s="136"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="136"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="136"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="136"/>
+      <c r="AL21" s="136"/>
+      <c r="AM21" s="136"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
       <c r="E22" s="83"/>
       <c r="F22" s="83"/>
       <c r="G22" s="83"/>
@@ -4173,22 +4165,22 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="138"/>
-      <c r="AG22" s="138"/>
-      <c r="AH22" s="138"/>
-      <c r="AI22" s="138"/>
-      <c r="AJ22" s="138"/>
-      <c r="AK22" s="138"/>
-      <c r="AL22" s="138"/>
-      <c r="AM22" s="138"/>
+      <c r="AB22" s="136"/>
+      <c r="AC22" s="136"/>
+      <c r="AD22" s="136"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="136"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="136"/>
+      <c r="AJ22" s="136"/>
+      <c r="AK22" s="136"/>
+      <c r="AL22" s="136"/>
+      <c r="AM22" s="136"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="83"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
@@ -4212,22 +4204,22 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="138"/>
-      <c r="AJ23" s="138"/>
-      <c r="AK23" s="138"/>
-      <c r="AL23" s="138"/>
-      <c r="AM23" s="138"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="136"/>
+      <c r="AM23" s="136"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="83"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
@@ -4251,22 +4243,22 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="138"/>
-      <c r="AG24" s="138"/>
-      <c r="AH24" s="138"/>
-      <c r="AI24" s="138"/>
-      <c r="AJ24" s="138"/>
-      <c r="AK24" s="138"/>
-      <c r="AL24" s="138"/>
-      <c r="AM24" s="138"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="136"/>
+      <c r="AD24" s="136"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="136"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="136"/>
+      <c r="AJ24" s="136"/>
+      <c r="AK24" s="136"/>
+      <c r="AL24" s="136"/>
+      <c r="AM24" s="136"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="83"/>
       <c r="F25" s="83"/>
       <c r="G25" s="83"/>
@@ -4290,22 +4282,22 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="138"/>
-      <c r="AG25" s="138"/>
-      <c r="AH25" s="138"/>
-      <c r="AI25" s="138"/>
-      <c r="AJ25" s="138"/>
-      <c r="AK25" s="138"/>
-      <c r="AL25" s="138"/>
-      <c r="AM25" s="138"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="136"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="136"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="136"/>
+      <c r="AJ25" s="136"/>
+      <c r="AK25" s="136"/>
+      <c r="AL25" s="136"/>
+      <c r="AM25" s="136"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
@@ -4329,22 +4321,22 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="138"/>
-      <c r="AH26" s="138"/>
-      <c r="AI26" s="138"/>
-      <c r="AJ26" s="138"/>
-      <c r="AK26" s="138"/>
-      <c r="AL26" s="138"/>
-      <c r="AM26" s="138"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="136"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="136"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="136"/>
+      <c r="AJ26" s="136"/>
+      <c r="AK26" s="136"/>
+      <c r="AL26" s="136"/>
+      <c r="AM26" s="136"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="83"/>
       <c r="F27" s="83"/>
       <c r="G27" s="83"/>
@@ -4368,22 +4360,22 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="138"/>
-      <c r="AG27" s="138"/>
-      <c r="AH27" s="138"/>
-      <c r="AI27" s="138"/>
-      <c r="AJ27" s="138"/>
-      <c r="AK27" s="138"/>
-      <c r="AL27" s="138"/>
-      <c r="AM27" s="138"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="136"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="136"/>
+      <c r="AJ27" s="136"/>
+      <c r="AK27" s="136"/>
+      <c r="AL27" s="136"/>
+      <c r="AM27" s="136"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="83"/>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
@@ -4407,26 +4399,26 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="136"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="136"/>
+      <c r="AJ28" s="136"/>
+      <c r="AK28" s="136"/>
+      <c r="AL28" s="136"/>
+      <c r="AM28" s="136"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
       <c r="G29" s="83"/>
@@ -4450,24 +4442,24 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="138"/>
-      <c r="AG29" s="138"/>
-      <c r="AH29" s="138"/>
-      <c r="AI29" s="138"/>
-      <c r="AJ29" s="138"/>
-      <c r="AK29" s="138"/>
-      <c r="AL29" s="138"/>
-      <c r="AM29" s="138"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="136"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="136"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="136"/>
+      <c r="AJ29" s="136"/>
+      <c r="AK29" s="136"/>
+      <c r="AL29" s="136"/>
+      <c r="AM29" s="136"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="83"/>
@@ -4491,24 +4483,24 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="138"/>
-      <c r="AG30" s="138"/>
-      <c r="AH30" s="138"/>
-      <c r="AI30" s="138"/>
-      <c r="AJ30" s="138"/>
-      <c r="AK30" s="138"/>
-      <c r="AL30" s="138"/>
-      <c r="AM30" s="138"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="136"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="136"/>
+      <c r="AJ30" s="136"/>
+      <c r="AK30" s="136"/>
+      <c r="AL30" s="136"/>
+      <c r="AM30" s="136"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="83"/>
       <c r="F31" s="83"/>
       <c r="G31" s="83"/>
@@ -4532,24 +4524,24 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="138"/>
-      <c r="AG31" s="138"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="138"/>
-      <c r="AJ31" s="138"/>
-      <c r="AK31" s="138"/>
-      <c r="AL31" s="138"/>
-      <c r="AM31" s="138"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="136"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="136"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="136"/>
+      <c r="AK31" s="136"/>
+      <c r="AL31" s="136"/>
+      <c r="AM31" s="136"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
       <c r="E32" s="83"/>
       <c r="F32" s="83"/>
       <c r="G32" s="83"/>
@@ -4573,24 +4565,24 @@
       <c r="Y32" s="32"/>
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="138"/>
-      <c r="AG32" s="138"/>
-      <c r="AH32" s="138"/>
-      <c r="AI32" s="138"/>
-      <c r="AJ32" s="138"/>
-      <c r="AK32" s="138"/>
-      <c r="AL32" s="138"/>
-      <c r="AM32" s="138"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="136"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="136"/>
+      <c r="AM32" s="136"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="83"/>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
@@ -4614,24 +4606,24 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="138"/>
-      <c r="AG33" s="138"/>
-      <c r="AH33" s="138"/>
-      <c r="AI33" s="138"/>
-      <c r="AJ33" s="138"/>
-      <c r="AK33" s="138"/>
-      <c r="AL33" s="138"/>
-      <c r="AM33" s="138"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="136"/>
+      <c r="AD33" s="136"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="136"/>
+      <c r="AJ33" s="136"/>
+      <c r="AK33" s="136"/>
+      <c r="AL33" s="136"/>
+      <c r="AM33" s="136"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="83"/>
       <c r="F34" s="83"/>
       <c r="G34" s="83"/>
@@ -4655,24 +4647,24 @@
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
-      <c r="AB34" s="138"/>
-      <c r="AC34" s="138"/>
-      <c r="AD34" s="138"/>
-      <c r="AE34" s="138"/>
-      <c r="AF34" s="138"/>
-      <c r="AG34" s="138"/>
-      <c r="AH34" s="138"/>
-      <c r="AI34" s="138"/>
-      <c r="AJ34" s="138"/>
-      <c r="AK34" s="138"/>
-      <c r="AL34" s="138"/>
-      <c r="AM34" s="138"/>
+      <c r="AB34" s="136"/>
+      <c r="AC34" s="136"/>
+      <c r="AD34" s="136"/>
+      <c r="AE34" s="136"/>
+      <c r="AF34" s="136"/>
+      <c r="AG34" s="136"/>
+      <c r="AH34" s="136"/>
+      <c r="AI34" s="136"/>
+      <c r="AJ34" s="136"/>
+      <c r="AK34" s="136"/>
+      <c r="AL34" s="136"/>
+      <c r="AM34" s="136"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="83"/>
       <c r="F35" s="83"/>
       <c r="G35" s="83"/>
@@ -4696,26 +4688,26 @@
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
-      <c r="AB35" s="138"/>
-      <c r="AC35" s="138"/>
-      <c r="AD35" s="138"/>
-      <c r="AE35" s="138"/>
-      <c r="AF35" s="138"/>
-      <c r="AG35" s="138"/>
-      <c r="AH35" s="138"/>
-      <c r="AI35" s="138"/>
-      <c r="AJ35" s="138"/>
-      <c r="AK35" s="138"/>
-      <c r="AL35" s="138"/>
-      <c r="AM35" s="138"/>
+      <c r="AB35" s="136"/>
+      <c r="AC35" s="136"/>
+      <c r="AD35" s="136"/>
+      <c r="AE35" s="136"/>
+      <c r="AF35" s="136"/>
+      <c r="AG35" s="136"/>
+      <c r="AH35" s="136"/>
+      <c r="AI35" s="136"/>
+      <c r="AJ35" s="136"/>
+      <c r="AK35" s="136"/>
+      <c r="AL35" s="136"/>
+      <c r="AM35" s="136"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
@@ -4739,24 +4731,24 @@
       <c r="Y36" s="32"/>
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
-      <c r="AB36" s="138"/>
-      <c r="AC36" s="138"/>
-      <c r="AD36" s="138"/>
-      <c r="AE36" s="138"/>
-      <c r="AF36" s="138"/>
-      <c r="AG36" s="138"/>
-      <c r="AH36" s="138"/>
-      <c r="AI36" s="138"/>
-      <c r="AJ36" s="138"/>
-      <c r="AK36" s="138"/>
-      <c r="AL36" s="138"/>
-      <c r="AM36" s="138"/>
+      <c r="AB36" s="136"/>
+      <c r="AC36" s="136"/>
+      <c r="AD36" s="136"/>
+      <c r="AE36" s="136"/>
+      <c r="AF36" s="136"/>
+      <c r="AG36" s="136"/>
+      <c r="AH36" s="136"/>
+      <c r="AI36" s="136"/>
+      <c r="AJ36" s="136"/>
+      <c r="AK36" s="136"/>
+      <c r="AL36" s="136"/>
+      <c r="AM36" s="136"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
       <c r="G37" s="83"/>
@@ -4780,24 +4772,24 @@
       <c r="Y37" s="32"/>
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="138"/>
-      <c r="AC37" s="138"/>
-      <c r="AD37" s="138"/>
-      <c r="AE37" s="138"/>
-      <c r="AF37" s="138"/>
-      <c r="AG37" s="138"/>
-      <c r="AH37" s="138"/>
-      <c r="AI37" s="138"/>
-      <c r="AJ37" s="138"/>
-      <c r="AK37" s="138"/>
-      <c r="AL37" s="138"/>
-      <c r="AM37" s="138"/>
+      <c r="AB37" s="136"/>
+      <c r="AC37" s="136"/>
+      <c r="AD37" s="136"/>
+      <c r="AE37" s="136"/>
+      <c r="AF37" s="136"/>
+      <c r="AG37" s="136"/>
+      <c r="AH37" s="136"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="136"/>
+      <c r="AK37" s="136"/>
+      <c r="AL37" s="136"/>
+      <c r="AM37" s="136"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="83"/>
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
@@ -4821,24 +4813,24 @@
       <c r="Y38" s="32"/>
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
-      <c r="AB38" s="138"/>
-      <c r="AC38" s="138"/>
-      <c r="AD38" s="138"/>
-      <c r="AE38" s="138"/>
-      <c r="AF38" s="138"/>
-      <c r="AG38" s="138"/>
-      <c r="AH38" s="138"/>
-      <c r="AI38" s="138"/>
-      <c r="AJ38" s="138"/>
-      <c r="AK38" s="138"/>
-      <c r="AL38" s="138"/>
-      <c r="AM38" s="138"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="136"/>
+      <c r="AH38" s="136"/>
+      <c r="AI38" s="136"/>
+      <c r="AJ38" s="136"/>
+      <c r="AK38" s="136"/>
+      <c r="AL38" s="136"/>
+      <c r="AM38" s="136"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="83"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
@@ -4862,24 +4854,24 @@
       <c r="Y39" s="32"/>
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
-      <c r="AB39" s="138"/>
-      <c r="AC39" s="138"/>
-      <c r="AD39" s="138"/>
-      <c r="AE39" s="138"/>
-      <c r="AF39" s="138"/>
-      <c r="AG39" s="138"/>
-      <c r="AH39" s="138"/>
-      <c r="AI39" s="138"/>
-      <c r="AJ39" s="138"/>
-      <c r="AK39" s="138"/>
-      <c r="AL39" s="138"/>
-      <c r="AM39" s="138"/>
+      <c r="AB39" s="136"/>
+      <c r="AC39" s="136"/>
+      <c r="AD39" s="136"/>
+      <c r="AE39" s="136"/>
+      <c r="AF39" s="136"/>
+      <c r="AG39" s="136"/>
+      <c r="AH39" s="136"/>
+      <c r="AI39" s="136"/>
+      <c r="AJ39" s="136"/>
+      <c r="AK39" s="136"/>
+      <c r="AL39" s="136"/>
+      <c r="AM39" s="136"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
@@ -4903,26 +4895,26 @@
       <c r="Y40" s="32"/>
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
-      <c r="AB40" s="138"/>
-      <c r="AC40" s="138"/>
-      <c r="AD40" s="138"/>
-      <c r="AE40" s="138"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="138"/>
-      <c r="AH40" s="138"/>
-      <c r="AI40" s="138"/>
-      <c r="AJ40" s="138"/>
-      <c r="AK40" s="138"/>
-      <c r="AL40" s="138"/>
-      <c r="AM40" s="138"/>
+      <c r="AB40" s="136"/>
+      <c r="AC40" s="136"/>
+      <c r="AD40" s="136"/>
+      <c r="AE40" s="136"/>
+      <c r="AF40" s="136"/>
+      <c r="AG40" s="136"/>
+      <c r="AH40" s="136"/>
+      <c r="AI40" s="136"/>
+      <c r="AJ40" s="136"/>
+      <c r="AK40" s="136"/>
+      <c r="AL40" s="136"/>
+      <c r="AM40" s="136"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="83"/>
       <c r="F41" s="83"/>
       <c r="G41" s="83"/>
@@ -4946,24 +4938,24 @@
       <c r="Y41" s="32"/>
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
-      <c r="AB41" s="138"/>
-      <c r="AC41" s="138"/>
-      <c r="AD41" s="138"/>
-      <c r="AE41" s="138"/>
-      <c r="AF41" s="138"/>
-      <c r="AG41" s="138"/>
-      <c r="AH41" s="138"/>
-      <c r="AI41" s="138"/>
-      <c r="AJ41" s="138"/>
-      <c r="AK41" s="138"/>
-      <c r="AL41" s="138"/>
-      <c r="AM41" s="138"/>
+      <c r="AB41" s="136"/>
+      <c r="AC41" s="136"/>
+      <c r="AD41" s="136"/>
+      <c r="AE41" s="136"/>
+      <c r="AF41" s="136"/>
+      <c r="AG41" s="136"/>
+      <c r="AH41" s="136"/>
+      <c r="AI41" s="136"/>
+      <c r="AJ41" s="136"/>
+      <c r="AK41" s="136"/>
+      <c r="AL41" s="136"/>
+      <c r="AM41" s="136"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
       <c r="E42" s="83"/>
       <c r="F42" s="83"/>
       <c r="G42" s="83"/>
@@ -4987,24 +4979,24 @@
       <c r="Y42" s="32"/>
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
-      <c r="AB42" s="138"/>
-      <c r="AC42" s="138"/>
-      <c r="AD42" s="138"/>
-      <c r="AE42" s="138"/>
-      <c r="AF42" s="138"/>
-      <c r="AG42" s="138"/>
-      <c r="AH42" s="138"/>
-      <c r="AI42" s="138"/>
-      <c r="AJ42" s="138"/>
-      <c r="AK42" s="138"/>
-      <c r="AL42" s="138"/>
-      <c r="AM42" s="138"/>
+      <c r="AB42" s="136"/>
+      <c r="AC42" s="136"/>
+      <c r="AD42" s="136"/>
+      <c r="AE42" s="136"/>
+      <c r="AF42" s="136"/>
+      <c r="AG42" s="136"/>
+      <c r="AH42" s="136"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="136"/>
+      <c r="AL42" s="136"/>
+      <c r="AM42" s="136"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
       <c r="E43" s="83"/>
       <c r="F43" s="83"/>
       <c r="G43" s="83"/>
@@ -5028,24 +5020,24 @@
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
-      <c r="AB43" s="138"/>
-      <c r="AC43" s="138"/>
-      <c r="AD43" s="138"/>
-      <c r="AE43" s="138"/>
-      <c r="AF43" s="138"/>
-      <c r="AG43" s="138"/>
-      <c r="AH43" s="138"/>
-      <c r="AI43" s="138"/>
-      <c r="AJ43" s="138"/>
-      <c r="AK43" s="138"/>
-      <c r="AL43" s="138"/>
-      <c r="AM43" s="138"/>
+      <c r="AB43" s="136"/>
+      <c r="AC43" s="136"/>
+      <c r="AD43" s="136"/>
+      <c r="AE43" s="136"/>
+      <c r="AF43" s="136"/>
+      <c r="AG43" s="136"/>
+      <c r="AH43" s="136"/>
+      <c r="AI43" s="136"/>
+      <c r="AJ43" s="136"/>
+      <c r="AK43" s="136"/>
+      <c r="AL43" s="136"/>
+      <c r="AM43" s="136"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
@@ -5069,24 +5061,24 @@
       <c r="Y44" s="32"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="32"/>
-      <c r="AB44" s="138"/>
-      <c r="AC44" s="138"/>
-      <c r="AD44" s="138"/>
-      <c r="AE44" s="138"/>
-      <c r="AF44" s="138"/>
-      <c r="AG44" s="138"/>
-      <c r="AH44" s="138"/>
-      <c r="AI44" s="138"/>
-      <c r="AJ44" s="138"/>
-      <c r="AK44" s="138"/>
-      <c r="AL44" s="138"/>
-      <c r="AM44" s="138"/>
+      <c r="AB44" s="136"/>
+      <c r="AC44" s="136"/>
+      <c r="AD44" s="136"/>
+      <c r="AE44" s="136"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="136"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="136"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="136"/>
+      <c r="AL44" s="136"/>
+      <c r="AM44" s="136"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
       <c r="E45" s="83"/>
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
@@ -5110,26 +5102,26 @@
       <c r="Y45" s="32"/>
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
-      <c r="AB45" s="138"/>
-      <c r="AC45" s="138"/>
-      <c r="AD45" s="138"/>
-      <c r="AE45" s="138"/>
-      <c r="AF45" s="138"/>
-      <c r="AG45" s="138"/>
-      <c r="AH45" s="138"/>
-      <c r="AI45" s="138"/>
-      <c r="AJ45" s="138"/>
-      <c r="AK45" s="138"/>
-      <c r="AL45" s="138"/>
-      <c r="AM45" s="138"/>
+      <c r="AB45" s="136"/>
+      <c r="AC45" s="136"/>
+      <c r="AD45" s="136"/>
+      <c r="AE45" s="136"/>
+      <c r="AF45" s="136"/>
+      <c r="AG45" s="136"/>
+      <c r="AH45" s="136"/>
+      <c r="AI45" s="136"/>
+      <c r="AJ45" s="136"/>
+      <c r="AK45" s="136"/>
+      <c r="AL45" s="136"/>
+      <c r="AM45" s="136"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="83"/>
       <c r="F46" s="83"/>
       <c r="G46" s="83"/>
@@ -5153,24 +5145,24 @@
       <c r="Y46" s="32"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="138"/>
-      <c r="AD46" s="138"/>
-      <c r="AE46" s="138"/>
-      <c r="AF46" s="138"/>
-      <c r="AG46" s="138"/>
-      <c r="AH46" s="138"/>
-      <c r="AI46" s="138"/>
-      <c r="AJ46" s="138"/>
-      <c r="AK46" s="138"/>
-      <c r="AL46" s="138"/>
-      <c r="AM46" s="138"/>
+      <c r="AB46" s="136"/>
+      <c r="AC46" s="136"/>
+      <c r="AD46" s="136"/>
+      <c r="AE46" s="136"/>
+      <c r="AF46" s="136"/>
+      <c r="AG46" s="136"/>
+      <c r="AH46" s="136"/>
+      <c r="AI46" s="136"/>
+      <c r="AJ46" s="136"/>
+      <c r="AK46" s="136"/>
+      <c r="AL46" s="136"/>
+      <c r="AM46" s="136"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
       <c r="E47" s="83"/>
       <c r="F47" s="83"/>
       <c r="G47" s="83"/>
@@ -5194,24 +5186,24 @@
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
       <c r="AA47" s="32"/>
-      <c r="AB47" s="138"/>
-      <c r="AC47" s="138"/>
-      <c r="AD47" s="138"/>
-      <c r="AE47" s="138"/>
-      <c r="AF47" s="138"/>
-      <c r="AG47" s="138"/>
-      <c r="AH47" s="138"/>
-      <c r="AI47" s="138"/>
-      <c r="AJ47" s="138"/>
-      <c r="AK47" s="138"/>
-      <c r="AL47" s="138"/>
-      <c r="AM47" s="138"/>
+      <c r="AB47" s="136"/>
+      <c r="AC47" s="136"/>
+      <c r="AD47" s="136"/>
+      <c r="AE47" s="136"/>
+      <c r="AF47" s="136"/>
+      <c r="AG47" s="136"/>
+      <c r="AH47" s="136"/>
+      <c r="AI47" s="136"/>
+      <c r="AJ47" s="136"/>
+      <c r="AK47" s="136"/>
+      <c r="AL47" s="136"/>
+      <c r="AM47" s="136"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="83"/>
       <c r="F48" s="83"/>
       <c r="G48" s="83"/>
@@ -5235,24 +5227,24 @@
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
-      <c r="AB48" s="138"/>
-      <c r="AC48" s="138"/>
-      <c r="AD48" s="138"/>
-      <c r="AE48" s="138"/>
-      <c r="AF48" s="138"/>
-      <c r="AG48" s="138"/>
-      <c r="AH48" s="138"/>
-      <c r="AI48" s="138"/>
-      <c r="AJ48" s="138"/>
-      <c r="AK48" s="138"/>
-      <c r="AL48" s="138"/>
-      <c r="AM48" s="138"/>
+      <c r="AB48" s="136"/>
+      <c r="AC48" s="136"/>
+      <c r="AD48" s="136"/>
+      <c r="AE48" s="136"/>
+      <c r="AF48" s="136"/>
+      <c r="AG48" s="136"/>
+      <c r="AH48" s="136"/>
+      <c r="AI48" s="136"/>
+      <c r="AJ48" s="136"/>
+      <c r="AK48" s="136"/>
+      <c r="AL48" s="136"/>
+      <c r="AM48" s="136"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
@@ -5276,24 +5268,24 @@
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
-      <c r="AB49" s="138"/>
-      <c r="AC49" s="138"/>
-      <c r="AD49" s="138"/>
-      <c r="AE49" s="138"/>
-      <c r="AF49" s="138"/>
-      <c r="AG49" s="138"/>
-      <c r="AH49" s="138"/>
-      <c r="AI49" s="138"/>
-      <c r="AJ49" s="138"/>
-      <c r="AK49" s="138"/>
-      <c r="AL49" s="138"/>
-      <c r="AM49" s="138"/>
+      <c r="AB49" s="136"/>
+      <c r="AC49" s="136"/>
+      <c r="AD49" s="136"/>
+      <c r="AE49" s="136"/>
+      <c r="AF49" s="136"/>
+      <c r="AG49" s="136"/>
+      <c r="AH49" s="136"/>
+      <c r="AI49" s="136"/>
+      <c r="AJ49" s="136"/>
+      <c r="AK49" s="136"/>
+      <c r="AL49" s="136"/>
+      <c r="AM49" s="136"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
       <c r="E50" s="83"/>
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
@@ -5317,24 +5309,24 @@
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
-      <c r="AB50" s="138"/>
-      <c r="AC50" s="138"/>
-      <c r="AD50" s="138"/>
-      <c r="AE50" s="138"/>
-      <c r="AF50" s="138"/>
-      <c r="AG50" s="138"/>
-      <c r="AH50" s="138"/>
-      <c r="AI50" s="138"/>
-      <c r="AJ50" s="138"/>
-      <c r="AK50" s="138"/>
-      <c r="AL50" s="138"/>
-      <c r="AM50" s="138"/>
+      <c r="AB50" s="136"/>
+      <c r="AC50" s="136"/>
+      <c r="AD50" s="136"/>
+      <c r="AE50" s="136"/>
+      <c r="AF50" s="136"/>
+      <c r="AG50" s="136"/>
+      <c r="AH50" s="136"/>
+      <c r="AI50" s="136"/>
+      <c r="AJ50" s="136"/>
+      <c r="AK50" s="136"/>
+      <c r="AL50" s="136"/>
+      <c r="AM50" s="136"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
       <c r="E51" s="83"/>
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
@@ -5358,24 +5350,24 @@
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
-      <c r="AB51" s="138"/>
-      <c r="AC51" s="138"/>
-      <c r="AD51" s="138"/>
-      <c r="AE51" s="138"/>
-      <c r="AF51" s="138"/>
-      <c r="AG51" s="138"/>
-      <c r="AH51" s="138"/>
-      <c r="AI51" s="138"/>
-      <c r="AJ51" s="138"/>
-      <c r="AK51" s="138"/>
-      <c r="AL51" s="138"/>
-      <c r="AM51" s="138"/>
+      <c r="AB51" s="136"/>
+      <c r="AC51" s="136"/>
+      <c r="AD51" s="136"/>
+      <c r="AE51" s="136"/>
+      <c r="AF51" s="136"/>
+      <c r="AG51" s="136"/>
+      <c r="AH51" s="136"/>
+      <c r="AI51" s="136"/>
+      <c r="AJ51" s="136"/>
+      <c r="AK51" s="136"/>
+      <c r="AL51" s="136"/>
+      <c r="AM51" s="136"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="83"/>
       <c r="F52" s="83"/>
       <c r="G52" s="83"/>
@@ -5399,18 +5391,18 @@
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
-      <c r="AB52" s="138"/>
-      <c r="AC52" s="138"/>
-      <c r="AD52" s="138"/>
-      <c r="AE52" s="138"/>
-      <c r="AF52" s="138"/>
-      <c r="AG52" s="138"/>
-      <c r="AH52" s="138"/>
-      <c r="AI52" s="138"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="138"/>
-      <c r="AL52" s="138"/>
-      <c r="AM52" s="138"/>
+      <c r="AB52" s="136"/>
+      <c r="AC52" s="136"/>
+      <c r="AD52" s="136"/>
+      <c r="AE52" s="136"/>
+      <c r="AF52" s="136"/>
+      <c r="AG52" s="136"/>
+      <c r="AH52" s="136"/>
+      <c r="AI52" s="136"/>
+      <c r="AJ52" s="136"/>
+      <c r="AK52" s="136"/>
+      <c r="AL52" s="136"/>
+      <c r="AM52" s="136"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
@@ -5748,7 +5740,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -7330,7 +7322,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -8978,7 +8970,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V41" activeCellId="0" sqref="V41"/>
     </sheetView>
   </sheetViews>
@@ -10693,7 +10685,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE20" activeCellId="0" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -12363,8 +12355,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14812,7 +14804,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W33" activeCellId="0" sqref="W33"/>
     </sheetView>
   </sheetViews>
@@ -17281,7 +17273,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
@@ -19699,8 +19691,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22187,8 +22179,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD31" activeCellId="0" sqref="BD31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS25" activeCellId="0" sqref="AS25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23015,27 +23007,27 @@
       <c r="R20" s="129"/>
       <c r="S20" s="129"/>
       <c r="T20" s="129"/>
-      <c r="U20" s="130" t="s">
+      <c r="U20" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="130"/>
-      <c r="AI20" s="130"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="130"/>
-      <c r="AL20" s="130"/>
-      <c r="AM20" s="130"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="128"/>
@@ -23056,25 +23048,25 @@
       <c r="R21" s="129"/>
       <c r="S21" s="129"/>
       <c r="T21" s="129"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-      <c r="Y21" s="130"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="130"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="130"/>
-      <c r="AL21" s="130"/>
-      <c r="AM21" s="130"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="128" t="n">
@@ -23099,27 +23091,27 @@
       <c r="R22" s="129"/>
       <c r="S22" s="129"/>
       <c r="T22" s="129"/>
-      <c r="U22" s="130" t="s">
+      <c r="U22" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="130"/>
-      <c r="Z22" s="130"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="130"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="130"/>
-      <c r="AH22" s="130"/>
-      <c r="AI22" s="130"/>
-      <c r="AJ22" s="130"/>
-      <c r="AK22" s="130"/>
-      <c r="AL22" s="130"/>
-      <c r="AM22" s="130"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="128"/>
@@ -23140,25 +23132,25 @@
       <c r="R23" s="129"/>
       <c r="S23" s="129"/>
       <c r="T23" s="129"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="130"/>
-      <c r="AJ23" s="130"/>
-      <c r="AK23" s="130"/>
-      <c r="AL23" s="130"/>
-      <c r="AM23" s="130"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="128" t="n">
@@ -23183,27 +23175,27 @@
       <c r="R24" s="129"/>
       <c r="S24" s="129"/>
       <c r="T24" s="129"/>
-      <c r="U24" s="130" t="s">
+      <c r="U24" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="130"/>
-      <c r="AJ24" s="130"/>
-      <c r="AK24" s="130"/>
-      <c r="AL24" s="130"/>
-      <c r="AM24" s="130"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="128"/>
@@ -23224,25 +23216,25 @@
       <c r="R25" s="129"/>
       <c r="S25" s="129"/>
       <c r="T25" s="129"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="130"/>
-      <c r="AI25" s="130"/>
-      <c r="AJ25" s="130"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="130"/>
-      <c r="AM25" s="130"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="128" t="n">
@@ -23267,27 +23259,27 @@
       <c r="R26" s="129"/>
       <c r="S26" s="129"/>
       <c r="T26" s="129"/>
-      <c r="U26" s="130" t="s">
+      <c r="U26" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="130"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="130"/>
-      <c r="AL26" s="130"/>
-      <c r="AM26" s="130"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="99"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="128"/>
@@ -23308,25 +23300,25 @@
       <c r="R27" s="129"/>
       <c r="S27" s="129"/>
       <c r="T27" s="129"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="130"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="130"/>
-      <c r="AL27" s="130"/>
-      <c r="AM27" s="130"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="99"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="128" t="n">
@@ -23351,27 +23343,27 @@
       <c r="R28" s="129"/>
       <c r="S28" s="129"/>
       <c r="T28" s="129"/>
-      <c r="U28" s="130" t="s">
+      <c r="U28" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="130"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="130"/>
-      <c r="AL28" s="130"/>
-      <c r="AM28" s="130"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="99"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
@@ -23396,25 +23388,25 @@
       <c r="R29" s="129"/>
       <c r="S29" s="129"/>
       <c r="T29" s="129"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
+      <c r="AK29" s="99"/>
+      <c r="AL29" s="99"/>
+      <c r="AM29" s="99"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
@@ -23441,27 +23433,27 @@
       <c r="R30" s="129"/>
       <c r="S30" s="129"/>
       <c r="T30" s="129"/>
-      <c r="U30" s="130" t="s">
+      <c r="U30" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="99"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
@@ -23484,25 +23476,25 @@
       <c r="R31" s="129"/>
       <c r="S31" s="129"/>
       <c r="T31" s="129"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="130"/>
-      <c r="AJ31" s="130"/>
-      <c r="AK31" s="130"/>
-      <c r="AL31" s="130"/>
-      <c r="AM31" s="130"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="99"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="99"/>
+      <c r="AJ31" s="99"/>
+      <c r="AK31" s="99"/>
+      <c r="AL31" s="99"/>
+      <c r="AM31" s="99"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
@@ -23529,27 +23521,27 @@
       <c r="R32" s="129"/>
       <c r="S32" s="129"/>
       <c r="T32" s="129"/>
-      <c r="U32" s="130" t="s">
+      <c r="U32" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
-      <c r="AI32" s="130"/>
-      <c r="AJ32" s="130"/>
-      <c r="AK32" s="130"/>
-      <c r="AL32" s="130"/>
-      <c r="AM32" s="130"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
@@ -23572,25 +23564,25 @@
       <c r="R33" s="129"/>
       <c r="S33" s="129"/>
       <c r="T33" s="129"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="130"/>
-      <c r="AH33" s="130"/>
-      <c r="AI33" s="130"/>
-      <c r="AJ33" s="130"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="130"/>
-      <c r="AM33" s="130"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="99"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="99"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
@@ -23617,27 +23609,27 @@
       <c r="R34" s="129"/>
       <c r="S34" s="129"/>
       <c r="T34" s="129"/>
-      <c r="U34" s="130" t="s">
+      <c r="U34" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="130"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="130"/>
-      <c r="AF34" s="130"/>
-      <c r="AG34" s="130"/>
-      <c r="AH34" s="130"/>
-      <c r="AI34" s="130"/>
-      <c r="AJ34" s="130"/>
-      <c r="AK34" s="130"/>
-      <c r="AL34" s="130"/>
-      <c r="AM34" s="130"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
@@ -23660,25 +23652,25 @@
       <c r="R35" s="129"/>
       <c r="S35" s="129"/>
       <c r="T35" s="129"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="130"/>
-      <c r="AC35" s="130"/>
-      <c r="AD35" s="130"/>
-      <c r="AE35" s="130"/>
-      <c r="AF35" s="130"/>
-      <c r="AG35" s="130"/>
-      <c r="AH35" s="130"/>
-      <c r="AI35" s="130"/>
-      <c r="AJ35" s="130"/>
-      <c r="AK35" s="130"/>
-      <c r="AL35" s="130"/>
-      <c r="AM35" s="130"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="99"/>
+      <c r="AM35" s="99"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
@@ -23707,27 +23699,27 @@
       <c r="R36" s="129"/>
       <c r="S36" s="129"/>
       <c r="T36" s="129"/>
-      <c r="U36" s="130" t="s">
+      <c r="U36" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="130"/>
-      <c r="AC36" s="130"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="130"/>
-      <c r="AF36" s="130"/>
-      <c r="AG36" s="130"/>
-      <c r="AH36" s="130"/>
-      <c r="AI36" s="130"/>
-      <c r="AJ36" s="130"/>
-      <c r="AK36" s="130"/>
-      <c r="AL36" s="130"/>
-      <c r="AM36" s="130"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="99"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="99"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="99"/>
+      <c r="AI36" s="99"/>
+      <c r="AJ36" s="99"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="99"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
@@ -23750,25 +23742,25 @@
       <c r="R37" s="129"/>
       <c r="S37" s="129"/>
       <c r="T37" s="129"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="130"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="130"/>
-      <c r="AF37" s="130"/>
-      <c r="AG37" s="130"/>
-      <c r="AH37" s="130"/>
-      <c r="AI37" s="130"/>
-      <c r="AJ37" s="130"/>
-      <c r="AK37" s="130"/>
-      <c r="AL37" s="130"/>
-      <c r="AM37" s="130"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="99"/>
+      <c r="AH37" s="99"/>
+      <c r="AI37" s="99"/>
+      <c r="AJ37" s="99"/>
+      <c r="AK37" s="99"/>
+      <c r="AL37" s="99"/>
+      <c r="AM37" s="99"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
@@ -23795,27 +23787,27 @@
       <c r="R38" s="129"/>
       <c r="S38" s="129"/>
       <c r="T38" s="129"/>
-      <c r="U38" s="130" t="s">
+      <c r="U38" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="V38" s="130"/>
-      <c r="W38" s="130"/>
-      <c r="X38" s="130"/>
-      <c r="Y38" s="130"/>
-      <c r="Z38" s="130"/>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="130"/>
-      <c r="AE38" s="130"/>
-      <c r="AF38" s="130"/>
-      <c r="AG38" s="130"/>
-      <c r="AH38" s="130"/>
-      <c r="AI38" s="130"/>
-      <c r="AJ38" s="130"/>
-      <c r="AK38" s="130"/>
-      <c r="AL38" s="130"/>
-      <c r="AM38" s="130"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="99"/>
+      <c r="X38" s="99"/>
+      <c r="Y38" s="99"/>
+      <c r="Z38" s="99"/>
+      <c r="AA38" s="99"/>
+      <c r="AB38" s="99"/>
+      <c r="AC38" s="99"/>
+      <c r="AD38" s="99"/>
+      <c r="AE38" s="99"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="99"/>
+      <c r="AH38" s="99"/>
+      <c r="AI38" s="99"/>
+      <c r="AJ38" s="99"/>
+      <c r="AK38" s="99"/>
+      <c r="AL38" s="99"/>
+      <c r="AM38" s="99"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
@@ -23838,25 +23830,25 @@
       <c r="R39" s="129"/>
       <c r="S39" s="129"/>
       <c r="T39" s="129"/>
-      <c r="U39" s="130"/>
-      <c r="V39" s="130"/>
-      <c r="W39" s="130"/>
-      <c r="X39" s="130"/>
-      <c r="Y39" s="130"/>
-      <c r="Z39" s="130"/>
-      <c r="AA39" s="130"/>
-      <c r="AB39" s="130"/>
-      <c r="AC39" s="130"/>
-      <c r="AD39" s="130"/>
-      <c r="AE39" s="130"/>
-      <c r="AF39" s="130"/>
-      <c r="AG39" s="130"/>
-      <c r="AH39" s="130"/>
-      <c r="AI39" s="130"/>
-      <c r="AJ39" s="130"/>
-      <c r="AK39" s="130"/>
-      <c r="AL39" s="130"/>
-      <c r="AM39" s="130"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
+      <c r="W39" s="99"/>
+      <c r="X39" s="99"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="99"/>
+      <c r="AA39" s="99"/>
+      <c r="AB39" s="99"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="99"/>
+      <c r="AE39" s="99"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="99"/>
+      <c r="AH39" s="99"/>
+      <c r="AI39" s="99"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="99"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="99"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
@@ -23883,27 +23875,27 @@
       <c r="R40" s="129"/>
       <c r="S40" s="129"/>
       <c r="T40" s="129"/>
-      <c r="U40" s="130" t="s">
+      <c r="U40" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="130"/>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
-      <c r="AE40" s="130"/>
-      <c r="AF40" s="130"/>
-      <c r="AG40" s="130"/>
-      <c r="AH40" s="130"/>
-      <c r="AI40" s="130"/>
-      <c r="AJ40" s="130"/>
-      <c r="AK40" s="130"/>
-      <c r="AL40" s="130"/>
-      <c r="AM40" s="130"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="99"/>
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
+      <c r="AI40" s="99"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="99"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
@@ -23928,25 +23920,25 @@
       <c r="R41" s="129"/>
       <c r="S41" s="129"/>
       <c r="T41" s="129"/>
-      <c r="U41" s="130"/>
-      <c r="V41" s="130"/>
-      <c r="W41" s="130"/>
-      <c r="X41" s="130"/>
-      <c r="Y41" s="130"/>
-      <c r="Z41" s="130"/>
-      <c r="AA41" s="130"/>
-      <c r="AB41" s="130"/>
-      <c r="AC41" s="130"/>
-      <c r="AD41" s="130"/>
-      <c r="AE41" s="130"/>
-      <c r="AF41" s="130"/>
-      <c r="AG41" s="130"/>
-      <c r="AH41" s="130"/>
-      <c r="AI41" s="130"/>
-      <c r="AJ41" s="130"/>
-      <c r="AK41" s="130"/>
-      <c r="AL41" s="130"/>
-      <c r="AM41" s="130"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="99"/>
+      <c r="X41" s="99"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="99"/>
+      <c r="AB41" s="99"/>
+      <c r="AC41" s="99"/>
+      <c r="AD41" s="99"/>
+      <c r="AE41" s="99"/>
+      <c r="AF41" s="99"/>
+      <c r="AG41" s="99"/>
+      <c r="AH41" s="99"/>
+      <c r="AI41" s="99"/>
+      <c r="AJ41" s="99"/>
+      <c r="AK41" s="99"/>
+      <c r="AL41" s="99"/>
+      <c r="AM41" s="99"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
@@ -23973,19 +23965,19 @@
       <c r="R42" s="129"/>
       <c r="S42" s="129"/>
       <c r="T42" s="129"/>
-      <c r="U42" s="130" t="s">
+      <c r="U42" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="V42" s="130"/>
-      <c r="W42" s="130"/>
-      <c r="X42" s="130"/>
-      <c r="Y42" s="130"/>
-      <c r="Z42" s="130"/>
-      <c r="AA42" s="130"/>
-      <c r="AB42" s="130"/>
-      <c r="AC42" s="130"/>
-      <c r="AD42" s="130"/>
-      <c r="AE42" s="130"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="99"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="99"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="99"/>
+      <c r="AC42" s="99"/>
+      <c r="AD42" s="99"/>
+      <c r="AE42" s="99"/>
       <c r="AF42" s="128" t="s">
         <v>148</v>
       </c>
@@ -24018,17 +24010,17 @@
       <c r="R43" s="129"/>
       <c r="S43" s="129"/>
       <c r="T43" s="129"/>
-      <c r="U43" s="130"/>
-      <c r="V43" s="130"/>
-      <c r="W43" s="130"/>
-      <c r="X43" s="130"/>
-      <c r="Y43" s="130"/>
-      <c r="Z43" s="130"/>
-      <c r="AA43" s="130"/>
-      <c r="AB43" s="130"/>
-      <c r="AC43" s="130"/>
-      <c r="AD43" s="130"/>
-      <c r="AE43" s="130"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="99"/>
+      <c r="AE43" s="99"/>
       <c r="AF43" s="128"/>
       <c r="AG43" s="128"/>
       <c r="AH43" s="128"/>
@@ -24063,19 +24055,19 @@
       <c r="R44" s="129"/>
       <c r="S44" s="129"/>
       <c r="T44" s="129"/>
-      <c r="U44" s="130" t="s">
+      <c r="U44" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="V44" s="130"/>
-      <c r="W44" s="130"/>
-      <c r="X44" s="130"/>
-      <c r="Y44" s="130"/>
-      <c r="Z44" s="130"/>
-      <c r="AA44" s="130"/>
-      <c r="AB44" s="130"/>
-      <c r="AC44" s="130"/>
-      <c r="AD44" s="130"/>
-      <c r="AE44" s="130"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="99"/>
+      <c r="AA44" s="99"/>
+      <c r="AB44" s="99"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="99"/>
+      <c r="AE44" s="99"/>
       <c r="AF44" s="128" t="s">
         <v>150</v>
       </c>
@@ -24108,17 +24100,17 @@
       <c r="R45" s="129"/>
       <c r="S45" s="129"/>
       <c r="T45" s="129"/>
-      <c r="U45" s="130"/>
-      <c r="V45" s="130"/>
-      <c r="W45" s="130"/>
-      <c r="X45" s="130"/>
-      <c r="Y45" s="130"/>
-      <c r="Z45" s="130"/>
-      <c r="AA45" s="130"/>
-      <c r="AB45" s="130"/>
-      <c r="AC45" s="130"/>
-      <c r="AD45" s="130"/>
-      <c r="AE45" s="130"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
       <c r="AF45" s="128"/>
       <c r="AG45" s="128"/>
       <c r="AH45" s="128"/>
@@ -24155,19 +24147,19 @@
       <c r="R46" s="129"/>
       <c r="S46" s="129"/>
       <c r="T46" s="129"/>
-      <c r="U46" s="130" t="s">
+      <c r="U46" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="V46" s="130"/>
-      <c r="W46" s="130"/>
-      <c r="X46" s="130"/>
-      <c r="Y46" s="130"/>
-      <c r="Z46" s="130"/>
-      <c r="AA46" s="130"/>
-      <c r="AB46" s="130"/>
-      <c r="AC46" s="130"/>
-      <c r="AD46" s="130"/>
-      <c r="AE46" s="130"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="99"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="99"/>
+      <c r="AA46" s="99"/>
+      <c r="AB46" s="99"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="99"/>
+      <c r="AE46" s="99"/>
       <c r="AF46" s="128" t="s">
         <v>152</v>
       </c>
@@ -24200,17 +24192,17 @@
       <c r="R47" s="129"/>
       <c r="S47" s="129"/>
       <c r="T47" s="129"/>
-      <c r="U47" s="130"/>
-      <c r="V47" s="130"/>
-      <c r="W47" s="130"/>
-      <c r="X47" s="130"/>
-      <c r="Y47" s="130"/>
-      <c r="Z47" s="130"/>
-      <c r="AA47" s="130"/>
-      <c r="AB47" s="130"/>
-      <c r="AC47" s="130"/>
-      <c r="AD47" s="130"/>
-      <c r="AE47" s="130"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="99"/>
       <c r="AF47" s="128"/>
       <c r="AG47" s="128"/>
       <c r="AH47" s="128"/>
@@ -24245,19 +24237,19 @@
       <c r="R48" s="129"/>
       <c r="S48" s="129"/>
       <c r="T48" s="129"/>
-      <c r="U48" s="131" t="s">
+      <c r="U48" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="V48" s="131"/>
-      <c r="W48" s="131"/>
-      <c r="X48" s="131"/>
-      <c r="Y48" s="131"/>
-      <c r="Z48" s="131"/>
-      <c r="AA48" s="131"/>
-      <c r="AB48" s="131"/>
-      <c r="AC48" s="131"/>
-      <c r="AD48" s="131"/>
-      <c r="AE48" s="131"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="X48" s="95"/>
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="95"/>
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="95"/>
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="95"/>
+      <c r="AE48" s="95"/>
       <c r="AF48" s="128" t="s">
         <v>154</v>
       </c>
@@ -24290,17 +24282,17 @@
       <c r="R49" s="129"/>
       <c r="S49" s="129"/>
       <c r="T49" s="129"/>
-      <c r="U49" s="131"/>
-      <c r="V49" s="131"/>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="131"/>
-      <c r="AB49" s="131"/>
-      <c r="AC49" s="131"/>
-      <c r="AD49" s="131"/>
-      <c r="AE49" s="131"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="95"/>
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="95"/>
+      <c r="AE49" s="95"/>
       <c r="AF49" s="128"/>
       <c r="AG49" s="128"/>
       <c r="AH49" s="128"/>
@@ -24331,17 +24323,17 @@
       <c r="R50" s="129"/>
       <c r="S50" s="129"/>
       <c r="T50" s="129"/>
-      <c r="U50" s="131"/>
-      <c r="V50" s="131"/>
-      <c r="W50" s="131"/>
-      <c r="X50" s="131"/>
-      <c r="Y50" s="131"/>
-      <c r="Z50" s="131"/>
-      <c r="AA50" s="131"/>
-      <c r="AB50" s="131"/>
-      <c r="AC50" s="131"/>
-      <c r="AD50" s="131"/>
-      <c r="AE50" s="131"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="95"/>
       <c r="AF50" s="128"/>
       <c r="AG50" s="128"/>
       <c r="AH50" s="128"/>
@@ -24376,19 +24368,19 @@
       <c r="R51" s="129"/>
       <c r="S51" s="129"/>
       <c r="T51" s="129"/>
-      <c r="U51" s="130" t="s">
+      <c r="U51" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="V51" s="130"/>
-      <c r="W51" s="130"/>
-      <c r="X51" s="130"/>
-      <c r="Y51" s="130"/>
-      <c r="Z51" s="130"/>
-      <c r="AA51" s="130"/>
-      <c r="AB51" s="130"/>
-      <c r="AC51" s="130"/>
-      <c r="AD51" s="130"/>
-      <c r="AE51" s="130"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="99"/>
+      <c r="AA51" s="99"/>
+      <c r="AB51" s="99"/>
+      <c r="AC51" s="99"/>
+      <c r="AD51" s="99"/>
+      <c r="AE51" s="99"/>
       <c r="AF51" s="128" t="s">
         <v>156</v>
       </c>
@@ -24421,17 +24413,17 @@
       <c r="R52" s="129"/>
       <c r="S52" s="129"/>
       <c r="T52" s="129"/>
-      <c r="U52" s="130"/>
-      <c r="V52" s="130"/>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="130"/>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="130"/>
-      <c r="AE52" s="130"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
+      <c r="X52" s="99"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="99"/>
+      <c r="AA52" s="99"/>
+      <c r="AB52" s="99"/>
+      <c r="AC52" s="99"/>
+      <c r="AD52" s="99"/>
+      <c r="AE52" s="99"/>
       <c r="AF52" s="128"/>
       <c r="AG52" s="128"/>
       <c r="AH52" s="128"/>
@@ -24446,40 +24438,40 @@
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="132"/>
+      <c r="C53" s="130"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
-      <c r="O53" s="133"/>
-      <c r="P53" s="133"/>
-      <c r="Q53" s="133"/>
-      <c r="R53" s="133"/>
-      <c r="S53" s="133"/>
-      <c r="T53" s="133"/>
-      <c r="U53" s="133"/>
-      <c r="V53" s="133"/>
-      <c r="W53" s="133"/>
-      <c r="X53" s="133"/>
-      <c r="Y53" s="133"/>
-      <c r="Z53" s="133"/>
-      <c r="AA53" s="133"/>
-      <c r="AB53" s="133"/>
-      <c r="AC53" s="133"/>
-      <c r="AD53" s="133"/>
-      <c r="AE53" s="133"/>
-      <c r="AF53" s="133"/>
-      <c r="AG53" s="133"/>
-      <c r="AH53" s="133"/>
-      <c r="AI53" s="133"/>
-      <c r="AJ53" s="133"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="131"/>
+      <c r="Q53" s="131"/>
+      <c r="R53" s="131"/>
+      <c r="S53" s="131"/>
+      <c r="T53" s="131"/>
+      <c r="U53" s="131"/>
+      <c r="V53" s="131"/>
+      <c r="W53" s="131"/>
+      <c r="X53" s="131"/>
+      <c r="Y53" s="131"/>
+      <c r="Z53" s="131"/>
+      <c r="AA53" s="131"/>
+      <c r="AB53" s="131"/>
+      <c r="AC53" s="131"/>
+      <c r="AD53" s="131"/>
+      <c r="AE53" s="131"/>
+      <c r="AF53" s="131"/>
+      <c r="AG53" s="131"/>
+      <c r="AH53" s="131"/>
+      <c r="AI53" s="131"/>
+      <c r="AJ53" s="131"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="41"/>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -528,9 +528,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -772,7 +773,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1218,11 +1219,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1293,6 +1294,14 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1305,15 +1314,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1404,9 +1413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>58320</xdr:colOff>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1420,7 +1429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1214640" cy="551880"/>
+          <a:ext cx="1214280" cy="551520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,9 +1455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,7 +1471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1214640" cy="551880"/>
+          <a:ext cx="1214280" cy="551520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,9 +1497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1504,7 +1513,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="626760" cy="282960"/>
+          <a:ext cx="626400" cy="282600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,7 +1641,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -3282,7 +3291,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3494,122 +3503,122 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="132"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="132"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="132"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="134"/>
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="134"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="134"/>
+      <c r="AK7" s="134"/>
+      <c r="AL7" s="134"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3699,137 +3708,137 @@
       <c r="AM10" s="127"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="133" t="str">
+      <c r="C11" s="135" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134" t="str">
+      <c r="D11" s="135"/>
+      <c r="E11" s="136" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134" t="str">
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="135" t="str">
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="137" t="str">
         <f aca="false">IF(E13&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="135"/>
-      <c r="AK11" s="135"/>
-      <c r="AL11" s="135"/>
-      <c r="AM11" s="135"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="137"/>
+      <c r="AJ11" s="137"/>
+      <c r="AK11" s="137"/>
+      <c r="AL11" s="137"/>
+      <c r="AM11" s="137"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="135"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="135"/>
-      <c r="AK12" s="135"/>
-      <c r="AL12" s="135"/>
-      <c r="AM12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="137"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="135"/>
-      <c r="AJ13" s="135"/>
-      <c r="AK13" s="135"/>
-      <c r="AL13" s="135"/>
-      <c r="AM13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
       <c r="G14" s="83"/>
@@ -3853,22 +3862,22 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="136"/>
-      <c r="AM14" s="136"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="138"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="138"/>
+      <c r="AJ14" s="138"/>
+      <c r="AK14" s="138"/>
+      <c r="AL14" s="138"/>
+      <c r="AM14" s="138"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
@@ -3892,22 +3901,22 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="136"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="136"/>
-      <c r="AM15" s="136"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="138"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="138"/>
+      <c r="AI15" s="138"/>
+      <c r="AJ15" s="138"/>
+      <c r="AK15" s="138"/>
+      <c r="AL15" s="138"/>
+      <c r="AM15" s="138"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
@@ -3931,22 +3940,22 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="136"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="136"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="138"/>
+      <c r="AJ16" s="138"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="138"/>
+      <c r="AM16" s="138"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
@@ -3970,22 +3979,22 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="32"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="136"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="136"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="136"/>
-      <c r="AJ17" s="136"/>
-      <c r="AK17" s="136"/>
-      <c r="AL17" s="136"/>
-      <c r="AM17" s="136"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="138"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="138"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="138"/>
+      <c r="AL17" s="138"/>
+      <c r="AM17" s="138"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="83"/>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
@@ -4009,22 +4018,22 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="136"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="136"/>
-      <c r="AJ18" s="136"/>
-      <c r="AK18" s="136"/>
-      <c r="AL18" s="136"/>
-      <c r="AM18" s="136"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="138"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138"/>
+      <c r="AL18" s="138"/>
+      <c r="AM18" s="138"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
@@ -4048,22 +4057,22 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="136"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="136"/>
-      <c r="AJ19" s="136"/>
-      <c r="AK19" s="136"/>
-      <c r="AL19" s="136"/>
-      <c r="AM19" s="136"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="138"/>
+      <c r="AJ19" s="138"/>
+      <c r="AK19" s="138"/>
+      <c r="AL19" s="138"/>
+      <c r="AM19" s="138"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="83"/>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
@@ -4087,22 +4096,22 @@
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="136"/>
-      <c r="AD20" s="136"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="136"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="136"/>
-      <c r="AJ20" s="136"/>
-      <c r="AK20" s="136"/>
-      <c r="AL20" s="136"/>
-      <c r="AM20" s="136"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="138"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="138"/>
+      <c r="AJ20" s="138"/>
+      <c r="AK20" s="138"/>
+      <c r="AL20" s="138"/>
+      <c r="AM20" s="138"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
       <c r="E21" s="83"/>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
@@ -4126,22 +4135,22 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="136"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="136"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="136"/>
-      <c r="AL21" s="136"/>
-      <c r="AM21" s="136"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="138"/>
+      <c r="AK21" s="138"/>
+      <c r="AL21" s="138"/>
+      <c r="AM21" s="138"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="83"/>
       <c r="F22" s="83"/>
       <c r="G22" s="83"/>
@@ -4165,22 +4174,22 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="136"/>
-      <c r="AD22" s="136"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="136"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="136"/>
-      <c r="AJ22" s="136"/>
-      <c r="AK22" s="136"/>
-      <c r="AL22" s="136"/>
-      <c r="AM22" s="136"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="138"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="138"/>
+      <c r="AJ22" s="138"/>
+      <c r="AK22" s="138"/>
+      <c r="AL22" s="138"/>
+      <c r="AM22" s="138"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="83"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
@@ -4204,22 +4213,22 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="138"/>
+      <c r="AK23" s="138"/>
+      <c r="AL23" s="138"/>
+      <c r="AM23" s="138"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="83"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
@@ -4243,22 +4252,22 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="136"/>
-      <c r="AD24" s="136"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="136"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="136"/>
-      <c r="AJ24" s="136"/>
-      <c r="AK24" s="136"/>
-      <c r="AL24" s="136"/>
-      <c r="AM24" s="136"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="138"/>
+      <c r="AJ24" s="138"/>
+      <c r="AK24" s="138"/>
+      <c r="AL24" s="138"/>
+      <c r="AM24" s="138"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="83"/>
       <c r="F25" s="83"/>
       <c r="G25" s="83"/>
@@ -4282,22 +4291,22 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="136"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="136"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="136"/>
-      <c r="AJ25" s="136"/>
-      <c r="AK25" s="136"/>
-      <c r="AL25" s="136"/>
-      <c r="AM25" s="136"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="138"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="138"/>
+      <c r="AJ25" s="138"/>
+      <c r="AK25" s="138"/>
+      <c r="AL25" s="138"/>
+      <c r="AM25" s="138"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
@@ -4321,22 +4330,22 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="136"/>
-      <c r="AD26" s="136"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="136"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="136"/>
-      <c r="AJ26" s="136"/>
-      <c r="AK26" s="136"/>
-      <c r="AL26" s="136"/>
-      <c r="AM26" s="136"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="138"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="138"/>
+      <c r="AJ26" s="138"/>
+      <c r="AK26" s="138"/>
+      <c r="AL26" s="138"/>
+      <c r="AM26" s="138"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="83"/>
       <c r="F27" s="83"/>
       <c r="G27" s="83"/>
@@ -4360,22 +4369,22 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
-      <c r="AB27" s="136"/>
-      <c r="AC27" s="136"/>
-      <c r="AD27" s="136"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="136"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="136"/>
-      <c r="AJ27" s="136"/>
-      <c r="AK27" s="136"/>
-      <c r="AL27" s="136"/>
-      <c r="AM27" s="136"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="138"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="138"/>
+      <c r="AJ27" s="138"/>
+      <c r="AK27" s="138"/>
+      <c r="AL27" s="138"/>
+      <c r="AM27" s="138"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="83"/>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
@@ -4399,26 +4408,26 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="136"/>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="136"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="136"/>
-      <c r="AJ28" s="136"/>
-      <c r="AK28" s="136"/>
-      <c r="AL28" s="136"/>
-      <c r="AM28" s="136"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
       <c r="G29" s="83"/>
@@ -4442,24 +4451,24 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="136"/>
-      <c r="AJ29" s="136"/>
-      <c r="AK29" s="136"/>
-      <c r="AL29" s="136"/>
-      <c r="AM29" s="136"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="138"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="138"/>
+      <c r="AJ29" s="138"/>
+      <c r="AK29" s="138"/>
+      <c r="AL29" s="138"/>
+      <c r="AM29" s="138"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="83"/>
@@ -4483,24 +4492,24 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="136"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="136"/>
-      <c r="AK30" s="136"/>
-      <c r="AL30" s="136"/>
-      <c r="AM30" s="136"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="138"/>
+      <c r="AG30" s="138"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="138"/>
+      <c r="AJ30" s="138"/>
+      <c r="AK30" s="138"/>
+      <c r="AL30" s="138"/>
+      <c r="AM30" s="138"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="83"/>
       <c r="F31" s="83"/>
       <c r="G31" s="83"/>
@@ -4524,24 +4533,24 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="136"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="136"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="136"/>
-      <c r="AJ31" s="136"/>
-      <c r="AK31" s="136"/>
-      <c r="AL31" s="136"/>
-      <c r="AM31" s="136"/>
+      <c r="AB31" s="138"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="138"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="138"/>
+      <c r="AG31" s="138"/>
+      <c r="AH31" s="138"/>
+      <c r="AI31" s="138"/>
+      <c r="AJ31" s="138"/>
+      <c r="AK31" s="138"/>
+      <c r="AL31" s="138"/>
+      <c r="AM31" s="138"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="83"/>
       <c r="F32" s="83"/>
       <c r="G32" s="83"/>
@@ -4565,24 +4574,24 @@
       <c r="Y32" s="32"/>
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="136"/>
-      <c r="AD32" s="136"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="136"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="136"/>
-      <c r="AJ32" s="136"/>
-      <c r="AK32" s="136"/>
-      <c r="AL32" s="136"/>
-      <c r="AM32" s="136"/>
+      <c r="AB32" s="138"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="138"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
+      <c r="AI32" s="138"/>
+      <c r="AJ32" s="138"/>
+      <c r="AK32" s="138"/>
+      <c r="AL32" s="138"/>
+      <c r="AM32" s="138"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="83"/>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
@@ -4606,24 +4615,24 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="136"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="136"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="136"/>
-      <c r="AJ33" s="136"/>
-      <c r="AK33" s="136"/>
-      <c r="AL33" s="136"/>
-      <c r="AM33" s="136"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="138"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="138"/>
+      <c r="AJ33" s="138"/>
+      <c r="AK33" s="138"/>
+      <c r="AL33" s="138"/>
+      <c r="AM33" s="138"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="83"/>
       <c r="F34" s="83"/>
       <c r="G34" s="83"/>
@@ -4647,24 +4656,24 @@
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="136"/>
-      <c r="AD34" s="136"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="136"/>
-      <c r="AG34" s="136"/>
-      <c r="AH34" s="136"/>
-      <c r="AI34" s="136"/>
-      <c r="AJ34" s="136"/>
-      <c r="AK34" s="136"/>
-      <c r="AL34" s="136"/>
-      <c r="AM34" s="136"/>
+      <c r="AB34" s="138"/>
+      <c r="AC34" s="138"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="138"/>
+      <c r="AF34" s="138"/>
+      <c r="AG34" s="138"/>
+      <c r="AH34" s="138"/>
+      <c r="AI34" s="138"/>
+      <c r="AJ34" s="138"/>
+      <c r="AK34" s="138"/>
+      <c r="AL34" s="138"/>
+      <c r="AM34" s="138"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="83"/>
       <c r="F35" s="83"/>
       <c r="G35" s="83"/>
@@ -4688,26 +4697,26 @@
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
-      <c r="AB35" s="136"/>
-      <c r="AC35" s="136"/>
-      <c r="AD35" s="136"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="136"/>
-      <c r="AG35" s="136"/>
-      <c r="AH35" s="136"/>
-      <c r="AI35" s="136"/>
-      <c r="AJ35" s="136"/>
-      <c r="AK35" s="136"/>
-      <c r="AL35" s="136"/>
-      <c r="AM35" s="136"/>
+      <c r="AB35" s="138"/>
+      <c r="AC35" s="138"/>
+      <c r="AD35" s="138"/>
+      <c r="AE35" s="138"/>
+      <c r="AF35" s="138"/>
+      <c r="AG35" s="138"/>
+      <c r="AH35" s="138"/>
+      <c r="AI35" s="138"/>
+      <c r="AJ35" s="138"/>
+      <c r="AK35" s="138"/>
+      <c r="AL35" s="138"/>
+      <c r="AM35" s="138"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
@@ -4731,24 +4740,24 @@
       <c r="Y36" s="32"/>
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
-      <c r="AB36" s="136"/>
-      <c r="AC36" s="136"/>
-      <c r="AD36" s="136"/>
-      <c r="AE36" s="136"/>
-      <c r="AF36" s="136"/>
-      <c r="AG36" s="136"/>
-      <c r="AH36" s="136"/>
-      <c r="AI36" s="136"/>
-      <c r="AJ36" s="136"/>
-      <c r="AK36" s="136"/>
-      <c r="AL36" s="136"/>
-      <c r="AM36" s="136"/>
+      <c r="AB36" s="138"/>
+      <c r="AC36" s="138"/>
+      <c r="AD36" s="138"/>
+      <c r="AE36" s="138"/>
+      <c r="AF36" s="138"/>
+      <c r="AG36" s="138"/>
+      <c r="AH36" s="138"/>
+      <c r="AI36" s="138"/>
+      <c r="AJ36" s="138"/>
+      <c r="AK36" s="138"/>
+      <c r="AL36" s="138"/>
+      <c r="AM36" s="138"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
       <c r="G37" s="83"/>
@@ -4772,24 +4781,24 @@
       <c r="Y37" s="32"/>
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="136"/>
-      <c r="AC37" s="136"/>
-      <c r="AD37" s="136"/>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="136"/>
-      <c r="AG37" s="136"/>
-      <c r="AH37" s="136"/>
-      <c r="AI37" s="136"/>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="136"/>
-      <c r="AL37" s="136"/>
-      <c r="AM37" s="136"/>
+      <c r="AB37" s="138"/>
+      <c r="AC37" s="138"/>
+      <c r="AD37" s="138"/>
+      <c r="AE37" s="138"/>
+      <c r="AF37" s="138"/>
+      <c r="AG37" s="138"/>
+      <c r="AH37" s="138"/>
+      <c r="AI37" s="138"/>
+      <c r="AJ37" s="138"/>
+      <c r="AK37" s="138"/>
+      <c r="AL37" s="138"/>
+      <c r="AM37" s="138"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
       <c r="E38" s="83"/>
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
@@ -4813,24 +4822,24 @@
       <c r="Y38" s="32"/>
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="136"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="136"/>
-      <c r="AH38" s="136"/>
-      <c r="AI38" s="136"/>
-      <c r="AJ38" s="136"/>
-      <c r="AK38" s="136"/>
-      <c r="AL38" s="136"/>
-      <c r="AM38" s="136"/>
+      <c r="AB38" s="138"/>
+      <c r="AC38" s="138"/>
+      <c r="AD38" s="138"/>
+      <c r="AE38" s="138"/>
+      <c r="AF38" s="138"/>
+      <c r="AG38" s="138"/>
+      <c r="AH38" s="138"/>
+      <c r="AI38" s="138"/>
+      <c r="AJ38" s="138"/>
+      <c r="AK38" s="138"/>
+      <c r="AL38" s="138"/>
+      <c r="AM38" s="138"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="83"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
@@ -4854,24 +4863,24 @@
       <c r="Y39" s="32"/>
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
-      <c r="AB39" s="136"/>
-      <c r="AC39" s="136"/>
-      <c r="AD39" s="136"/>
-      <c r="AE39" s="136"/>
-      <c r="AF39" s="136"/>
-      <c r="AG39" s="136"/>
-      <c r="AH39" s="136"/>
-      <c r="AI39" s="136"/>
-      <c r="AJ39" s="136"/>
-      <c r="AK39" s="136"/>
-      <c r="AL39" s="136"/>
-      <c r="AM39" s="136"/>
+      <c r="AB39" s="138"/>
+      <c r="AC39" s="138"/>
+      <c r="AD39" s="138"/>
+      <c r="AE39" s="138"/>
+      <c r="AF39" s="138"/>
+      <c r="AG39" s="138"/>
+      <c r="AH39" s="138"/>
+      <c r="AI39" s="138"/>
+      <c r="AJ39" s="138"/>
+      <c r="AK39" s="138"/>
+      <c r="AL39" s="138"/>
+      <c r="AM39" s="138"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
@@ -4895,26 +4904,26 @@
       <c r="Y40" s="32"/>
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
-      <c r="AB40" s="136"/>
-      <c r="AC40" s="136"/>
-      <c r="AD40" s="136"/>
-      <c r="AE40" s="136"/>
-      <c r="AF40" s="136"/>
-      <c r="AG40" s="136"/>
-      <c r="AH40" s="136"/>
-      <c r="AI40" s="136"/>
-      <c r="AJ40" s="136"/>
-      <c r="AK40" s="136"/>
-      <c r="AL40" s="136"/>
-      <c r="AM40" s="136"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
+      <c r="AI40" s="138"/>
+      <c r="AJ40" s="138"/>
+      <c r="AK40" s="138"/>
+      <c r="AL40" s="138"/>
+      <c r="AM40" s="138"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
       <c r="E41" s="83"/>
       <c r="F41" s="83"/>
       <c r="G41" s="83"/>
@@ -4938,24 +4947,24 @@
       <c r="Y41" s="32"/>
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
-      <c r="AB41" s="136"/>
-      <c r="AC41" s="136"/>
-      <c r="AD41" s="136"/>
-      <c r="AE41" s="136"/>
-      <c r="AF41" s="136"/>
-      <c r="AG41" s="136"/>
-      <c r="AH41" s="136"/>
-      <c r="AI41" s="136"/>
-      <c r="AJ41" s="136"/>
-      <c r="AK41" s="136"/>
-      <c r="AL41" s="136"/>
-      <c r="AM41" s="136"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="138"/>
+      <c r="AD41" s="138"/>
+      <c r="AE41" s="138"/>
+      <c r="AF41" s="138"/>
+      <c r="AG41" s="138"/>
+      <c r="AH41" s="138"/>
+      <c r="AI41" s="138"/>
+      <c r="AJ41" s="138"/>
+      <c r="AK41" s="138"/>
+      <c r="AL41" s="138"/>
+      <c r="AM41" s="138"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
       <c r="E42" s="83"/>
       <c r="F42" s="83"/>
       <c r="G42" s="83"/>
@@ -4979,24 +4988,24 @@
       <c r="Y42" s="32"/>
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
-      <c r="AB42" s="136"/>
-      <c r="AC42" s="136"/>
-      <c r="AD42" s="136"/>
-      <c r="AE42" s="136"/>
-      <c r="AF42" s="136"/>
-      <c r="AG42" s="136"/>
-      <c r="AH42" s="136"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="136"/>
-      <c r="AK42" s="136"/>
-      <c r="AL42" s="136"/>
-      <c r="AM42" s="136"/>
+      <c r="AB42" s="138"/>
+      <c r="AC42" s="138"/>
+      <c r="AD42" s="138"/>
+      <c r="AE42" s="138"/>
+      <c r="AF42" s="138"/>
+      <c r="AG42" s="138"/>
+      <c r="AH42" s="138"/>
+      <c r="AI42" s="138"/>
+      <c r="AJ42" s="138"/>
+      <c r="AK42" s="138"/>
+      <c r="AL42" s="138"/>
+      <c r="AM42" s="138"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
       <c r="E43" s="83"/>
       <c r="F43" s="83"/>
       <c r="G43" s="83"/>
@@ -5020,24 +5029,24 @@
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
-      <c r="AB43" s="136"/>
-      <c r="AC43" s="136"/>
-      <c r="AD43" s="136"/>
-      <c r="AE43" s="136"/>
-      <c r="AF43" s="136"/>
-      <c r="AG43" s="136"/>
-      <c r="AH43" s="136"/>
-      <c r="AI43" s="136"/>
-      <c r="AJ43" s="136"/>
-      <c r="AK43" s="136"/>
-      <c r="AL43" s="136"/>
-      <c r="AM43" s="136"/>
+      <c r="AB43" s="138"/>
+      <c r="AC43" s="138"/>
+      <c r="AD43" s="138"/>
+      <c r="AE43" s="138"/>
+      <c r="AF43" s="138"/>
+      <c r="AG43" s="138"/>
+      <c r="AH43" s="138"/>
+      <c r="AI43" s="138"/>
+      <c r="AJ43" s="138"/>
+      <c r="AK43" s="138"/>
+      <c r="AL43" s="138"/>
+      <c r="AM43" s="138"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
@@ -5061,24 +5070,24 @@
       <c r="Y44" s="32"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="32"/>
-      <c r="AB44" s="136"/>
-      <c r="AC44" s="136"/>
-      <c r="AD44" s="136"/>
-      <c r="AE44" s="136"/>
-      <c r="AF44" s="136"/>
-      <c r="AG44" s="136"/>
-      <c r="AH44" s="136"/>
-      <c r="AI44" s="136"/>
-      <c r="AJ44" s="136"/>
-      <c r="AK44" s="136"/>
-      <c r="AL44" s="136"/>
-      <c r="AM44" s="136"/>
+      <c r="AB44" s="138"/>
+      <c r="AC44" s="138"/>
+      <c r="AD44" s="138"/>
+      <c r="AE44" s="138"/>
+      <c r="AF44" s="138"/>
+      <c r="AG44" s="138"/>
+      <c r="AH44" s="138"/>
+      <c r="AI44" s="138"/>
+      <c r="AJ44" s="138"/>
+      <c r="AK44" s="138"/>
+      <c r="AL44" s="138"/>
+      <c r="AM44" s="138"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
       <c r="E45" s="83"/>
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
@@ -5102,26 +5111,26 @@
       <c r="Y45" s="32"/>
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
-      <c r="AB45" s="136"/>
-      <c r="AC45" s="136"/>
-      <c r="AD45" s="136"/>
-      <c r="AE45" s="136"/>
-      <c r="AF45" s="136"/>
-      <c r="AG45" s="136"/>
-      <c r="AH45" s="136"/>
-      <c r="AI45" s="136"/>
-      <c r="AJ45" s="136"/>
-      <c r="AK45" s="136"/>
-      <c r="AL45" s="136"/>
-      <c r="AM45" s="136"/>
+      <c r="AB45" s="138"/>
+      <c r="AC45" s="138"/>
+      <c r="AD45" s="138"/>
+      <c r="AE45" s="138"/>
+      <c r="AF45" s="138"/>
+      <c r="AG45" s="138"/>
+      <c r="AH45" s="138"/>
+      <c r="AI45" s="138"/>
+      <c r="AJ45" s="138"/>
+      <c r="AK45" s="138"/>
+      <c r="AL45" s="138"/>
+      <c r="AM45" s="138"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
       <c r="E46" s="83"/>
       <c r="F46" s="83"/>
       <c r="G46" s="83"/>
@@ -5145,24 +5154,24 @@
       <c r="Y46" s="32"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
-      <c r="AB46" s="136"/>
-      <c r="AC46" s="136"/>
-      <c r="AD46" s="136"/>
-      <c r="AE46" s="136"/>
-      <c r="AF46" s="136"/>
-      <c r="AG46" s="136"/>
-      <c r="AH46" s="136"/>
-      <c r="AI46" s="136"/>
-      <c r="AJ46" s="136"/>
-      <c r="AK46" s="136"/>
-      <c r="AL46" s="136"/>
-      <c r="AM46" s="136"/>
+      <c r="AB46" s="138"/>
+      <c r="AC46" s="138"/>
+      <c r="AD46" s="138"/>
+      <c r="AE46" s="138"/>
+      <c r="AF46" s="138"/>
+      <c r="AG46" s="138"/>
+      <c r="AH46" s="138"/>
+      <c r="AI46" s="138"/>
+      <c r="AJ46" s="138"/>
+      <c r="AK46" s="138"/>
+      <c r="AL46" s="138"/>
+      <c r="AM46" s="138"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
       <c r="E47" s="83"/>
       <c r="F47" s="83"/>
       <c r="G47" s="83"/>
@@ -5186,24 +5195,24 @@
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
       <c r="AA47" s="32"/>
-      <c r="AB47" s="136"/>
-      <c r="AC47" s="136"/>
-      <c r="AD47" s="136"/>
-      <c r="AE47" s="136"/>
-      <c r="AF47" s="136"/>
-      <c r="AG47" s="136"/>
-      <c r="AH47" s="136"/>
-      <c r="AI47" s="136"/>
-      <c r="AJ47" s="136"/>
-      <c r="AK47" s="136"/>
-      <c r="AL47" s="136"/>
-      <c r="AM47" s="136"/>
+      <c r="AB47" s="138"/>
+      <c r="AC47" s="138"/>
+      <c r="AD47" s="138"/>
+      <c r="AE47" s="138"/>
+      <c r="AF47" s="138"/>
+      <c r="AG47" s="138"/>
+      <c r="AH47" s="138"/>
+      <c r="AI47" s="138"/>
+      <c r="AJ47" s="138"/>
+      <c r="AK47" s="138"/>
+      <c r="AL47" s="138"/>
+      <c r="AM47" s="138"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
       <c r="E48" s="83"/>
       <c r="F48" s="83"/>
       <c r="G48" s="83"/>
@@ -5227,24 +5236,24 @@
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="136"/>
-      <c r="AE48" s="136"/>
-      <c r="AF48" s="136"/>
-      <c r="AG48" s="136"/>
-      <c r="AH48" s="136"/>
-      <c r="AI48" s="136"/>
-      <c r="AJ48" s="136"/>
-      <c r="AK48" s="136"/>
-      <c r="AL48" s="136"/>
-      <c r="AM48" s="136"/>
+      <c r="AB48" s="138"/>
+      <c r="AC48" s="138"/>
+      <c r="AD48" s="138"/>
+      <c r="AE48" s="138"/>
+      <c r="AF48" s="138"/>
+      <c r="AG48" s="138"/>
+      <c r="AH48" s="138"/>
+      <c r="AI48" s="138"/>
+      <c r="AJ48" s="138"/>
+      <c r="AK48" s="138"/>
+      <c r="AL48" s="138"/>
+      <c r="AM48" s="138"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
@@ -5268,24 +5277,24 @@
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
-      <c r="AB49" s="136"/>
-      <c r="AC49" s="136"/>
-      <c r="AD49" s="136"/>
-      <c r="AE49" s="136"/>
-      <c r="AF49" s="136"/>
-      <c r="AG49" s="136"/>
-      <c r="AH49" s="136"/>
-      <c r="AI49" s="136"/>
-      <c r="AJ49" s="136"/>
-      <c r="AK49" s="136"/>
-      <c r="AL49" s="136"/>
-      <c r="AM49" s="136"/>
+      <c r="AB49" s="138"/>
+      <c r="AC49" s="138"/>
+      <c r="AD49" s="138"/>
+      <c r="AE49" s="138"/>
+      <c r="AF49" s="138"/>
+      <c r="AG49" s="138"/>
+      <c r="AH49" s="138"/>
+      <c r="AI49" s="138"/>
+      <c r="AJ49" s="138"/>
+      <c r="AK49" s="138"/>
+      <c r="AL49" s="138"/>
+      <c r="AM49" s="138"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
       <c r="E50" s="83"/>
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
@@ -5309,24 +5318,24 @@
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
-      <c r="AB50" s="136"/>
-      <c r="AC50" s="136"/>
-      <c r="AD50" s="136"/>
-      <c r="AE50" s="136"/>
-      <c r="AF50" s="136"/>
-      <c r="AG50" s="136"/>
-      <c r="AH50" s="136"/>
-      <c r="AI50" s="136"/>
-      <c r="AJ50" s="136"/>
-      <c r="AK50" s="136"/>
-      <c r="AL50" s="136"/>
-      <c r="AM50" s="136"/>
+      <c r="AB50" s="138"/>
+      <c r="AC50" s="138"/>
+      <c r="AD50" s="138"/>
+      <c r="AE50" s="138"/>
+      <c r="AF50" s="138"/>
+      <c r="AG50" s="138"/>
+      <c r="AH50" s="138"/>
+      <c r="AI50" s="138"/>
+      <c r="AJ50" s="138"/>
+      <c r="AK50" s="138"/>
+      <c r="AL50" s="138"/>
+      <c r="AM50" s="138"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
       <c r="E51" s="83"/>
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
@@ -5350,24 +5359,24 @@
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
-      <c r="AB51" s="136"/>
-      <c r="AC51" s="136"/>
-      <c r="AD51" s="136"/>
-      <c r="AE51" s="136"/>
-      <c r="AF51" s="136"/>
-      <c r="AG51" s="136"/>
-      <c r="AH51" s="136"/>
-      <c r="AI51" s="136"/>
-      <c r="AJ51" s="136"/>
-      <c r="AK51" s="136"/>
-      <c r="AL51" s="136"/>
-      <c r="AM51" s="136"/>
+      <c r="AB51" s="138"/>
+      <c r="AC51" s="138"/>
+      <c r="AD51" s="138"/>
+      <c r="AE51" s="138"/>
+      <c r="AF51" s="138"/>
+      <c r="AG51" s="138"/>
+      <c r="AH51" s="138"/>
+      <c r="AI51" s="138"/>
+      <c r="AJ51" s="138"/>
+      <c r="AK51" s="138"/>
+      <c r="AL51" s="138"/>
+      <c r="AM51" s="138"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
       <c r="E52" s="83"/>
       <c r="F52" s="83"/>
       <c r="G52" s="83"/>
@@ -5391,18 +5400,18 @@
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
-      <c r="AB52" s="136"/>
-      <c r="AC52" s="136"/>
-      <c r="AD52" s="136"/>
-      <c r="AE52" s="136"/>
-      <c r="AF52" s="136"/>
-      <c r="AG52" s="136"/>
-      <c r="AH52" s="136"/>
-      <c r="AI52" s="136"/>
-      <c r="AJ52" s="136"/>
-      <c r="AK52" s="136"/>
-      <c r="AL52" s="136"/>
-      <c r="AM52" s="136"/>
+      <c r="AB52" s="138"/>
+      <c r="AC52" s="138"/>
+      <c r="AD52" s="138"/>
+      <c r="AE52" s="138"/>
+      <c r="AF52" s="138"/>
+      <c r="AG52" s="138"/>
+      <c r="AH52" s="138"/>
+      <c r="AI52" s="138"/>
+      <c r="AJ52" s="138"/>
+      <c r="AK52" s="138"/>
+      <c r="AL52" s="138"/>
+      <c r="AM52" s="138"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
@@ -5740,7 +5749,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -7322,7 +7331,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -8970,7 +8979,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V41" activeCellId="0" sqref="V41"/>
     </sheetView>
   </sheetViews>
@@ -10685,7 +10694,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE20" activeCellId="0" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -12355,7 +12364,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -14804,8 +14813,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W33" activeCellId="0" sqref="W33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AZ27" activeCellId="0" sqref="AZ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17273,7 +17282,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BJ17" activeCellId="0" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
@@ -19691,8 +19700,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA28" activeCellId="0" sqref="BA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22179,8 +22188,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS25" activeCellId="0" sqref="AS25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23007,27 +23016,27 @@
       <c r="R20" s="129"/>
       <c r="S20" s="129"/>
       <c r="T20" s="129"/>
-      <c r="U20" s="99" t="s">
+      <c r="U20" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="130"/>
+      <c r="AC20" s="130"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="130"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="130"/>
+      <c r="AL20" s="130"/>
+      <c r="AM20" s="130"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="128"/>
@@ -23048,25 +23057,25 @@
       <c r="R21" s="129"/>
       <c r="S21" s="129"/>
       <c r="T21" s="129"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="99"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="130"/>
+      <c r="AL21" s="130"/>
+      <c r="AM21" s="130"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="128" t="n">
@@ -23091,27 +23100,27 @@
       <c r="R22" s="129"/>
       <c r="S22" s="129"/>
       <c r="T22" s="129"/>
-      <c r="U22" s="99" t="s">
+      <c r="U22" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="130"/>
+      <c r="AA22" s="130"/>
+      <c r="AB22" s="130"/>
+      <c r="AC22" s="130"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="130"/>
+      <c r="AI22" s="130"/>
+      <c r="AJ22" s="130"/>
+      <c r="AK22" s="130"/>
+      <c r="AL22" s="130"/>
+      <c r="AM22" s="130"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="128"/>
@@ -23132,25 +23141,25 @@
       <c r="R23" s="129"/>
       <c r="S23" s="129"/>
       <c r="T23" s="129"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="99"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="130"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="130"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="130"/>
+      <c r="AJ23" s="130"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="130"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="128" t="n">
@@ -23175,27 +23184,27 @@
       <c r="R24" s="129"/>
       <c r="S24" s="129"/>
       <c r="T24" s="129"/>
-      <c r="U24" s="99" t="s">
+      <c r="U24" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="99"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="130"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="128"/>
@@ -23216,25 +23225,25 @@
       <c r="R25" s="129"/>
       <c r="S25" s="129"/>
       <c r="T25" s="129"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="99"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="130"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="130"/>
+      <c r="AJ25" s="130"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="128" t="n">
@@ -23259,27 +23268,27 @@
       <c r="R26" s="129"/>
       <c r="S26" s="129"/>
       <c r="T26" s="129"/>
-      <c r="U26" s="99" t="s">
+      <c r="U26" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="99"/>
-      <c r="AK26" s="99"/>
-      <c r="AL26" s="99"/>
-      <c r="AM26" s="99"/>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
+      <c r="Z26" s="130"/>
+      <c r="AA26" s="130"/>
+      <c r="AB26" s="130"/>
+      <c r="AC26" s="130"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
+      <c r="AJ26" s="130"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="128"/>
@@ -23300,25 +23309,25 @@
       <c r="R27" s="129"/>
       <c r="S27" s="129"/>
       <c r="T27" s="129"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="99"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="128" t="n">
@@ -23343,27 +23352,27 @@
       <c r="R28" s="129"/>
       <c r="S28" s="129"/>
       <c r="T28" s="129"/>
-      <c r="U28" s="99" t="s">
+      <c r="U28" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="99"/>
-      <c r="AK28" s="99"/>
-      <c r="AL28" s="99"/>
-      <c r="AM28" s="99"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="130"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="130"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="130"/>
+      <c r="AJ28" s="130"/>
+      <c r="AK28" s="130"/>
+      <c r="AL28" s="130"/>
+      <c r="AM28" s="130"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
@@ -23388,25 +23397,25 @@
       <c r="R29" s="129"/>
       <c r="S29" s="129"/>
       <c r="T29" s="129"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="99"/>
-      <c r="AK29" s="99"/>
-      <c r="AL29" s="99"/>
-      <c r="AM29" s="99"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
@@ -23433,27 +23442,27 @@
       <c r="R30" s="129"/>
       <c r="S30" s="129"/>
       <c r="T30" s="129"/>
-      <c r="U30" s="99" t="s">
+      <c r="U30" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="99"/>
-      <c r="AK30" s="99"/>
-      <c r="AL30" s="99"/>
-      <c r="AM30" s="99"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
@@ -23476,25 +23485,25 @@
       <c r="R31" s="129"/>
       <c r="S31" s="129"/>
       <c r="T31" s="129"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
-      <c r="AK31" s="99"/>
-      <c r="AL31" s="99"/>
-      <c r="AM31" s="99"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
@@ -23521,27 +23530,27 @@
       <c r="R32" s="129"/>
       <c r="S32" s="129"/>
       <c r="T32" s="129"/>
-      <c r="U32" s="99" t="s">
+      <c r="U32" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="99"/>
-      <c r="AK32" s="99"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="99"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+      <c r="AI32" s="130"/>
+      <c r="AJ32" s="130"/>
+      <c r="AK32" s="130"/>
+      <c r="AL32" s="130"/>
+      <c r="AM32" s="130"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
@@ -23564,25 +23573,25 @@
       <c r="R33" s="129"/>
       <c r="S33" s="129"/>
       <c r="T33" s="129"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="99"/>
-      <c r="AK33" s="99"/>
-      <c r="AL33" s="99"/>
-      <c r="AM33" s="99"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="130"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="130"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="130"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
@@ -23609,27 +23618,27 @@
       <c r="R34" s="129"/>
       <c r="S34" s="129"/>
       <c r="T34" s="129"/>
-      <c r="U34" s="99" t="s">
+      <c r="U34" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="99"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="99"/>
-      <c r="AK34" s="99"/>
-      <c r="AL34" s="99"/>
-      <c r="AM34" s="99"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="130"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="130"/>
+      <c r="AF34" s="130"/>
+      <c r="AG34" s="130"/>
+      <c r="AH34" s="130"/>
+      <c r="AI34" s="130"/>
+      <c r="AJ34" s="130"/>
+      <c r="AK34" s="130"/>
+      <c r="AL34" s="130"/>
+      <c r="AM34" s="130"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
@@ -23652,25 +23661,25 @@
       <c r="R35" s="129"/>
       <c r="S35" s="129"/>
       <c r="T35" s="129"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="99"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
+      <c r="AC35" s="130"/>
+      <c r="AD35" s="130"/>
+      <c r="AE35" s="130"/>
+      <c r="AF35" s="130"/>
+      <c r="AG35" s="130"/>
+      <c r="AH35" s="130"/>
+      <c r="AI35" s="130"/>
+      <c r="AJ35" s="130"/>
+      <c r="AK35" s="130"/>
+      <c r="AL35" s="130"/>
+      <c r="AM35" s="130"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
@@ -23699,27 +23708,27 @@
       <c r="R36" s="129"/>
       <c r="S36" s="129"/>
       <c r="T36" s="129"/>
-      <c r="U36" s="99" t="s">
+      <c r="U36" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="V36" s="99"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="99"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="99"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="130"/>
+      <c r="AC36" s="130"/>
+      <c r="AD36" s="130"/>
+      <c r="AE36" s="130"/>
+      <c r="AF36" s="130"/>
+      <c r="AG36" s="130"/>
+      <c r="AH36" s="130"/>
+      <c r="AI36" s="130"/>
+      <c r="AJ36" s="130"/>
+      <c r="AK36" s="130"/>
+      <c r="AL36" s="130"/>
+      <c r="AM36" s="130"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
@@ -23742,25 +23751,25 @@
       <c r="R37" s="129"/>
       <c r="S37" s="129"/>
       <c r="T37" s="129"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="99"/>
-      <c r="Y37" s="99"/>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="99"/>
-      <c r="AD37" s="99"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="99"/>
-      <c r="AG37" s="99"/>
-      <c r="AH37" s="99"/>
-      <c r="AI37" s="99"/>
-      <c r="AJ37" s="99"/>
-      <c r="AK37" s="99"/>
-      <c r="AL37" s="99"/>
-      <c r="AM37" s="99"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="130"/>
+      <c r="AC37" s="130"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="130"/>
+      <c r="AG37" s="130"/>
+      <c r="AH37" s="130"/>
+      <c r="AI37" s="130"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="130"/>
+      <c r="AL37" s="130"/>
+      <c r="AM37" s="130"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
@@ -23787,27 +23796,27 @@
       <c r="R38" s="129"/>
       <c r="S38" s="129"/>
       <c r="T38" s="129"/>
-      <c r="U38" s="99" t="s">
+      <c r="U38" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="V38" s="99"/>
-      <c r="W38" s="99"/>
-      <c r="X38" s="99"/>
-      <c r="Y38" s="99"/>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="99"/>
-      <c r="AD38" s="99"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="99"/>
-      <c r="AG38" s="99"/>
-      <c r="AH38" s="99"/>
-      <c r="AI38" s="99"/>
-      <c r="AJ38" s="99"/>
-      <c r="AK38" s="99"/>
-      <c r="AL38" s="99"/>
-      <c r="AM38" s="99"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="130"/>
+      <c r="AG38" s="130"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="130"/>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="130"/>
+      <c r="AL38" s="130"/>
+      <c r="AM38" s="130"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
@@ -23830,25 +23839,25 @@
       <c r="R39" s="129"/>
       <c r="S39" s="129"/>
       <c r="T39" s="129"/>
-      <c r="U39" s="99"/>
-      <c r="V39" s="99"/>
-      <c r="W39" s="99"/>
-      <c r="X39" s="99"/>
-      <c r="Y39" s="99"/>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="99"/>
-      <c r="AC39" s="99"/>
-      <c r="AD39" s="99"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="99"/>
-      <c r="AH39" s="99"/>
-      <c r="AI39" s="99"/>
-      <c r="AJ39" s="99"/>
-      <c r="AK39" s="99"/>
-      <c r="AL39" s="99"/>
-      <c r="AM39" s="99"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="130"/>
+      <c r="AB39" s="130"/>
+      <c r="AC39" s="130"/>
+      <c r="AD39" s="130"/>
+      <c r="AE39" s="130"/>
+      <c r="AF39" s="130"/>
+      <c r="AG39" s="130"/>
+      <c r="AH39" s="130"/>
+      <c r="AI39" s="130"/>
+      <c r="AJ39" s="130"/>
+      <c r="AK39" s="130"/>
+      <c r="AL39" s="130"/>
+      <c r="AM39" s="130"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
@@ -23875,27 +23884,27 @@
       <c r="R40" s="129"/>
       <c r="S40" s="129"/>
       <c r="T40" s="129"/>
-      <c r="U40" s="99" t="s">
+      <c r="U40" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="V40" s="99"/>
-      <c r="W40" s="99"/>
-      <c r="X40" s="99"/>
-      <c r="Y40" s="99"/>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="99"/>
-      <c r="AC40" s="99"/>
-      <c r="AD40" s="99"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="99"/>
-      <c r="AH40" s="99"/>
-      <c r="AI40" s="99"/>
-      <c r="AJ40" s="99"/>
-      <c r="AK40" s="99"/>
-      <c r="AL40" s="99"/>
-      <c r="AM40" s="99"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="130"/>
+      <c r="AC40" s="130"/>
+      <c r="AD40" s="130"/>
+      <c r="AE40" s="130"/>
+      <c r="AF40" s="130"/>
+      <c r="AG40" s="130"/>
+      <c r="AH40" s="130"/>
+      <c r="AI40" s="130"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="130"/>
+      <c r="AL40" s="130"/>
+      <c r="AM40" s="130"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
@@ -23920,25 +23929,25 @@
       <c r="R41" s="129"/>
       <c r="S41" s="129"/>
       <c r="T41" s="129"/>
-      <c r="U41" s="99"/>
-      <c r="V41" s="99"/>
-      <c r="W41" s="99"/>
-      <c r="X41" s="99"/>
-      <c r="Y41" s="99"/>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="99"/>
-      <c r="AC41" s="99"/>
-      <c r="AD41" s="99"/>
-      <c r="AE41" s="99"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="99"/>
-      <c r="AH41" s="99"/>
-      <c r="AI41" s="99"/>
-      <c r="AJ41" s="99"/>
-      <c r="AK41" s="99"/>
-      <c r="AL41" s="99"/>
-      <c r="AM41" s="99"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
+      <c r="Z41" s="130"/>
+      <c r="AA41" s="130"/>
+      <c r="AB41" s="130"/>
+      <c r="AC41" s="130"/>
+      <c r="AD41" s="130"/>
+      <c r="AE41" s="130"/>
+      <c r="AF41" s="130"/>
+      <c r="AG41" s="130"/>
+      <c r="AH41" s="130"/>
+      <c r="AI41" s="130"/>
+      <c r="AJ41" s="130"/>
+      <c r="AK41" s="130"/>
+      <c r="AL41" s="130"/>
+      <c r="AM41" s="130"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
@@ -23965,19 +23974,19 @@
       <c r="R42" s="129"/>
       <c r="S42" s="129"/>
       <c r="T42" s="129"/>
-      <c r="U42" s="99" t="s">
+      <c r="U42" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="V42" s="99"/>
-      <c r="W42" s="99"/>
-      <c r="X42" s="99"/>
-      <c r="Y42" s="99"/>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="99"/>
-      <c r="AD42" s="99"/>
-      <c r="AE42" s="99"/>
+      <c r="V42" s="130"/>
+      <c r="W42" s="130"/>
+      <c r="X42" s="130"/>
+      <c r="Y42" s="130"/>
+      <c r="Z42" s="130"/>
+      <c r="AA42" s="130"/>
+      <c r="AB42" s="130"/>
+      <c r="AC42" s="130"/>
+      <c r="AD42" s="130"/>
+      <c r="AE42" s="130"/>
       <c r="AF42" s="128" t="s">
         <v>148</v>
       </c>
@@ -24010,17 +24019,17 @@
       <c r="R43" s="129"/>
       <c r="S43" s="129"/>
       <c r="T43" s="129"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="99"/>
-      <c r="W43" s="99"/>
-      <c r="X43" s="99"/>
-      <c r="Y43" s="99"/>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="99"/>
-      <c r="AD43" s="99"/>
-      <c r="AE43" s="99"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="130"/>
+      <c r="AB43" s="130"/>
+      <c r="AC43" s="130"/>
+      <c r="AD43" s="130"/>
+      <c r="AE43" s="130"/>
       <c r="AF43" s="128"/>
       <c r="AG43" s="128"/>
       <c r="AH43" s="128"/>
@@ -24055,19 +24064,19 @@
       <c r="R44" s="129"/>
       <c r="S44" s="129"/>
       <c r="T44" s="129"/>
-      <c r="U44" s="99" t="s">
+      <c r="U44" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="V44" s="99"/>
-      <c r="W44" s="99"/>
-      <c r="X44" s="99"/>
-      <c r="Y44" s="99"/>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="99"/>
-      <c r="AE44" s="99"/>
+      <c r="V44" s="130"/>
+      <c r="W44" s="130"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="130"/>
+      <c r="Z44" s="130"/>
+      <c r="AA44" s="130"/>
+      <c r="AB44" s="130"/>
+      <c r="AC44" s="130"/>
+      <c r="AD44" s="130"/>
+      <c r="AE44" s="130"/>
       <c r="AF44" s="128" t="s">
         <v>150</v>
       </c>
@@ -24100,17 +24109,17 @@
       <c r="R45" s="129"/>
       <c r="S45" s="129"/>
       <c r="T45" s="129"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="99"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="130"/>
+      <c r="AB45" s="130"/>
+      <c r="AC45" s="130"/>
+      <c r="AD45" s="130"/>
+      <c r="AE45" s="130"/>
       <c r="AF45" s="128"/>
       <c r="AG45" s="128"/>
       <c r="AH45" s="128"/>
@@ -24147,19 +24156,19 @@
       <c r="R46" s="129"/>
       <c r="S46" s="129"/>
       <c r="T46" s="129"/>
-      <c r="U46" s="99" t="s">
+      <c r="U46" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="V46" s="99"/>
-      <c r="W46" s="99"/>
-      <c r="X46" s="99"/>
-      <c r="Y46" s="99"/>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="99"/>
-      <c r="AC46" s="99"/>
-      <c r="AD46" s="99"/>
-      <c r="AE46" s="99"/>
+      <c r="V46" s="130"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="130"/>
+      <c r="Z46" s="130"/>
+      <c r="AA46" s="130"/>
+      <c r="AB46" s="130"/>
+      <c r="AC46" s="130"/>
+      <c r="AD46" s="130"/>
+      <c r="AE46" s="130"/>
       <c r="AF46" s="128" t="s">
         <v>152</v>
       </c>
@@ -24192,17 +24201,17 @@
       <c r="R47" s="129"/>
       <c r="S47" s="129"/>
       <c r="T47" s="129"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="99"/>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="99"/>
-      <c r="AC47" s="99"/>
-      <c r="AD47" s="99"/>
-      <c r="AE47" s="99"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="130"/>
+      <c r="AB47" s="130"/>
+      <c r="AC47" s="130"/>
+      <c r="AD47" s="130"/>
+      <c r="AE47" s="130"/>
       <c r="AF47" s="128"/>
       <c r="AG47" s="128"/>
       <c r="AH47" s="128"/>
@@ -24237,19 +24246,19 @@
       <c r="R48" s="129"/>
       <c r="S48" s="129"/>
       <c r="T48" s="129"/>
-      <c r="U48" s="95" t="s">
+      <c r="U48" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="V48" s="95"/>
-      <c r="W48" s="95"/>
-      <c r="X48" s="95"/>
-      <c r="Y48" s="95"/>
-      <c r="Z48" s="95"/>
-      <c r="AA48" s="95"/>
-      <c r="AB48" s="95"/>
-      <c r="AC48" s="95"/>
-      <c r="AD48" s="95"/>
-      <c r="AE48" s="95"/>
+      <c r="V48" s="131"/>
+      <c r="W48" s="131"/>
+      <c r="X48" s="131"/>
+      <c r="Y48" s="131"/>
+      <c r="Z48" s="131"/>
+      <c r="AA48" s="131"/>
+      <c r="AB48" s="131"/>
+      <c r="AC48" s="131"/>
+      <c r="AD48" s="131"/>
+      <c r="AE48" s="131"/>
       <c r="AF48" s="128" t="s">
         <v>154</v>
       </c>
@@ -24282,17 +24291,17 @@
       <c r="R49" s="129"/>
       <c r="S49" s="129"/>
       <c r="T49" s="129"/>
-      <c r="U49" s="95"/>
-      <c r="V49" s="95"/>
-      <c r="W49" s="95"/>
-      <c r="X49" s="95"/>
-      <c r="Y49" s="95"/>
-      <c r="Z49" s="95"/>
-      <c r="AA49" s="95"/>
-      <c r="AB49" s="95"/>
-      <c r="AC49" s="95"/>
-      <c r="AD49" s="95"/>
-      <c r="AE49" s="95"/>
+      <c r="U49" s="131"/>
+      <c r="V49" s="131"/>
+      <c r="W49" s="131"/>
+      <c r="X49" s="131"/>
+      <c r="Y49" s="131"/>
+      <c r="Z49" s="131"/>
+      <c r="AA49" s="131"/>
+      <c r="AB49" s="131"/>
+      <c r="AC49" s="131"/>
+      <c r="AD49" s="131"/>
+      <c r="AE49" s="131"/>
       <c r="AF49" s="128"/>
       <c r="AG49" s="128"/>
       <c r="AH49" s="128"/>
@@ -24323,17 +24332,17 @@
       <c r="R50" s="129"/>
       <c r="S50" s="129"/>
       <c r="T50" s="129"/>
-      <c r="U50" s="95"/>
-      <c r="V50" s="95"/>
-      <c r="W50" s="95"/>
-      <c r="X50" s="95"/>
-      <c r="Y50" s="95"/>
-      <c r="Z50" s="95"/>
-      <c r="AA50" s="95"/>
-      <c r="AB50" s="95"/>
-      <c r="AC50" s="95"/>
-      <c r="AD50" s="95"/>
-      <c r="AE50" s="95"/>
+      <c r="U50" s="131"/>
+      <c r="V50" s="131"/>
+      <c r="W50" s="131"/>
+      <c r="X50" s="131"/>
+      <c r="Y50" s="131"/>
+      <c r="Z50" s="131"/>
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="131"/>
+      <c r="AC50" s="131"/>
+      <c r="AD50" s="131"/>
+      <c r="AE50" s="131"/>
       <c r="AF50" s="128"/>
       <c r="AG50" s="128"/>
       <c r="AH50" s="128"/>
@@ -24438,40 +24447,40 @@
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="130"/>
+      <c r="C53" s="132"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="131"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
-      <c r="S53" s="131"/>
-      <c r="T53" s="131"/>
-      <c r="U53" s="131"/>
-      <c r="V53" s="131"/>
-      <c r="W53" s="131"/>
-      <c r="X53" s="131"/>
-      <c r="Y53" s="131"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="131"/>
-      <c r="AB53" s="131"/>
-      <c r="AC53" s="131"/>
-      <c r="AD53" s="131"/>
-      <c r="AE53" s="131"/>
-      <c r="AF53" s="131"/>
-      <c r="AG53" s="131"/>
-      <c r="AH53" s="131"/>
-      <c r="AI53" s="131"/>
-      <c r="AJ53" s="131"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="133"/>
+      <c r="P53" s="133"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="133"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
+      <c r="U53" s="133"/>
+      <c r="V53" s="133"/>
+      <c r="W53" s="133"/>
+      <c r="X53" s="133"/>
+      <c r="Y53" s="133"/>
+      <c r="Z53" s="133"/>
+      <c r="AA53" s="133"/>
+      <c r="AB53" s="133"/>
+      <c r="AC53" s="133"/>
+      <c r="AD53" s="133"/>
+      <c r="AE53" s="133"/>
+      <c r="AF53" s="133"/>
+      <c r="AG53" s="133"/>
+      <c r="AH53" s="133"/>
+      <c r="AI53" s="133"/>
+      <c r="AJ53" s="133"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="41"/>

--- a/backend/apps/excel_app/utils/report/report.xlsx
+++ b/backend/apps/excel_app/utils/report/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -520,18 +520,14 @@
   <si>
     <t xml:space="preserve">3. Перечень предоставленной технической документации</t>
   </si>
-  <si>
-    <t xml:space="preserve">Техническая документация отсутствует</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -544,19 +540,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1303,10 +1296,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1332,23 +1321,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1434,9 +1427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,7 +1443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1213200" cy="550440"/>
+          <a:ext cx="1212840" cy="550080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1492,7 +1485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1213200" cy="550440"/>
+          <a:ext cx="1212840" cy="550080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1518,9 +1511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1534,7 +1527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="625320" cy="281520"/>
+          <a:ext cx="624960" cy="281160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,7 +1655,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -3312,8 +3305,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3524,122 +3517,123 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="137" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
+      <c r="D5" s="136" t="str">
+        <f aca="false">IF(E14&lt;&gt;"", "Перечень технической документации, рассмотренной в процессе выполнения работ по обследованию строительных конструкций объекта, представлен в Таблице 4.", "Техническая документация отсутствует")</f>
+        <v>Техническая документация отсутствует</v>
+      </c>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="137"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="137"/>
-      <c r="W6" s="137"/>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="137"/>
-      <c r="Z6" s="137"/>
-      <c r="AA6" s="137"/>
-      <c r="AB6" s="137"/>
-      <c r="AC6" s="137"/>
-      <c r="AD6" s="137"/>
-      <c r="AE6" s="137"/>
-      <c r="AF6" s="137"/>
-      <c r="AG6" s="137"/>
-      <c r="AH6" s="137"/>
-      <c r="AI6" s="137"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="137"/>
-      <c r="AL6" s="137"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="136"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="136"/>
+      <c r="AG6" s="136"/>
+      <c r="AH6" s="136"/>
+      <c r="AI6" s="136"/>
+      <c r="AJ6" s="136"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="136"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="137"/>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="137"/>
-      <c r="AB7" s="137"/>
-      <c r="AC7" s="137"/>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="137"/>
-      <c r="AH7" s="137"/>
-      <c r="AI7" s="137"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="137"/>
-      <c r="AL7" s="137"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="136"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="136"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3648,218 +3642,218 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="131" t="str">
-        <f aca="false">IF(E13&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
+      <c r="C9" s="130" t="str">
+        <f aca="false">IF(E14&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
         <v/>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="131"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="131"/>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="131"/>
-      <c r="AM9" s="131"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="130"/>
+      <c r="AK9" s="130"/>
+      <c r="AL9" s="130"/>
+      <c r="AM9" s="130"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="131"/>
-      <c r="AL10" s="131"/>
-      <c r="AM10" s="131"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="130"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="138" t="str">
-        <f aca="false">IF(E13&lt;&gt;"", "№ п/п", "")</f>
+      <c r="C11" s="137" t="str">
+        <f aca="false">IF(E14&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139" t="str">
-        <f aca="false">IF(E13&lt;&gt;"", "Наименование документации", "")</f>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138" t="str">
+        <f aca="false">IF(E14&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139" t="str">
-        <f aca="false">IF(E13&lt;&gt;"", "Год выпуска", "")</f>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138" t="str">
+        <f aca="false">IF(E14&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="140" t="str">
-        <f aca="false">IF(E13&lt;&gt;"", "Разработчик", "")</f>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="139" t="str">
+        <f aca="false">IF(E14&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="140"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="140"/>
-      <c r="AH11" s="140"/>
-      <c r="AI11" s="140"/>
-      <c r="AJ11" s="140"/>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="140"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="139"/>
+      <c r="AK11" s="139"/>
+      <c r="AL11" s="139"/>
+      <c r="AM11" s="139"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="140"/>
-      <c r="AH12" s="140"/>
-      <c r="AI12" s="140"/>
-      <c r="AJ12" s="140"/>
-      <c r="AK12" s="140"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="140"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="139"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="139"/>
+      <c r="AM12" s="139"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="140"/>
-      <c r="AH13" s="140"/>
-      <c r="AI13" s="140"/>
-      <c r="AJ13" s="140"/>
-      <c r="AK13" s="140"/>
-      <c r="AL13" s="140"/>
-      <c r="AM13" s="140"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="139"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="84"/>
@@ -3883,22 +3877,22 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="141"/>
-      <c r="AJ14" s="141"/>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="141"/>
-      <c r="AM14" s="141"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="140"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="140"/>
+      <c r="AL14" s="140"/>
+      <c r="AM14" s="140"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="84"/>
@@ -3922,22 +3916,22 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="141"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="141"/>
-      <c r="AJ15" s="141"/>
-      <c r="AK15" s="141"/>
-      <c r="AL15" s="141"/>
-      <c r="AM15" s="141"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="140"/>
+      <c r="AH15" s="140"/>
+      <c r="AI15" s="140"/>
+      <c r="AJ15" s="140"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="140"/>
+      <c r="AM15" s="140"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="84"/>
@@ -3961,22 +3955,22 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="141"/>
-      <c r="AD16" s="141"/>
-      <c r="AE16" s="141"/>
-      <c r="AF16" s="141"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="141"/>
-      <c r="AJ16" s="141"/>
-      <c r="AK16" s="141"/>
-      <c r="AL16" s="141"/>
-      <c r="AM16" s="141"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="140"/>
+      <c r="AL16" s="140"/>
+      <c r="AM16" s="140"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="84"/>
@@ -4000,22 +3994,22 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="32"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="141"/>
-      <c r="AJ17" s="141"/>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="141"/>
-      <c r="AM17" s="141"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="140"/>
+      <c r="AJ17" s="140"/>
+      <c r="AK17" s="140"/>
+      <c r="AL17" s="140"/>
+      <c r="AM17" s="140"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="84"/>
@@ -4039,22 +4033,22 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="141"/>
-      <c r="AF18" s="141"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="141"/>
-      <c r="AJ18" s="141"/>
-      <c r="AK18" s="141"/>
-      <c r="AL18" s="141"/>
-      <c r="AM18" s="141"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="140"/>
+      <c r="AJ18" s="140"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="140"/>
+      <c r="AM18" s="140"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
@@ -4078,22 +4072,22 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="141"/>
-      <c r="AJ19" s="141"/>
-      <c r="AK19" s="141"/>
-      <c r="AL19" s="141"/>
-      <c r="AM19" s="141"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="140"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="140"/>
+      <c r="AM19" s="140"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
@@ -4117,22 +4111,22 @@
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="141"/>
-      <c r="AF20" s="141"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="141"/>
-      <c r="AJ20" s="141"/>
-      <c r="AK20" s="141"/>
-      <c r="AL20" s="141"/>
-      <c r="AM20" s="141"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="140"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="140"/>
+      <c r="AJ20" s="140"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="140"/>
+      <c r="AM20" s="140"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -4156,22 +4150,22 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="141"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="141"/>
-      <c r="AF21" s="141"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="141"/>
-      <c r="AJ21" s="141"/>
-      <c r="AK21" s="141"/>
-      <c r="AL21" s="141"/>
-      <c r="AM21" s="141"/>
+      <c r="AB21" s="140"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="140"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="140"/>
+      <c r="AH21" s="140"/>
+      <c r="AI21" s="140"/>
+      <c r="AJ21" s="140"/>
+      <c r="AK21" s="140"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="140"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
@@ -4195,22 +4189,22 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
-      <c r="AB22" s="141"/>
-      <c r="AC22" s="141"/>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="141"/>
-      <c r="AF22" s="141"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="141"/>
-      <c r="AJ22" s="141"/>
-      <c r="AK22" s="141"/>
-      <c r="AL22" s="141"/>
-      <c r="AM22" s="141"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="140"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="140"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="140"/>
+      <c r="AM22" s="140"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="84"/>
@@ -4234,22 +4228,22 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="141"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="141"/>
-      <c r="AF23" s="141"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="141"/>
-      <c r="AJ23" s="141"/>
-      <c r="AK23" s="141"/>
-      <c r="AL23" s="141"/>
-      <c r="AM23" s="141"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="140"/>
+      <c r="AH23" s="140"/>
+      <c r="AI23" s="140"/>
+      <c r="AJ23" s="140"/>
+      <c r="AK23" s="140"/>
+      <c r="AL23" s="140"/>
+      <c r="AM23" s="140"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
@@ -4273,22 +4267,22 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="141"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="141"/>
-      <c r="AJ24" s="141"/>
-      <c r="AK24" s="141"/>
-      <c r="AL24" s="141"/>
-      <c r="AM24" s="141"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="140"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="140"/>
+      <c r="AJ24" s="140"/>
+      <c r="AK24" s="140"/>
+      <c r="AL24" s="140"/>
+      <c r="AM24" s="140"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="84"/>
@@ -4312,22 +4306,22 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="141"/>
-      <c r="AM25" s="141"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="140"/>
+      <c r="AH25" s="140"/>
+      <c r="AI25" s="140"/>
+      <c r="AJ25" s="140"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="140"/>
+      <c r="AM25" s="140"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -4351,22 +4345,22 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="141"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="141"/>
-      <c r="AL26" s="141"/>
-      <c r="AM26" s="141"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="140"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="140"/>
+      <c r="AK26" s="140"/>
+      <c r="AL26" s="140"/>
+      <c r="AM26" s="140"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
@@ -4390,22 +4384,22 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
-      <c r="AB27" s="141"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="141"/>
-      <c r="AJ27" s="141"/>
-      <c r="AK27" s="141"/>
-      <c r="AL27" s="141"/>
-      <c r="AM27" s="141"/>
+      <c r="AB27" s="140"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="140"/>
+      <c r="AH27" s="140"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="140"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="140"/>
+      <c r="AM27" s="140"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="84"/>
@@ -4429,26 +4423,26 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
-      <c r="AB28" s="141"/>
-      <c r="AC28" s="141"/>
-      <c r="AD28" s="141"/>
-      <c r="AE28" s="141"/>
-      <c r="AF28" s="141"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="141"/>
-      <c r="AJ28" s="141"/>
-      <c r="AK28" s="141"/>
-      <c r="AL28" s="141"/>
-      <c r="AM28" s="141"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140"/>
+      <c r="AM28" s="140"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="84"/>
@@ -4472,24 +4466,24 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
-      <c r="AB29" s="141"/>
-      <c r="AC29" s="141"/>
-      <c r="AD29" s="141"/>
-      <c r="AE29" s="141"/>
-      <c r="AF29" s="141"/>
-      <c r="AG29" s="141"/>
-      <c r="AH29" s="141"/>
-      <c r="AI29" s="141"/>
-      <c r="AJ29" s="141"/>
-      <c r="AK29" s="141"/>
-      <c r="AL29" s="141"/>
-      <c r="AM29" s="141"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="140"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="G30" s="84"/>
@@ -4513,24 +4507,24 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
-      <c r="AB30" s="141"/>
-      <c r="AC30" s="141"/>
-      <c r="AD30" s="141"/>
-      <c r="AE30" s="141"/>
-      <c r="AF30" s="141"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="141"/>
-      <c r="AI30" s="141"/>
-      <c r="AJ30" s="141"/>
-      <c r="AK30" s="141"/>
-      <c r="AL30" s="141"/>
-      <c r="AM30" s="141"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="140"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="140"/>
+      <c r="AK30" s="140"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="140"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
       <c r="G31" s="84"/>
@@ -4554,24 +4548,24 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
-      <c r="AB31" s="141"/>
-      <c r="AC31" s="141"/>
-      <c r="AD31" s="141"/>
-      <c r="AE31" s="141"/>
-      <c r="AF31" s="141"/>
-      <c r="AG31" s="141"/>
-      <c r="AH31" s="141"/>
-      <c r="AI31" s="141"/>
-      <c r="AJ31" s="141"/>
-      <c r="AK31" s="141"/>
-      <c r="AL31" s="141"/>
-      <c r="AM31" s="141"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="140"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
@@ -4595,24 +4589,24 @@
       <c r="Y32" s="32"/>
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
-      <c r="AB32" s="141"/>
-      <c r="AC32" s="141"/>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="141"/>
-      <c r="AF32" s="141"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141"/>
-      <c r="AI32" s="141"/>
-      <c r="AJ32" s="141"/>
-      <c r="AK32" s="141"/>
-      <c r="AL32" s="141"/>
-      <c r="AM32" s="141"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="140"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="84"/>
       <c r="F33" s="84"/>
       <c r="G33" s="84"/>
@@ -4636,24 +4630,24 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
-      <c r="AB33" s="141"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="141"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="141"/>
-      <c r="AJ33" s="141"/>
-      <c r="AK33" s="141"/>
-      <c r="AL33" s="141"/>
-      <c r="AM33" s="141"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="140"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="140"/>
+      <c r="AJ33" s="140"/>
+      <c r="AK33" s="140"/>
+      <c r="AL33" s="140"/>
+      <c r="AM33" s="140"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="84"/>
       <c r="F34" s="84"/>
       <c r="G34" s="84"/>
@@ -4677,24 +4671,24 @@
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
-      <c r="AB34" s="141"/>
-      <c r="AC34" s="141"/>
-      <c r="AD34" s="141"/>
-      <c r="AE34" s="141"/>
-      <c r="AF34" s="141"/>
-      <c r="AG34" s="141"/>
-      <c r="AH34" s="141"/>
-      <c r="AI34" s="141"/>
-      <c r="AJ34" s="141"/>
-      <c r="AK34" s="141"/>
-      <c r="AL34" s="141"/>
-      <c r="AM34" s="141"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="140"/>
+      <c r="AF34" s="140"/>
+      <c r="AG34" s="140"/>
+      <c r="AH34" s="140"/>
+      <c r="AI34" s="140"/>
+      <c r="AJ34" s="140"/>
+      <c r="AK34" s="140"/>
+      <c r="AL34" s="140"/>
+      <c r="AM34" s="140"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="84"/>
       <c r="F35" s="84"/>
       <c r="G35" s="84"/>
@@ -4718,26 +4712,26 @@
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
-      <c r="AB35" s="141"/>
-      <c r="AC35" s="141"/>
-      <c r="AD35" s="141"/>
-      <c r="AE35" s="141"/>
-      <c r="AF35" s="141"/>
-      <c r="AG35" s="141"/>
-      <c r="AH35" s="141"/>
-      <c r="AI35" s="141"/>
-      <c r="AJ35" s="141"/>
-      <c r="AK35" s="141"/>
-      <c r="AL35" s="141"/>
-      <c r="AM35" s="141"/>
+      <c r="AB35" s="140"/>
+      <c r="AC35" s="140"/>
+      <c r="AD35" s="140"/>
+      <c r="AE35" s="140"/>
+      <c r="AF35" s="140"/>
+      <c r="AG35" s="140"/>
+      <c r="AH35" s="140"/>
+      <c r="AI35" s="140"/>
+      <c r="AJ35" s="140"/>
+      <c r="AK35" s="140"/>
+      <c r="AL35" s="140"/>
+      <c r="AM35" s="140"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="84"/>
       <c r="F36" s="84"/>
       <c r="G36" s="84"/>
@@ -4761,24 +4755,24 @@
       <c r="Y36" s="32"/>
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
-      <c r="AB36" s="141"/>
-      <c r="AC36" s="141"/>
-      <c r="AD36" s="141"/>
-      <c r="AE36" s="141"/>
-      <c r="AF36" s="141"/>
-      <c r="AG36" s="141"/>
-      <c r="AH36" s="141"/>
-      <c r="AI36" s="141"/>
-      <c r="AJ36" s="141"/>
-      <c r="AK36" s="141"/>
-      <c r="AL36" s="141"/>
-      <c r="AM36" s="141"/>
+      <c r="AB36" s="140"/>
+      <c r="AC36" s="140"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="140"/>
+      <c r="AF36" s="140"/>
+      <c r="AG36" s="140"/>
+      <c r="AH36" s="140"/>
+      <c r="AI36" s="140"/>
+      <c r="AJ36" s="140"/>
+      <c r="AK36" s="140"/>
+      <c r="AL36" s="140"/>
+      <c r="AM36" s="140"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
       <c r="G37" s="84"/>
@@ -4802,24 +4796,24 @@
       <c r="Y37" s="32"/>
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="141"/>
-      <c r="AC37" s="141"/>
-      <c r="AD37" s="141"/>
-      <c r="AE37" s="141"/>
-      <c r="AF37" s="141"/>
-      <c r="AG37" s="141"/>
-      <c r="AH37" s="141"/>
-      <c r="AI37" s="141"/>
-      <c r="AJ37" s="141"/>
-      <c r="AK37" s="141"/>
-      <c r="AL37" s="141"/>
-      <c r="AM37" s="141"/>
+      <c r="AB37" s="140"/>
+      <c r="AC37" s="140"/>
+      <c r="AD37" s="140"/>
+      <c r="AE37" s="140"/>
+      <c r="AF37" s="140"/>
+      <c r="AG37" s="140"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="140"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="140"/>
+      <c r="AM37" s="140"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
       <c r="G38" s="84"/>
@@ -4843,24 +4837,24 @@
       <c r="Y38" s="32"/>
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
-      <c r="AB38" s="141"/>
-      <c r="AC38" s="141"/>
-      <c r="AD38" s="141"/>
-      <c r="AE38" s="141"/>
-      <c r="AF38" s="141"/>
-      <c r="AG38" s="141"/>
-      <c r="AH38" s="141"/>
-      <c r="AI38" s="141"/>
-      <c r="AJ38" s="141"/>
-      <c r="AK38" s="141"/>
-      <c r="AL38" s="141"/>
-      <c r="AM38" s="141"/>
+      <c r="AB38" s="140"/>
+      <c r="AC38" s="140"/>
+      <c r="AD38" s="140"/>
+      <c r="AE38" s="140"/>
+      <c r="AF38" s="140"/>
+      <c r="AG38" s="140"/>
+      <c r="AH38" s="140"/>
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="140"/>
+      <c r="AK38" s="140"/>
+      <c r="AL38" s="140"/>
+      <c r="AM38" s="140"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
       <c r="G39" s="84"/>
@@ -4884,24 +4878,24 @@
       <c r="Y39" s="32"/>
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
-      <c r="AB39" s="141"/>
-      <c r="AC39" s="141"/>
-      <c r="AD39" s="141"/>
-      <c r="AE39" s="141"/>
-      <c r="AF39" s="141"/>
-      <c r="AG39" s="141"/>
-      <c r="AH39" s="141"/>
-      <c r="AI39" s="141"/>
-      <c r="AJ39" s="141"/>
-      <c r="AK39" s="141"/>
-      <c r="AL39" s="141"/>
-      <c r="AM39" s="141"/>
+      <c r="AB39" s="140"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="140"/>
+      <c r="AF39" s="140"/>
+      <c r="AG39" s="140"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="140"/>
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="140"/>
+      <c r="AM39" s="140"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="G40" s="84"/>
@@ -4925,26 +4919,26 @@
       <c r="Y40" s="32"/>
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
-      <c r="AB40" s="141"/>
-      <c r="AC40" s="141"/>
-      <c r="AD40" s="141"/>
-      <c r="AE40" s="141"/>
-      <c r="AF40" s="141"/>
-      <c r="AG40" s="141"/>
-      <c r="AH40" s="141"/>
-      <c r="AI40" s="141"/>
-      <c r="AJ40" s="141"/>
-      <c r="AK40" s="141"/>
-      <c r="AL40" s="141"/>
-      <c r="AM40" s="141"/>
+      <c r="AB40" s="140"/>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="140"/>
+      <c r="AE40" s="140"/>
+      <c r="AF40" s="140"/>
+      <c r="AG40" s="140"/>
+      <c r="AH40" s="140"/>
+      <c r="AI40" s="140"/>
+      <c r="AJ40" s="140"/>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="140"/>
+      <c r="AM40" s="140"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
       <c r="G41" s="84"/>
@@ -4968,24 +4962,24 @@
       <c r="Y41" s="32"/>
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
-      <c r="AB41" s="141"/>
-      <c r="AC41" s="141"/>
-      <c r="AD41" s="141"/>
-      <c r="AE41" s="141"/>
-      <c r="AF41" s="141"/>
-      <c r="AG41" s="141"/>
-      <c r="AH41" s="141"/>
-      <c r="AI41" s="141"/>
-      <c r="AJ41" s="141"/>
-      <c r="AK41" s="141"/>
-      <c r="AL41" s="141"/>
-      <c r="AM41" s="141"/>
+      <c r="AB41" s="140"/>
+      <c r="AC41" s="140"/>
+      <c r="AD41" s="140"/>
+      <c r="AE41" s="140"/>
+      <c r="AF41" s="140"/>
+      <c r="AG41" s="140"/>
+      <c r="AH41" s="140"/>
+      <c r="AI41" s="140"/>
+      <c r="AJ41" s="140"/>
+      <c r="AK41" s="140"/>
+      <c r="AL41" s="140"/>
+      <c r="AM41" s="140"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="84"/>
       <c r="F42" s="84"/>
       <c r="G42" s="84"/>
@@ -5009,24 +5003,24 @@
       <c r="Y42" s="32"/>
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
-      <c r="AB42" s="141"/>
-      <c r="AC42" s="141"/>
-      <c r="AD42" s="141"/>
-      <c r="AE42" s="141"/>
-      <c r="AF42" s="141"/>
-      <c r="AG42" s="141"/>
-      <c r="AH42" s="141"/>
-      <c r="AI42" s="141"/>
-      <c r="AJ42" s="141"/>
-      <c r="AK42" s="141"/>
-      <c r="AL42" s="141"/>
-      <c r="AM42" s="141"/>
+      <c r="AB42" s="140"/>
+      <c r="AC42" s="140"/>
+      <c r="AD42" s="140"/>
+      <c r="AE42" s="140"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="140"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="140"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="140"/>
+      <c r="AL42" s="140"/>
+      <c r="AM42" s="140"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="84"/>
       <c r="F43" s="84"/>
       <c r="G43" s="84"/>
@@ -5050,24 +5044,24 @@
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
-      <c r="AB43" s="141"/>
-      <c r="AC43" s="141"/>
-      <c r="AD43" s="141"/>
-      <c r="AE43" s="141"/>
-      <c r="AF43" s="141"/>
-      <c r="AG43" s="141"/>
-      <c r="AH43" s="141"/>
-      <c r="AI43" s="141"/>
-      <c r="AJ43" s="141"/>
-      <c r="AK43" s="141"/>
-      <c r="AL43" s="141"/>
-      <c r="AM43" s="141"/>
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="140"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="140"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="140"/>
+      <c r="AL43" s="140"/>
+      <c r="AM43" s="140"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
@@ -5091,24 +5085,24 @@
       <c r="Y44" s="32"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="32"/>
-      <c r="AB44" s="141"/>
-      <c r="AC44" s="141"/>
-      <c r="AD44" s="141"/>
-      <c r="AE44" s="141"/>
-      <c r="AF44" s="141"/>
-      <c r="AG44" s="141"/>
-      <c r="AH44" s="141"/>
-      <c r="AI44" s="141"/>
-      <c r="AJ44" s="141"/>
-      <c r="AK44" s="141"/>
-      <c r="AL44" s="141"/>
-      <c r="AM44" s="141"/>
+      <c r="AB44" s="140"/>
+      <c r="AC44" s="140"/>
+      <c r="AD44" s="140"/>
+      <c r="AE44" s="140"/>
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="140"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="140"/>
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="140"/>
+      <c r="AL44" s="140"/>
+      <c r="AM44" s="140"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="84"/>
       <c r="F45" s="84"/>
       <c r="G45" s="84"/>
@@ -5132,26 +5126,26 @@
       <c r="Y45" s="32"/>
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
-      <c r="AB45" s="141"/>
-      <c r="AC45" s="141"/>
-      <c r="AD45" s="141"/>
-      <c r="AE45" s="141"/>
-      <c r="AF45" s="141"/>
-      <c r="AG45" s="141"/>
-      <c r="AH45" s="141"/>
-      <c r="AI45" s="141"/>
-      <c r="AJ45" s="141"/>
-      <c r="AK45" s="141"/>
-      <c r="AL45" s="141"/>
-      <c r="AM45" s="141"/>
+      <c r="AB45" s="140"/>
+      <c r="AC45" s="140"/>
+      <c r="AD45" s="140"/>
+      <c r="AE45" s="140"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="140"/>
+      <c r="AH45" s="140"/>
+      <c r="AI45" s="140"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="140"/>
+      <c r="AL45" s="140"/>
+      <c r="AM45" s="140"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="84"/>
       <c r="F46" s="84"/>
       <c r="G46" s="84"/>
@@ -5175,24 +5169,24 @@
       <c r="Y46" s="32"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
-      <c r="AB46" s="141"/>
-      <c r="AC46" s="141"/>
-      <c r="AD46" s="141"/>
-      <c r="AE46" s="141"/>
-      <c r="AF46" s="141"/>
-      <c r="AG46" s="141"/>
-      <c r="AH46" s="141"/>
-      <c r="AI46" s="141"/>
-      <c r="AJ46" s="141"/>
-      <c r="AK46" s="141"/>
-      <c r="AL46" s="141"/>
-      <c r="AM46" s="141"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="140"/>
+      <c r="AF46" s="140"/>
+      <c r="AG46" s="140"/>
+      <c r="AH46" s="140"/>
+      <c r="AI46" s="140"/>
+      <c r="AJ46" s="140"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="140"/>
+      <c r="AM46" s="140"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="84"/>
       <c r="F47" s="84"/>
       <c r="G47" s="84"/>
@@ -5216,24 +5210,24 @@
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
       <c r="AA47" s="32"/>
-      <c r="AB47" s="141"/>
-      <c r="AC47" s="141"/>
-      <c r="AD47" s="141"/>
-      <c r="AE47" s="141"/>
-      <c r="AF47" s="141"/>
-      <c r="AG47" s="141"/>
-      <c r="AH47" s="141"/>
-      <c r="AI47" s="141"/>
-      <c r="AJ47" s="141"/>
-      <c r="AK47" s="141"/>
-      <c r="AL47" s="141"/>
-      <c r="AM47" s="141"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="140"/>
+      <c r="AG47" s="140"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="140"/>
+      <c r="AJ47" s="140"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="140"/>
+      <c r="AM47" s="140"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
       <c r="G48" s="84"/>
@@ -5257,24 +5251,24 @@
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
-      <c r="AB48" s="141"/>
-      <c r="AC48" s="141"/>
-      <c r="AD48" s="141"/>
-      <c r="AE48" s="141"/>
-      <c r="AF48" s="141"/>
-      <c r="AG48" s="141"/>
-      <c r="AH48" s="141"/>
-      <c r="AI48" s="141"/>
-      <c r="AJ48" s="141"/>
-      <c r="AK48" s="141"/>
-      <c r="AL48" s="141"/>
-      <c r="AM48" s="141"/>
+      <c r="AB48" s="140"/>
+      <c r="AC48" s="140"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="140"/>
+      <c r="AF48" s="140"/>
+      <c r="AG48" s="140"/>
+      <c r="AH48" s="140"/>
+      <c r="AI48" s="140"/>
+      <c r="AJ48" s="140"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="140"/>
+      <c r="AM48" s="140"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
       <c r="E49" s="84"/>
       <c r="F49" s="84"/>
       <c r="G49" s="84"/>
@@ -5298,24 +5292,24 @@
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
-      <c r="AB49" s="141"/>
-      <c r="AC49" s="141"/>
-      <c r="AD49" s="141"/>
-      <c r="AE49" s="141"/>
-      <c r="AF49" s="141"/>
-      <c r="AG49" s="141"/>
-      <c r="AH49" s="141"/>
-      <c r="AI49" s="141"/>
-      <c r="AJ49" s="141"/>
-      <c r="AK49" s="141"/>
-      <c r="AL49" s="141"/>
-      <c r="AM49" s="141"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="140"/>
+      <c r="AF49" s="140"/>
+      <c r="AG49" s="140"/>
+      <c r="AH49" s="140"/>
+      <c r="AI49" s="140"/>
+      <c r="AJ49" s="140"/>
+      <c r="AK49" s="140"/>
+      <c r="AL49" s="140"/>
+      <c r="AM49" s="140"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
       <c r="E50" s="84"/>
       <c r="F50" s="84"/>
       <c r="G50" s="84"/>
@@ -5339,24 +5333,24 @@
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
-      <c r="AB50" s="141"/>
-      <c r="AC50" s="141"/>
-      <c r="AD50" s="141"/>
-      <c r="AE50" s="141"/>
-      <c r="AF50" s="141"/>
-      <c r="AG50" s="141"/>
-      <c r="AH50" s="141"/>
-      <c r="AI50" s="141"/>
-      <c r="AJ50" s="141"/>
-      <c r="AK50" s="141"/>
-      <c r="AL50" s="141"/>
-      <c r="AM50" s="141"/>
+      <c r="AB50" s="140"/>
+      <c r="AC50" s="140"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="140"/>
+      <c r="AF50" s="140"/>
+      <c r="AG50" s="140"/>
+      <c r="AH50" s="140"/>
+      <c r="AI50" s="140"/>
+      <c r="AJ50" s="140"/>
+      <c r="AK50" s="140"/>
+      <c r="AL50" s="140"/>
+      <c r="AM50" s="140"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
       <c r="E51" s="84"/>
       <c r="F51" s="84"/>
       <c r="G51" s="84"/>
@@ -5380,24 +5374,24 @@
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
-      <c r="AB51" s="141"/>
-      <c r="AC51" s="141"/>
-      <c r="AD51" s="141"/>
-      <c r="AE51" s="141"/>
-      <c r="AF51" s="141"/>
-      <c r="AG51" s="141"/>
-      <c r="AH51" s="141"/>
-      <c r="AI51" s="141"/>
-      <c r="AJ51" s="141"/>
-      <c r="AK51" s="141"/>
-      <c r="AL51" s="141"/>
-      <c r="AM51" s="141"/>
+      <c r="AB51" s="140"/>
+      <c r="AC51" s="140"/>
+      <c r="AD51" s="140"/>
+      <c r="AE51" s="140"/>
+      <c r="AF51" s="140"/>
+      <c r="AG51" s="140"/>
+      <c r="AH51" s="140"/>
+      <c r="AI51" s="140"/>
+      <c r="AJ51" s="140"/>
+      <c r="AK51" s="140"/>
+      <c r="AL51" s="140"/>
+      <c r="AM51" s="140"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84"/>
@@ -5421,18 +5415,18 @@
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
-      <c r="AB52" s="141"/>
-      <c r="AC52" s="141"/>
-      <c r="AD52" s="141"/>
-      <c r="AE52" s="141"/>
-      <c r="AF52" s="141"/>
-      <c r="AG52" s="141"/>
-      <c r="AH52" s="141"/>
-      <c r="AI52" s="141"/>
-      <c r="AJ52" s="141"/>
-      <c r="AK52" s="141"/>
-      <c r="AL52" s="141"/>
-      <c r="AM52" s="141"/>
+      <c r="AB52" s="140"/>
+      <c r="AC52" s="140"/>
+      <c r="AD52" s="140"/>
+      <c r="AE52" s="140"/>
+      <c r="AF52" s="140"/>
+      <c r="AG52" s="140"/>
+      <c r="AH52" s="140"/>
+      <c r="AI52" s="140"/>
+      <c r="AJ52" s="140"/>
+      <c r="AK52" s="140"/>
+      <c r="AL52" s="140"/>
+      <c r="AM52" s="140"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
@@ -5578,8 +5572,10 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
+      <c r="P56" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="76"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
@@ -5770,7 +5766,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
     </sheetView>
   </sheetViews>
@@ -7219,8 +7215,8 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="141"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
@@ -7352,7 +7348,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -9000,7 +8996,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -10715,7 +10711,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -12387,7 +12383,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -14838,7 +14834,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -17309,8 +17305,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19729,8 +19725,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22048,8 +22044,10 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
+      <c r="P56" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="76"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
@@ -22217,8 +22215,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U51" activeCellId="0" sqref="U51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22820,84 +22818,84 @@
       <c r="AM14" s="47"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="131"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="131"/>
-      <c r="AM15" s="131"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="131"/>
-      <c r="AL16" s="131"/>
-      <c r="AM16" s="131"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="108" t="s">
@@ -23027,381 +23025,381 @@
         <v>1</v>
       </c>
       <c r="D20" s="92"/>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="133" t="s">
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="133"/>
-      <c r="AB20" s="133"/>
-      <c r="AC20" s="133"/>
-      <c r="AD20" s="133"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="133"/>
-      <c r="AG20" s="133"/>
-      <c r="AH20" s="133"/>
-      <c r="AI20" s="133"/>
-      <c r="AJ20" s="133"/>
-      <c r="AK20" s="133"/>
-      <c r="AL20" s="133"/>
-      <c r="AM20" s="133"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="132"/>
+      <c r="AF20" s="132"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="132"/>
+      <c r="AJ20" s="132"/>
+      <c r="AK20" s="132"/>
+      <c r="AL20" s="132"/>
+      <c r="AM20" s="132"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="133"/>
-      <c r="AA21" s="133"/>
-      <c r="AB21" s="133"/>
-      <c r="AC21" s="133"/>
-      <c r="AD21" s="133"/>
-      <c r="AE21" s="133"/>
-      <c r="AF21" s="133"/>
-      <c r="AG21" s="133"/>
-      <c r="AH21" s="133"/>
-      <c r="AI21" s="133"/>
-      <c r="AJ21" s="133"/>
-      <c r="AK21" s="133"/>
-      <c r="AL21" s="133"/>
-      <c r="AM21" s="133"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="132"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="132"/>
+      <c r="AK21" s="132"/>
+      <c r="AL21" s="132"/>
+      <c r="AM21" s="132"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="92" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="92"/>
-      <c r="E22" s="132" t="s">
+      <c r="E22" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="133" t="s">
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
-      <c r="AC22" s="133"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="133"/>
-      <c r="AG22" s="133"/>
-      <c r="AH22" s="133"/>
-      <c r="AI22" s="133"/>
-      <c r="AJ22" s="133"/>
-      <c r="AK22" s="133"/>
-      <c r="AL22" s="133"/>
-      <c r="AM22" s="133"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="132"/>
+      <c r="AF22" s="132"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="132"/>
+      <c r="AJ22" s="132"/>
+      <c r="AK22" s="132"/>
+      <c r="AL22" s="132"/>
+      <c r="AM22" s="132"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="92"/>
       <c r="D23" s="92"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="133"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="133"/>
-      <c r="AC23" s="133"/>
-      <c r="AD23" s="133"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="133"/>
-      <c r="AG23" s="133"/>
-      <c r="AH23" s="133"/>
-      <c r="AI23" s="133"/>
-      <c r="AJ23" s="133"/>
-      <c r="AK23" s="133"/>
-      <c r="AL23" s="133"/>
-      <c r="AM23" s="133"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="132"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
+      <c r="AM23" s="132"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="92" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="92"/>
-      <c r="E24" s="132" t="s">
+      <c r="E24" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="133" t="s">
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="133"/>
-      <c r="AH24" s="133"/>
-      <c r="AI24" s="133"/>
-      <c r="AJ24" s="133"/>
-      <c r="AK24" s="133"/>
-      <c r="AL24" s="133"/>
-      <c r="AM24" s="133"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="132"/>
+      <c r="AK24" s="132"/>
+      <c r="AL24" s="132"/>
+      <c r="AM24" s="132"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="133"/>
-      <c r="AA25" s="133"/>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="133"/>
-      <c r="AD25" s="133"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="133"/>
-      <c r="AG25" s="133"/>
-      <c r="AH25" s="133"/>
-      <c r="AI25" s="133"/>
-      <c r="AJ25" s="133"/>
-      <c r="AK25" s="133"/>
-      <c r="AL25" s="133"/>
-      <c r="AM25" s="133"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="92" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="92"/>
-      <c r="E26" s="132" t="s">
+      <c r="E26" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="133" t="s">
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="133"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="133"/>
-      <c r="AC26" s="133"/>
-      <c r="AD26" s="133"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="133"/>
-      <c r="AG26" s="133"/>
-      <c r="AH26" s="133"/>
-      <c r="AI26" s="133"/>
-      <c r="AJ26" s="133"/>
-      <c r="AK26" s="133"/>
-      <c r="AL26" s="133"/>
-      <c r="AM26" s="133"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="133"/>
-      <c r="AA27" s="133"/>
-      <c r="AB27" s="133"/>
-      <c r="AC27" s="133"/>
-      <c r="AD27" s="133"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="133"/>
-      <c r="AG27" s="133"/>
-      <c r="AH27" s="133"/>
-      <c r="AI27" s="133"/>
-      <c r="AJ27" s="133"/>
-      <c r="AK27" s="133"/>
-      <c r="AL27" s="133"/>
-      <c r="AM27" s="133"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="132"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="132"/>
+      <c r="AK27" s="132"/>
+      <c r="AL27" s="132"/>
+      <c r="AM27" s="132"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="92" t="n">
         <v>5</v>
       </c>
       <c r="D28" s="92"/>
-      <c r="E28" s="132" t="s">
+      <c r="E28" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="133" t="s">
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="133"/>
-      <c r="AA28" s="133"/>
-      <c r="AB28" s="133"/>
-      <c r="AC28" s="133"/>
-      <c r="AD28" s="133"/>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="133"/>
-      <c r="AG28" s="133"/>
-      <c r="AH28" s="133"/>
-      <c r="AI28" s="133"/>
-      <c r="AJ28" s="133"/>
-      <c r="AK28" s="133"/>
-      <c r="AL28" s="133"/>
-      <c r="AM28" s="133"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="132"/>
+      <c r="AM28" s="132"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
@@ -23410,41 +23408,41 @@
       <c r="B29" s="50"/>
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
-      <c r="AB29" s="133"/>
-      <c r="AC29" s="133"/>
-      <c r="AD29" s="133"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="133"/>
-      <c r="AG29" s="133"/>
-      <c r="AH29" s="133"/>
-      <c r="AI29" s="133"/>
-      <c r="AJ29" s="133"/>
-      <c r="AK29" s="133"/>
-      <c r="AL29" s="133"/>
-      <c r="AM29" s="133"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
@@ -23453,86 +23451,86 @@
         <v>6</v>
       </c>
       <c r="D30" s="92"/>
-      <c r="E30" s="132" t="s">
+      <c r="E30" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="133" t="s">
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="V30" s="133"/>
-      <c r="W30" s="133"/>
-      <c r="X30" s="133"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="133"/>
-      <c r="AA30" s="133"/>
-      <c r="AB30" s="133"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="133"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="133"/>
-      <c r="AG30" s="133"/>
-      <c r="AH30" s="133"/>
-      <c r="AI30" s="133"/>
-      <c r="AJ30" s="133"/>
-      <c r="AK30" s="133"/>
-      <c r="AL30" s="133"/>
-      <c r="AM30" s="133"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="132"/>
+      <c r="AK30" s="132"/>
+      <c r="AL30" s="132"/>
+      <c r="AM30" s="132"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="133"/>
-      <c r="W31" s="133"/>
-      <c r="X31" s="133"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="133"/>
-      <c r="AA31" s="133"/>
-      <c r="AB31" s="133"/>
-      <c r="AC31" s="133"/>
-      <c r="AD31" s="133"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="133"/>
-      <c r="AG31" s="133"/>
-      <c r="AH31" s="133"/>
-      <c r="AI31" s="133"/>
-      <c r="AJ31" s="133"/>
-      <c r="AK31" s="133"/>
-      <c r="AL31" s="133"/>
-      <c r="AM31" s="133"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="132"/>
+      <c r="AK31" s="132"/>
+      <c r="AL31" s="132"/>
+      <c r="AM31" s="132"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
@@ -23541,86 +23539,86 @@
         <v>7</v>
       </c>
       <c r="D32" s="92"/>
-      <c r="E32" s="132" t="s">
+      <c r="E32" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="133" t="s">
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="V32" s="133"/>
-      <c r="W32" s="133"/>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="133"/>
-      <c r="Z32" s="133"/>
-      <c r="AA32" s="133"/>
-      <c r="AB32" s="133"/>
-      <c r="AC32" s="133"/>
-      <c r="AD32" s="133"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="133"/>
-      <c r="AG32" s="133"/>
-      <c r="AH32" s="133"/>
-      <c r="AI32" s="133"/>
-      <c r="AJ32" s="133"/>
-      <c r="AK32" s="133"/>
-      <c r="AL32" s="133"/>
-      <c r="AM32" s="133"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="132"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="132"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="92"/>
       <c r="D33" s="92"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="133"/>
-      <c r="AA33" s="133"/>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="133"/>
-      <c r="AD33" s="133"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="133"/>
-      <c r="AG33" s="133"/>
-      <c r="AH33" s="133"/>
-      <c r="AI33" s="133"/>
-      <c r="AJ33" s="133"/>
-      <c r="AK33" s="133"/>
-      <c r="AL33" s="133"/>
-      <c r="AM33" s="133"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="132"/>
+      <c r="AL33" s="132"/>
+      <c r="AM33" s="132"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
@@ -23629,86 +23627,86 @@
         <v>8</v>
       </c>
       <c r="D34" s="92"/>
-      <c r="E34" s="132" t="s">
+      <c r="E34" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="133" t="s">
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="131"/>
+      <c r="T34" s="131"/>
+      <c r="U34" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="V34" s="133"/>
-      <c r="W34" s="133"/>
-      <c r="X34" s="133"/>
-      <c r="Y34" s="133"/>
-      <c r="Z34" s="133"/>
-      <c r="AA34" s="133"/>
-      <c r="AB34" s="133"/>
-      <c r="AC34" s="133"/>
-      <c r="AD34" s="133"/>
-      <c r="AE34" s="133"/>
-      <c r="AF34" s="133"/>
-      <c r="AG34" s="133"/>
-      <c r="AH34" s="133"/>
-      <c r="AI34" s="133"/>
-      <c r="AJ34" s="133"/>
-      <c r="AK34" s="133"/>
-      <c r="AL34" s="133"/>
-      <c r="AM34" s="133"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="132"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="92"/>
       <c r="D35" s="92"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="132"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="132"/>
-      <c r="S35" s="132"/>
-      <c r="T35" s="132"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="133"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="133"/>
-      <c r="AB35" s="133"/>
-      <c r="AC35" s="133"/>
-      <c r="AD35" s="133"/>
-      <c r="AE35" s="133"/>
-      <c r="AF35" s="133"/>
-      <c r="AG35" s="133"/>
-      <c r="AH35" s="133"/>
-      <c r="AI35" s="133"/>
-      <c r="AJ35" s="133"/>
-      <c r="AK35" s="133"/>
-      <c r="AL35" s="133"/>
-      <c r="AM35" s="133"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="132"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="132"/>
+      <c r="AE35" s="132"/>
+      <c r="AF35" s="132"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="132"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="132"/>
+      <c r="AK35" s="132"/>
+      <c r="AL35" s="132"/>
+      <c r="AM35" s="132"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
@@ -23719,86 +23717,86 @@
         <v>9</v>
       </c>
       <c r="D36" s="92"/>
-      <c r="E36" s="132" t="s">
+      <c r="E36" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="132"/>
-      <c r="T36" s="132"/>
-      <c r="U36" s="133" t="s">
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="131"/>
+      <c r="U36" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="V36" s="133"/>
-      <c r="W36" s="133"/>
-      <c r="X36" s="133"/>
-      <c r="Y36" s="133"/>
-      <c r="Z36" s="133"/>
-      <c r="AA36" s="133"/>
-      <c r="AB36" s="133"/>
-      <c r="AC36" s="133"/>
-      <c r="AD36" s="133"/>
-      <c r="AE36" s="133"/>
-      <c r="AF36" s="133"/>
-      <c r="AG36" s="133"/>
-      <c r="AH36" s="133"/>
-      <c r="AI36" s="133"/>
-      <c r="AJ36" s="133"/>
-      <c r="AK36" s="133"/>
-      <c r="AL36" s="133"/>
-      <c r="AM36" s="133"/>
+      <c r="V36" s="132"/>
+      <c r="W36" s="132"/>
+      <c r="X36" s="132"/>
+      <c r="Y36" s="132"/>
+      <c r="Z36" s="132"/>
+      <c r="AA36" s="132"/>
+      <c r="AB36" s="132"/>
+      <c r="AC36" s="132"/>
+      <c r="AD36" s="132"/>
+      <c r="AE36" s="132"/>
+      <c r="AF36" s="132"/>
+      <c r="AG36" s="132"/>
+      <c r="AH36" s="132"/>
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="132"/>
+      <c r="AK36" s="132"/>
+      <c r="AL36" s="132"/>
+      <c r="AM36" s="132"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="92"/>
       <c r="D37" s="92"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="132"/>
-      <c r="S37" s="132"/>
-      <c r="T37" s="132"/>
-      <c r="U37" s="133"/>
-      <c r="V37" s="133"/>
-      <c r="W37" s="133"/>
-      <c r="X37" s="133"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="133"/>
-      <c r="AA37" s="133"/>
-      <c r="AB37" s="133"/>
-      <c r="AC37" s="133"/>
-      <c r="AD37" s="133"/>
-      <c r="AE37" s="133"/>
-      <c r="AF37" s="133"/>
-      <c r="AG37" s="133"/>
-      <c r="AH37" s="133"/>
-      <c r="AI37" s="133"/>
-      <c r="AJ37" s="133"/>
-      <c r="AK37" s="133"/>
-      <c r="AL37" s="133"/>
-      <c r="AM37" s="133"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="132"/>
+      <c r="Z37" s="132"/>
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="132"/>
+      <c r="AE37" s="132"/>
+      <c r="AF37" s="132"/>
+      <c r="AG37" s="132"/>
+      <c r="AH37" s="132"/>
+      <c r="AI37" s="132"/>
+      <c r="AJ37" s="132"/>
+      <c r="AK37" s="132"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
@@ -23807,86 +23805,86 @@
         <v>10</v>
       </c>
       <c r="D38" s="92"/>
-      <c r="E38" s="132" t="s">
+      <c r="E38" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="132"/>
-      <c r="S38" s="132"/>
-      <c r="T38" s="132"/>
-      <c r="U38" s="133" t="s">
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
+      <c r="Q38" s="131"/>
+      <c r="R38" s="131"/>
+      <c r="S38" s="131"/>
+      <c r="T38" s="131"/>
+      <c r="U38" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="V38" s="133"/>
-      <c r="W38" s="133"/>
-      <c r="X38" s="133"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="133"/>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="133"/>
-      <c r="AE38" s="133"/>
-      <c r="AF38" s="133"/>
-      <c r="AG38" s="133"/>
-      <c r="AH38" s="133"/>
-      <c r="AI38" s="133"/>
-      <c r="AJ38" s="133"/>
-      <c r="AK38" s="133"/>
-      <c r="AL38" s="133"/>
-      <c r="AM38" s="133"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="132"/>
+      <c r="AD38" s="132"/>
+      <c r="AE38" s="132"/>
+      <c r="AF38" s="132"/>
+      <c r="AG38" s="132"/>
+      <c r="AH38" s="132"/>
+      <c r="AI38" s="132"/>
+      <c r="AJ38" s="132"/>
+      <c r="AK38" s="132"/>
+      <c r="AL38" s="132"/>
+      <c r="AM38" s="132"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="92"/>
       <c r="D39" s="92"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="132"/>
-      <c r="T39" s="132"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="133"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="133"/>
-      <c r="Z39" s="133"/>
-      <c r="AA39" s="133"/>
-      <c r="AB39" s="133"/>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="133"/>
-      <c r="AE39" s="133"/>
-      <c r="AF39" s="133"/>
-      <c r="AG39" s="133"/>
-      <c r="AH39" s="133"/>
-      <c r="AI39" s="133"/>
-      <c r="AJ39" s="133"/>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="133"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="131"/>
+      <c r="U39" s="132"/>
+      <c r="V39" s="132"/>
+      <c r="W39" s="132"/>
+      <c r="X39" s="132"/>
+      <c r="Y39" s="132"/>
+      <c r="Z39" s="132"/>
+      <c r="AA39" s="132"/>
+      <c r="AB39" s="132"/>
+      <c r="AC39" s="132"/>
+      <c r="AD39" s="132"/>
+      <c r="AE39" s="132"/>
+      <c r="AF39" s="132"/>
+      <c r="AG39" s="132"/>
+      <c r="AH39" s="132"/>
+      <c r="AI39" s="132"/>
+      <c r="AJ39" s="132"/>
+      <c r="AK39" s="132"/>
+      <c r="AL39" s="132"/>
+      <c r="AM39" s="132"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
@@ -23895,45 +23893,45 @@
         <v>11</v>
       </c>
       <c r="D40" s="92"/>
-      <c r="E40" s="132" t="s">
+      <c r="E40" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="132"/>
-      <c r="S40" s="132"/>
-      <c r="T40" s="132"/>
-      <c r="U40" s="133" t="s">
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="V40" s="133"/>
-      <c r="W40" s="133"/>
-      <c r="X40" s="133"/>
-      <c r="Y40" s="133"/>
-      <c r="Z40" s="133"/>
-      <c r="AA40" s="133"/>
-      <c r="AB40" s="133"/>
-      <c r="AC40" s="133"/>
-      <c r="AD40" s="133"/>
-      <c r="AE40" s="133"/>
-      <c r="AF40" s="133"/>
-      <c r="AG40" s="133"/>
-      <c r="AH40" s="133"/>
-      <c r="AI40" s="133"/>
-      <c r="AJ40" s="133"/>
-      <c r="AK40" s="133"/>
-      <c r="AL40" s="133"/>
-      <c r="AM40" s="133"/>
+      <c r="V40" s="132"/>
+      <c r="W40" s="132"/>
+      <c r="X40" s="132"/>
+      <c r="Y40" s="132"/>
+      <c r="Z40" s="132"/>
+      <c r="AA40" s="132"/>
+      <c r="AB40" s="132"/>
+      <c r="AC40" s="132"/>
+      <c r="AD40" s="132"/>
+      <c r="AE40" s="132"/>
+      <c r="AF40" s="132"/>
+      <c r="AG40" s="132"/>
+      <c r="AH40" s="132"/>
+      <c r="AI40" s="132"/>
+      <c r="AJ40" s="132"/>
+      <c r="AK40" s="132"/>
+      <c r="AL40" s="132"/>
+      <c r="AM40" s="132"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
@@ -23942,41 +23940,41 @@
       <c r="B41" s="50"/>
       <c r="C41" s="92"/>
       <c r="D41" s="92"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="132"/>
-      <c r="T41" s="132"/>
-      <c r="U41" s="133"/>
-      <c r="V41" s="133"/>
-      <c r="W41" s="133"/>
-      <c r="X41" s="133"/>
-      <c r="Y41" s="133"/>
-      <c r="Z41" s="133"/>
-      <c r="AA41" s="133"/>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="133"/>
-      <c r="AD41" s="133"/>
-      <c r="AE41" s="133"/>
-      <c r="AF41" s="133"/>
-      <c r="AG41" s="133"/>
-      <c r="AH41" s="133"/>
-      <c r="AI41" s="133"/>
-      <c r="AJ41" s="133"/>
-      <c r="AK41" s="133"/>
-      <c r="AL41" s="133"/>
-      <c r="AM41" s="133"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
+      <c r="S41" s="131"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="132"/>
+      <c r="Y41" s="132"/>
+      <c r="Z41" s="132"/>
+      <c r="AA41" s="132"/>
+      <c r="AB41" s="132"/>
+      <c r="AC41" s="132"/>
+      <c r="AD41" s="132"/>
+      <c r="AE41" s="132"/>
+      <c r="AF41" s="132"/>
+      <c r="AG41" s="132"/>
+      <c r="AH41" s="132"/>
+      <c r="AI41" s="132"/>
+      <c r="AJ41" s="132"/>
+      <c r="AK41" s="132"/>
+      <c r="AL41" s="132"/>
+      <c r="AM41" s="132"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
@@ -23985,37 +23983,37 @@
         <v>12</v>
       </c>
       <c r="D42" s="92"/>
-      <c r="E42" s="132" t="s">
+      <c r="E42" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="133" t="s">
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
+      <c r="S42" s="131"/>
+      <c r="T42" s="131"/>
+      <c r="U42" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="V42" s="133"/>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="133"/>
-      <c r="AD42" s="133"/>
-      <c r="AE42" s="133"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="132"/>
+      <c r="X42" s="132"/>
+      <c r="Y42" s="132"/>
+      <c r="Z42" s="132"/>
+      <c r="AA42" s="132"/>
+      <c r="AB42" s="132"/>
+      <c r="AC42" s="132"/>
+      <c r="AD42" s="132"/>
+      <c r="AE42" s="132"/>
       <c r="AF42" s="92" t="s">
         <v>148</v>
       </c>
@@ -24032,33 +24030,33 @@
       <c r="B43" s="50"/>
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="132"/>
-      <c r="U43" s="133"/>
-      <c r="V43" s="133"/>
-      <c r="W43" s="133"/>
-      <c r="X43" s="133"/>
-      <c r="Y43" s="133"/>
-      <c r="Z43" s="133"/>
-      <c r="AA43" s="133"/>
-      <c r="AB43" s="133"/>
-      <c r="AC43" s="133"/>
-      <c r="AD43" s="133"/>
-      <c r="AE43" s="133"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="131"/>
+      <c r="Q43" s="131"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="131"/>
+      <c r="T43" s="131"/>
+      <c r="U43" s="132"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="132"/>
+      <c r="AC43" s="132"/>
+      <c r="AD43" s="132"/>
+      <c r="AE43" s="132"/>
       <c r="AF43" s="92"/>
       <c r="AG43" s="92"/>
       <c r="AH43" s="92"/>
@@ -24075,37 +24073,37 @@
         <v>13</v>
       </c>
       <c r="D44" s="92"/>
-      <c r="E44" s="132" t="s">
+      <c r="E44" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
-      <c r="S44" s="132"/>
-      <c r="T44" s="132"/>
-      <c r="U44" s="133" t="s">
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="131"/>
+      <c r="P44" s="131"/>
+      <c r="Q44" s="131"/>
+      <c r="R44" s="131"/>
+      <c r="S44" s="131"/>
+      <c r="T44" s="131"/>
+      <c r="U44" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="V44" s="133"/>
-      <c r="W44" s="133"/>
-      <c r="X44" s="133"/>
-      <c r="Y44" s="133"/>
-      <c r="Z44" s="133"/>
-      <c r="AA44" s="133"/>
-      <c r="AB44" s="133"/>
-      <c r="AC44" s="133"/>
-      <c r="AD44" s="133"/>
-      <c r="AE44" s="133"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="132"/>
+      <c r="Z44" s="132"/>
+      <c r="AA44" s="132"/>
+      <c r="AB44" s="132"/>
+      <c r="AC44" s="132"/>
+      <c r="AD44" s="132"/>
+      <c r="AE44" s="132"/>
       <c r="AF44" s="92" t="s">
         <v>150</v>
       </c>
@@ -24122,33 +24120,33 @@
       <c r="B45" s="50"/>
       <c r="C45" s="92"/>
       <c r="D45" s="92"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="132"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="132"/>
-      <c r="S45" s="132"/>
-      <c r="T45" s="132"/>
-      <c r="U45" s="133"/>
-      <c r="V45" s="133"/>
-      <c r="W45" s="133"/>
-      <c r="X45" s="133"/>
-      <c r="Y45" s="133"/>
-      <c r="Z45" s="133"/>
-      <c r="AA45" s="133"/>
-      <c r="AB45" s="133"/>
-      <c r="AC45" s="133"/>
-      <c r="AD45" s="133"/>
-      <c r="AE45" s="133"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
+      <c r="P45" s="131"/>
+      <c r="Q45" s="131"/>
+      <c r="R45" s="131"/>
+      <c r="S45" s="131"/>
+      <c r="T45" s="131"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132"/>
+      <c r="AD45" s="132"/>
+      <c r="AE45" s="132"/>
       <c r="AF45" s="92"/>
       <c r="AG45" s="92"/>
       <c r="AH45" s="92"/>
@@ -24167,37 +24165,37 @@
         <v>14</v>
       </c>
       <c r="D46" s="92"/>
-      <c r="E46" s="132" t="s">
+      <c r="E46" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="132"/>
-      <c r="R46" s="132"/>
-      <c r="S46" s="132"/>
-      <c r="T46" s="132"/>
-      <c r="U46" s="133" t="s">
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="131"/>
+      <c r="Q46" s="131"/>
+      <c r="R46" s="131"/>
+      <c r="S46" s="131"/>
+      <c r="T46" s="131"/>
+      <c r="U46" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="133"/>
-      <c r="AE46" s="133"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="132"/>
+      <c r="X46" s="132"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="132"/>
+      <c r="AA46" s="132"/>
+      <c r="AB46" s="132"/>
+      <c r="AC46" s="132"/>
+      <c r="AD46" s="132"/>
+      <c r="AE46" s="132"/>
       <c r="AF46" s="92" t="s">
         <v>152</v>
       </c>
@@ -24214,33 +24212,33 @@
       <c r="B47" s="50"/>
       <c r="C47" s="92"/>
       <c r="D47" s="92"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="132"/>
-      <c r="U47" s="133"/>
-      <c r="V47" s="133"/>
-      <c r="W47" s="133"/>
-      <c r="X47" s="133"/>
-      <c r="Y47" s="133"/>
-      <c r="Z47" s="133"/>
-      <c r="AA47" s="133"/>
-      <c r="AB47" s="133"/>
-      <c r="AC47" s="133"/>
-      <c r="AD47" s="133"/>
-      <c r="AE47" s="133"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
+      <c r="Q47" s="131"/>
+      <c r="R47" s="131"/>
+      <c r="S47" s="131"/>
+      <c r="T47" s="131"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="132"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
+      <c r="AB47" s="132"/>
+      <c r="AC47" s="132"/>
+      <c r="AD47" s="132"/>
+      <c r="AE47" s="132"/>
       <c r="AF47" s="92"/>
       <c r="AG47" s="92"/>
       <c r="AH47" s="92"/>
@@ -24257,37 +24255,37 @@
         <v>15</v>
       </c>
       <c r="D48" s="92"/>
-      <c r="E48" s="132" t="s">
+      <c r="E48" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="134" t="s">
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
+      <c r="Q48" s="131"/>
+      <c r="R48" s="131"/>
+      <c r="S48" s="131"/>
+      <c r="T48" s="131"/>
+      <c r="U48" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="V48" s="134"/>
-      <c r="W48" s="134"/>
-      <c r="X48" s="134"/>
-      <c r="Y48" s="134"/>
-      <c r="Z48" s="134"/>
-      <c r="AA48" s="134"/>
-      <c r="AB48" s="134"/>
-      <c r="AC48" s="134"/>
-      <c r="AD48" s="134"/>
-      <c r="AE48" s="134"/>
+      <c r="V48" s="133"/>
+      <c r="W48" s="133"/>
+      <c r="X48" s="133"/>
+      <c r="Y48" s="133"/>
+      <c r="Z48" s="133"/>
+      <c r="AA48" s="133"/>
+      <c r="AB48" s="133"/>
+      <c r="AC48" s="133"/>
+      <c r="AD48" s="133"/>
+      <c r="AE48" s="133"/>
       <c r="AF48" s="92" t="s">
         <v>154</v>
       </c>
@@ -24304,33 +24302,33 @@
       <c r="B49" s="50"/>
       <c r="C49" s="92"/>
       <c r="D49" s="92"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="132"/>
-      <c r="Q49" s="132"/>
-      <c r="R49" s="132"/>
-      <c r="S49" s="132"/>
-      <c r="T49" s="132"/>
-      <c r="U49" s="134"/>
-      <c r="V49" s="134"/>
-      <c r="W49" s="134"/>
-      <c r="X49" s="134"/>
-      <c r="Y49" s="134"/>
-      <c r="Z49" s="134"/>
-      <c r="AA49" s="134"/>
-      <c r="AB49" s="134"/>
-      <c r="AC49" s="134"/>
-      <c r="AD49" s="134"/>
-      <c r="AE49" s="134"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131"/>
+      <c r="R49" s="131"/>
+      <c r="S49" s="131"/>
+      <c r="T49" s="131"/>
+      <c r="U49" s="133"/>
+      <c r="V49" s="133"/>
+      <c r="W49" s="133"/>
+      <c r="X49" s="133"/>
+      <c r="Y49" s="133"/>
+      <c r="Z49" s="133"/>
+      <c r="AA49" s="133"/>
+      <c r="AB49" s="133"/>
+      <c r="AC49" s="133"/>
+      <c r="AD49" s="133"/>
+      <c r="AE49" s="133"/>
       <c r="AF49" s="92"/>
       <c r="AG49" s="92"/>
       <c r="AH49" s="92"/>
@@ -24345,33 +24343,33 @@
       <c r="B50" s="50"/>
       <c r="C50" s="92"/>
       <c r="D50" s="92"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="132"/>
-      <c r="S50" s="132"/>
-      <c r="T50" s="132"/>
-      <c r="U50" s="134"/>
-      <c r="V50" s="134"/>
-      <c r="W50" s="134"/>
-      <c r="X50" s="134"/>
-      <c r="Y50" s="134"/>
-      <c r="Z50" s="134"/>
-      <c r="AA50" s="134"/>
-      <c r="AB50" s="134"/>
-      <c r="AC50" s="134"/>
-      <c r="AD50" s="134"/>
-      <c r="AE50" s="134"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="131"/>
+      <c r="Q50" s="131"/>
+      <c r="R50" s="131"/>
+      <c r="S50" s="131"/>
+      <c r="T50" s="131"/>
+      <c r="U50" s="133"/>
+      <c r="V50" s="133"/>
+      <c r="W50" s="133"/>
+      <c r="X50" s="133"/>
+      <c r="Y50" s="133"/>
+      <c r="Z50" s="133"/>
+      <c r="AA50" s="133"/>
+      <c r="AB50" s="133"/>
+      <c r="AC50" s="133"/>
+      <c r="AD50" s="133"/>
+      <c r="AE50" s="133"/>
       <c r="AF50" s="92"/>
       <c r="AG50" s="92"/>
       <c r="AH50" s="92"/>
@@ -24388,37 +24386,37 @@
         <v>16</v>
       </c>
       <c r="D51" s="92"/>
-      <c r="E51" s="132" t="s">
+      <c r="E51" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="132"/>
-      <c r="Q51" s="132"/>
-      <c r="R51" s="132"/>
-      <c r="S51" s="132"/>
-      <c r="T51" s="132"/>
-      <c r="U51" s="133" t="s">
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="131"/>
+      <c r="P51" s="131"/>
+      <c r="Q51" s="131"/>
+      <c r="R51" s="131"/>
+      <c r="S51" s="131"/>
+      <c r="T51" s="131"/>
+      <c r="U51" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="V51" s="133"/>
-      <c r="W51" s="133"/>
-      <c r="X51" s="133"/>
-      <c r="Y51" s="133"/>
-      <c r="Z51" s="133"/>
-      <c r="AA51" s="133"/>
-      <c r="AB51" s="133"/>
-      <c r="AC51" s="133"/>
-      <c r="AD51" s="133"/>
-      <c r="AE51" s="133"/>
+      <c r="V51" s="132"/>
+      <c r="W51" s="132"/>
+      <c r="X51" s="132"/>
+      <c r="Y51" s="132"/>
+      <c r="Z51" s="132"/>
+      <c r="AA51" s="132"/>
+      <c r="AB51" s="132"/>
+      <c r="AC51" s="132"/>
+      <c r="AD51" s="132"/>
+      <c r="AE51" s="132"/>
       <c r="AF51" s="92" t="s">
         <v>156</v>
       </c>
@@ -24435,33 +24433,33 @@
       <c r="B52" s="50"/>
       <c r="C52" s="92"/>
       <c r="D52" s="92"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="132"/>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="132"/>
-      <c r="S52" s="132"/>
-      <c r="T52" s="132"/>
-      <c r="U52" s="133"/>
-      <c r="V52" s="133"/>
-      <c r="W52" s="133"/>
-      <c r="X52" s="133"/>
-      <c r="Y52" s="133"/>
-      <c r="Z52" s="133"/>
-      <c r="AA52" s="133"/>
-      <c r="AB52" s="133"/>
-      <c r="AC52" s="133"/>
-      <c r="AD52" s="133"/>
-      <c r="AE52" s="133"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="131"/>
+      <c r="P52" s="131"/>
+      <c r="Q52" s="131"/>
+      <c r="R52" s="131"/>
+      <c r="S52" s="131"/>
+      <c r="T52" s="131"/>
+      <c r="U52" s="132"/>
+      <c r="V52" s="132"/>
+      <c r="W52" s="132"/>
+      <c r="X52" s="132"/>
+      <c r="Y52" s="132"/>
+      <c r="Z52" s="132"/>
+      <c r="AA52" s="132"/>
+      <c r="AB52" s="132"/>
+      <c r="AC52" s="132"/>
+      <c r="AD52" s="132"/>
+      <c r="AE52" s="132"/>
       <c r="AF52" s="92"/>
       <c r="AG52" s="92"/>
       <c r="AH52" s="92"/>
@@ -24476,40 +24474,40 @@
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="135"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="136"/>
-      <c r="O53" s="136"/>
-      <c r="P53" s="136"/>
-      <c r="Q53" s="136"/>
-      <c r="R53" s="136"/>
-      <c r="S53" s="136"/>
-      <c r="T53" s="136"/>
-      <c r="U53" s="136"/>
-      <c r="V53" s="136"/>
-      <c r="W53" s="136"/>
-      <c r="X53" s="136"/>
-      <c r="Y53" s="136"/>
-      <c r="Z53" s="136"/>
-      <c r="AA53" s="136"/>
-      <c r="AB53" s="136"/>
-      <c r="AC53" s="136"/>
-      <c r="AD53" s="136"/>
-      <c r="AE53" s="136"/>
-      <c r="AF53" s="136"/>
-      <c r="AG53" s="136"/>
-      <c r="AH53" s="136"/>
-      <c r="AI53" s="136"/>
-      <c r="AJ53" s="136"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="135"/>
+      <c r="P53" s="135"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="135"/>
+      <c r="U53" s="135"/>
+      <c r="V53" s="135"/>
+      <c r="W53" s="135"/>
+      <c r="X53" s="135"/>
+      <c r="Y53" s="135"/>
+      <c r="Z53" s="135"/>
+      <c r="AA53" s="135"/>
+      <c r="AB53" s="135"/>
+      <c r="AC53" s="135"/>
+      <c r="AD53" s="135"/>
+      <c r="AE53" s="135"/>
+      <c r="AF53" s="135"/>
+      <c r="AG53" s="135"/>
+      <c r="AH53" s="135"/>
+      <c r="AI53" s="135"/>
+      <c r="AJ53" s="135"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="41"/>
@@ -24616,8 +24614,10 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
+      <c r="P56" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="76"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
